--- a/experiment/main.xlsx
+++ b/experiment/main.xlsx
@@ -165,257 +165,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -794,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F8:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -885,6 +635,21 @@
       <c r="Q9">
         <v>1.119586</v>
       </c>
+      <c r="R9">
+        <v>1.060395</v>
+      </c>
+      <c r="S9">
+        <v>1.0609960000000001</v>
+      </c>
+      <c r="T9">
+        <v>1.059661</v>
+      </c>
+      <c r="U9">
+        <v>1.060419</v>
+      </c>
+      <c r="V9">
+        <v>1.0604979999999999</v>
+      </c>
     </row>
     <row r="10" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F10">
@@ -893,6 +658,9 @@
       <c r="G10">
         <v>0.84741900000000003</v>
       </c>
+      <c r="H10">
+        <v>0.78235200000000005</v>
+      </c>
       <c r="M10">
         <v>0.92258700000000005</v>
       </c>
@@ -907,6 +675,21 @@
       </c>
       <c r="Q10">
         <v>0.92435800000000001</v>
+      </c>
+      <c r="R10">
+        <v>0.880382</v>
+      </c>
+      <c r="S10">
+        <v>0.87957099999999999</v>
+      </c>
+      <c r="T10">
+        <v>0.87963599999999997</v>
+      </c>
+      <c r="U10">
+        <v>0.88052200000000003</v>
+      </c>
+      <c r="V10">
+        <v>0.87895999999999996</v>
       </c>
     </row>
     <row r="11" spans="6:27" x14ac:dyDescent="0.2">
@@ -916,6 +699,9 @@
       <c r="G11">
         <v>0.84596300000000002</v>
       </c>
+      <c r="H11">
+        <v>0.78138200000000002</v>
+      </c>
       <c r="M11">
         <v>0.91439800000000004</v>
       </c>
@@ -930,6 +716,21 @@
       </c>
       <c r="Q11">
         <v>0.91543600000000003</v>
+      </c>
+      <c r="R11">
+        <v>0.87110699999999996</v>
+      </c>
+      <c r="S11">
+        <v>0.87009899999999996</v>
+      </c>
+      <c r="T11">
+        <v>0.87033300000000002</v>
+      </c>
+      <c r="U11">
+        <v>0.87120500000000001</v>
+      </c>
+      <c r="V11">
+        <v>0.86958500000000005</v>
       </c>
     </row>
     <row r="12" spans="6:27" x14ac:dyDescent="0.2">
@@ -939,6 +740,9 @@
       <c r="G12">
         <v>0.84741900000000003</v>
       </c>
+      <c r="H12">
+        <v>0.78183800000000003</v>
+      </c>
       <c r="M12">
         <v>0.91182700000000005</v>
       </c>
@@ -953,6 +757,21 @@
       </c>
       <c r="Q12">
         <v>0.91238200000000003</v>
+      </c>
+      <c r="R12">
+        <v>0.85854600000000003</v>
+      </c>
+      <c r="S12">
+        <v>0.85764099999999999</v>
+      </c>
+      <c r="T12">
+        <v>0.85801899999999998</v>
+      </c>
+      <c r="U12">
+        <v>0.85883600000000004</v>
+      </c>
+      <c r="V12">
+        <v>0.85713399999999995</v>
       </c>
     </row>
     <row r="13" spans="6:27" x14ac:dyDescent="0.2">
@@ -962,6 +781,9 @@
       <c r="G13">
         <v>0.84576300000000004</v>
       </c>
+      <c r="H13">
+        <v>0.782443</v>
+      </c>
       <c r="M13">
         <v>0.91066599999999998</v>
       </c>
@@ -976,6 +798,21 @@
       </c>
       <c r="Q13">
         <v>0.91089699999999996</v>
+      </c>
+      <c r="R13">
+        <v>0.84751299999999996</v>
+      </c>
+      <c r="S13">
+        <v>0.84656699999999996</v>
+      </c>
+      <c r="T13">
+        <v>0.847024</v>
+      </c>
+      <c r="U13">
+        <v>0.84750800000000004</v>
+      </c>
+      <c r="V13">
+        <v>0.846306</v>
       </c>
     </row>
     <row r="14" spans="6:27" x14ac:dyDescent="0.2">
@@ -985,6 +822,9 @@
       <c r="G14">
         <v>0.84730099999999997</v>
       </c>
+      <c r="H14">
+        <v>0.78204899999999999</v>
+      </c>
       <c r="M14">
         <v>0.90987600000000002</v>
       </c>
@@ -999,6 +839,21 @@
       </c>
       <c r="Q14">
         <v>0.90986999999999996</v>
+      </c>
+      <c r="R14">
+        <v>0.83733599999999997</v>
+      </c>
+      <c r="S14">
+        <v>0.83637099999999998</v>
+      </c>
+      <c r="T14">
+        <v>0.83684899999999995</v>
+      </c>
+      <c r="U14">
+        <v>0.83710899999999999</v>
+      </c>
+      <c r="V14">
+        <v>0.83630499999999997</v>
       </c>
     </row>
     <row r="15" spans="6:27" x14ac:dyDescent="0.2">
@@ -1009,7 +864,10 @@
         <f>AVERAGE(G10:G14)</f>
         <v>0.846773</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <f>AVERAGE(H10:H14)</f>
+        <v>0.78201280000000006</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="M15">
@@ -1027,6 +885,21 @@
       <c r="Q15">
         <v>0.908582</v>
       </c>
+      <c r="R15">
+        <v>0.82755400000000001</v>
+      </c>
+      <c r="S15">
+        <v>0.82652099999999995</v>
+      </c>
+      <c r="T15">
+        <v>0.82706900000000005</v>
+      </c>
+      <c r="U15">
+        <v>0.82714799999999999</v>
+      </c>
+      <c r="V15">
+        <v>0.82670299999999997</v>
+      </c>
     </row>
     <row r="16" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F16" s="1" t="s">
@@ -1036,7 +909,10 @@
         <f>STDEV(G10:G14)</f>
         <v>8.351071787501195E-4</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <f>STDEV(H10:H14)</f>
+        <v>4.271717453203083E-4</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="M16">
@@ -1054,8 +930,23 @@
       <c r="Q16">
         <v>0.90613900000000003</v>
       </c>
-    </row>
-    <row r="17" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <v>0.81890499999999999</v>
+      </c>
+      <c r="S16">
+        <v>0.81781999999999999</v>
+      </c>
+      <c r="T16">
+        <v>0.81839099999999998</v>
+      </c>
+      <c r="U16">
+        <v>0.818438</v>
+      </c>
+      <c r="V16">
+        <v>0.81825099999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M17">
         <v>0.90277700000000005</v>
       </c>
@@ -1071,8 +962,23 @@
       <c r="Q17">
         <v>0.90208299999999997</v>
       </c>
-    </row>
-    <row r="18" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R17">
+        <v>0.81060399999999999</v>
+      </c>
+      <c r="S17">
+        <v>0.80950699999999998</v>
+      </c>
+      <c r="T17">
+        <v>0.81011</v>
+      </c>
+      <c r="U17">
+        <v>0.81021200000000004</v>
+      </c>
+      <c r="V17">
+        <v>0.81007200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M18">
         <v>0.89824999999999999</v>
       </c>
@@ -1088,8 +994,23 @@
       <c r="Q18">
         <v>0.89749900000000005</v>
       </c>
-    </row>
-    <row r="19" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <v>0.80314200000000002</v>
+      </c>
+      <c r="S18">
+        <v>0.80202799999999996</v>
+      </c>
+      <c r="T18">
+        <v>0.80268200000000001</v>
+      </c>
+      <c r="U18">
+        <v>0.80284199999999994</v>
+      </c>
+      <c r="V18">
+        <v>0.80265799999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M19">
         <v>0.894154</v>
       </c>
@@ -1105,8 +1026,23 @@
       <c r="Q19">
         <v>0.89346999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R19">
+        <v>0.79686500000000005</v>
+      </c>
+      <c r="S19">
+        <v>0.79574900000000004</v>
+      </c>
+      <c r="T19">
+        <v>0.796404</v>
+      </c>
+      <c r="U19">
+        <v>0.79666800000000004</v>
+      </c>
+      <c r="V19">
+        <v>0.79640900000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M20">
         <v>0.89035500000000001</v>
       </c>
@@ -1122,8 +1058,23 @@
       <c r="Q20">
         <v>0.88979799999999998</v>
       </c>
-    </row>
-    <row r="21" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <v>0.79171999999999998</v>
+      </c>
+      <c r="S20">
+        <v>0.79063600000000001</v>
+      </c>
+      <c r="T20">
+        <v>0.79125500000000004</v>
+      </c>
+      <c r="U20">
+        <v>0.79163399999999995</v>
+      </c>
+      <c r="V20">
+        <v>0.79130599999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M21">
         <v>0.88631700000000002</v>
       </c>
@@ -1139,8 +1090,23 @@
       <c r="Q21">
         <v>0.885903</v>
       </c>
-    </row>
-    <row r="22" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R21">
+        <v>0.78765700000000005</v>
+      </c>
+      <c r="S21">
+        <v>0.78662100000000001</v>
+      </c>
+      <c r="T21">
+        <v>0.78718600000000005</v>
+      </c>
+      <c r="U21">
+        <v>0.78764400000000001</v>
+      </c>
+      <c r="V21">
+        <v>0.78728200000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M22">
         <v>0.88184200000000001</v>
       </c>
@@ -1156,8 +1122,23 @@
       <c r="Q22">
         <v>0.88154200000000005</v>
       </c>
-    </row>
-    <row r="23" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R22">
+        <v>0.78474299999999997</v>
+      </c>
+      <c r="S22">
+        <v>0.78374500000000002</v>
+      </c>
+      <c r="T22">
+        <v>0.78425500000000004</v>
+      </c>
+      <c r="U22">
+        <v>0.78476999999999997</v>
+      </c>
+      <c r="V22">
+        <v>0.78439700000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M23">
         <v>0.87712599999999996</v>
       </c>
@@ -1173,8 +1154,23 @@
       <c r="Q23">
         <v>0.87690000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R23">
+        <v>0.782999</v>
+      </c>
+      <c r="S23">
+        <v>0.78202199999999999</v>
+      </c>
+      <c r="T23">
+        <v>0.78249500000000005</v>
+      </c>
+      <c r="U23">
+        <v>0.78306100000000001</v>
+      </c>
+      <c r="V23">
+        <v>0.78267600000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M24">
         <v>0.87246199999999996</v>
       </c>
@@ -1190,8 +1186,23 @@
       <c r="Q24">
         <v>0.87229000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R24">
+        <v>0.78235200000000005</v>
+      </c>
+      <c r="S24">
+        <v>0.78138200000000002</v>
+      </c>
+      <c r="T24">
+        <v>0.78183800000000003</v>
+      </c>
+      <c r="U24">
+        <v>0.782443</v>
+      </c>
+      <c r="V24">
+        <v>0.78204899999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M25">
         <v>0.86802199999999996</v>
       </c>
@@ -1207,8 +1218,23 @@
       <c r="Q25">
         <v>0.86787000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R25">
+        <v>0.78264699999999998</v>
+      </c>
+      <c r="S25">
+        <v>0.78167500000000001</v>
+      </c>
+      <c r="T25">
+        <v>0.78212400000000004</v>
+      </c>
+      <c r="U25">
+        <v>0.78274500000000002</v>
+      </c>
+      <c r="V25">
+        <v>0.78236000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M26">
         <v>0.86385900000000004</v>
       </c>
@@ -1224,8 +1250,23 @@
       <c r="Q26">
         <v>0.86368299999999998</v>
       </c>
-    </row>
-    <row r="27" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R26">
+        <v>0.78367200000000004</v>
+      </c>
+      <c r="S26">
+        <v>0.78269200000000005</v>
+      </c>
+      <c r="T26">
+        <v>0.78313500000000003</v>
+      </c>
+      <c r="U26">
+        <v>0.78374999999999995</v>
+      </c>
+      <c r="V26">
+        <v>0.78339300000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M27">
         <v>0.86001099999999997</v>
       </c>
@@ -1241,8 +1282,23 @@
       <c r="Q27">
         <v>0.85978699999999997</v>
       </c>
-    </row>
-    <row r="28" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R27">
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="S27">
+        <v>0.78420699999999999</v>
+      </c>
+      <c r="T27">
+        <v>0.78464</v>
+      </c>
+      <c r="U27">
+        <v>0.78523500000000002</v>
+      </c>
+      <c r="V27">
+        <v>0.78492300000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M28">
         <v>0.85655800000000004</v>
       </c>
@@ -1258,8 +1314,23 @@
       <c r="Q28">
         <v>0.85628700000000002</v>
       </c>
-    </row>
-    <row r="29" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R28">
+        <v>0.78703299999999998</v>
+      </c>
+      <c r="S28">
+        <v>0.78601900000000002</v>
+      </c>
+      <c r="T28">
+        <v>0.78644099999999995</v>
+      </c>
+      <c r="U28">
+        <v>0.78701100000000002</v>
+      </c>
+      <c r="V28">
+        <v>0.78674900000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M29">
         <v>0.85358599999999996</v>
       </c>
@@ -1275,8 +1346,23 @@
       <c r="Q29">
         <v>0.85328400000000004</v>
       </c>
-    </row>
-    <row r="30" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R29">
+        <v>0.789022</v>
+      </c>
+      <c r="S29">
+        <v>0.78798500000000005</v>
+      </c>
+      <c r="T29">
+        <v>0.78839599999999999</v>
+      </c>
+      <c r="U29">
+        <v>0.78893800000000003</v>
+      </c>
+      <c r="V29">
+        <v>0.78872600000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M30">
         <v>0.85115099999999999</v>
       </c>
@@ -1292,8 +1378,23 @@
       <c r="Q30">
         <v>0.85084099999999996</v>
       </c>
-    </row>
-    <row r="31" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <v>0.79107300000000003</v>
+      </c>
+      <c r="S30">
+        <v>0.79001200000000005</v>
+      </c>
+      <c r="T30">
+        <v>0.790412</v>
+      </c>
+      <c r="U30">
+        <v>0.79092899999999999</v>
+      </c>
+      <c r="V30">
+        <v>0.79076100000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M31">
         <v>0.84928899999999996</v>
       </c>
@@ -1309,8 +1410,23 @@
       <c r="Q31">
         <v>0.84900399999999998</v>
       </c>
-    </row>
-    <row r="32" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R31">
+        <v>0.79313100000000003</v>
+      </c>
+      <c r="S31">
+        <v>0.79204799999999997</v>
+      </c>
+      <c r="T31">
+        <v>0.79243799999999998</v>
+      </c>
+      <c r="U31">
+        <v>0.792933</v>
+      </c>
+      <c r="V31">
+        <v>0.79280099999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M32">
         <v>0.84803499999999998</v>
       </c>
@@ -1326,8 +1442,23 @@
       <c r="Q32">
         <v>0.84781399999999996</v>
       </c>
-    </row>
-    <row r="33" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R32">
+        <v>0.79516500000000001</v>
+      </c>
+      <c r="S32">
+        <v>0.79406500000000002</v>
+      </c>
+      <c r="T32">
+        <v>0.79444599999999999</v>
+      </c>
+      <c r="U32">
+        <v>0.79492399999999996</v>
+      </c>
+      <c r="V32">
+        <v>0.794817</v>
+      </c>
+    </row>
+    <row r="33" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M33">
         <v>0.84741900000000003</v>
       </c>
@@ -1343,8 +1474,23 @@
       <c r="Q33">
         <v>0.84730099999999997</v>
       </c>
-    </row>
-    <row r="34" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R33">
+        <v>0.79716299999999995</v>
+      </c>
+      <c r="S33">
+        <v>0.79605000000000004</v>
+      </c>
+      <c r="T33">
+        <v>0.79642100000000005</v>
+      </c>
+      <c r="U33">
+        <v>0.79688599999999998</v>
+      </c>
+      <c r="V33">
+        <v>0.79679699999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M34">
         <v>0.84745499999999996</v>
       </c>
@@ -1360,8 +1506,23 @@
       <c r="Q34">
         <v>0.84747700000000004</v>
       </c>
-    </row>
-    <row r="35" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R34">
+        <v>0.79911500000000002</v>
+      </c>
+      <c r="S34">
+        <v>0.79799399999999998</v>
+      </c>
+      <c r="T34">
+        <v>0.79835699999999998</v>
+      </c>
+      <c r="U34">
+        <v>0.79881199999999997</v>
+      </c>
+      <c r="V34">
+        <v>0.798732</v>
+      </c>
+    </row>
+    <row r="35" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M35">
         <v>0.84813000000000005</v>
       </c>
@@ -1377,8 +1538,23 @@
       <c r="Q35">
         <v>0.84832300000000005</v>
       </c>
-    </row>
-    <row r="36" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R35">
+        <v>0.80101900000000004</v>
+      </c>
+      <c r="S35">
+        <v>0.79989399999999999</v>
+      </c>
+      <c r="T35">
+        <v>0.80025000000000002</v>
+      </c>
+      <c r="U35">
+        <v>0.80069800000000002</v>
+      </c>
+      <c r="V35">
+        <v>0.80062100000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M36">
         <v>0.84940400000000005</v>
       </c>
@@ -1394,8 +1570,23 @@
       <c r="Q36">
         <v>0.84979099999999996</v>
       </c>
-    </row>
-    <row r="37" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <v>0.80287200000000003</v>
+      </c>
+      <c r="S36">
+        <v>0.80174900000000004</v>
+      </c>
+      <c r="T36">
+        <v>0.80209699999999995</v>
+      </c>
+      <c r="U36">
+        <v>0.80254000000000003</v>
+      </c>
+      <c r="V36">
+        <v>0.80246200000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M37">
         <v>0.85121400000000003</v>
       </c>
@@ -1411,8 +1602,23 @@
       <c r="Q37">
         <v>0.85180599999999995</v>
       </c>
-    </row>
-    <row r="38" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R37">
+        <v>0.80467599999999995</v>
+      </c>
+      <c r="S37">
+        <v>0.80355799999999999</v>
+      </c>
+      <c r="T37">
+        <v>0.80389699999999997</v>
+      </c>
+      <c r="U37">
+        <v>0.804338</v>
+      </c>
+      <c r="V37">
+        <v>0.80425599999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M38">
         <v>0.85348400000000002</v>
       </c>
@@ -1428,8 +1634,23 @@
       <c r="Q38">
         <v>0.85428400000000004</v>
       </c>
-    </row>
-    <row r="39" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R38">
+        <v>0.80642999999999998</v>
+      </c>
+      <c r="S38">
+        <v>0.80532000000000004</v>
+      </c>
+      <c r="T38">
+        <v>0.80565100000000001</v>
+      </c>
+      <c r="U38">
+        <v>0.806091</v>
+      </c>
+      <c r="V38">
+        <v>0.806002</v>
+      </c>
+    </row>
+    <row r="39" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M39">
         <v>0.85613399999999995</v>
       </c>
@@ -1445,8 +1666,23 @@
       <c r="Q39">
         <v>0.85713300000000003</v>
       </c>
-    </row>
-    <row r="40" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R39">
+        <v>0.80813599999999997</v>
+      </c>
+      <c r="S39">
+        <v>0.80703599999999998</v>
+      </c>
+      <c r="T39">
+        <v>0.80735900000000005</v>
+      </c>
+      <c r="U39">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="V39">
+        <v>0.80770200000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M40">
         <v>0.85908200000000001</v>
       </c>
@@ -1462,8 +1698,23 @@
       <c r="Q40">
         <v>0.860263</v>
       </c>
-    </row>
-    <row r="41" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R40">
+        <v>0.80979299999999999</v>
+      </c>
+      <c r="S40">
+        <v>0.80870699999999995</v>
+      </c>
+      <c r="T40">
+        <v>0.80901999999999996</v>
+      </c>
+      <c r="U40">
+        <v>0.80946300000000004</v>
+      </c>
+      <c r="V40">
+        <v>0.80935699999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M41">
         <v>0.86225300000000005</v>
       </c>
@@ -1479,8 +1730,23 @@
       <c r="Q41">
         <v>0.86359399999999997</v>
       </c>
-    </row>
-    <row r="42" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R41">
+        <v>0.81140500000000004</v>
+      </c>
+      <c r="S41">
+        <v>0.810334</v>
+      </c>
+      <c r="T41">
+        <v>0.81063700000000005</v>
+      </c>
+      <c r="U41">
+        <v>0.811083</v>
+      </c>
+      <c r="V41">
+        <v>0.81096699999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M42">
         <v>0.86558000000000002</v>
       </c>
@@ -1496,8 +1762,23 @@
       <c r="Q42">
         <v>0.86705299999999996</v>
       </c>
-    </row>
-    <row r="43" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R42">
+        <v>0.812971</v>
+      </c>
+      <c r="S42">
+        <v>0.81191800000000003</v>
+      </c>
+      <c r="T42">
+        <v>0.81221100000000002</v>
+      </c>
+      <c r="U42">
+        <v>0.81266000000000005</v>
+      </c>
+      <c r="V42">
+        <v>0.81253500000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M43">
         <v>0.86900299999999997</v>
       </c>
@@ -1513,8 +1794,23 @@
       <c r="Q43">
         <v>0.87057799999999996</v>
       </c>
-    </row>
-    <row r="44" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R43">
+        <v>0.81449400000000005</v>
+      </c>
+      <c r="S43">
+        <v>0.81345999999999996</v>
+      </c>
+      <c r="T43">
+        <v>0.81374100000000005</v>
+      </c>
+      <c r="U43">
+        <v>0.81419399999999997</v>
+      </c>
+      <c r="V43">
+        <v>0.81406100000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M44">
         <v>0.87247399999999997</v>
       </c>
@@ -1530,8 +1826,23 @@
       <c r="Q44">
         <v>0.87412199999999995</v>
       </c>
-    </row>
-    <row r="45" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R44">
+        <v>0.81597500000000001</v>
+      </c>
+      <c r="S44">
+        <v>0.81496100000000005</v>
+      </c>
+      <c r="T44">
+        <v>0.81523100000000004</v>
+      </c>
+      <c r="U44">
+        <v>0.81568799999999997</v>
+      </c>
+      <c r="V44">
+        <v>0.81554599999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M45">
         <v>0.87595100000000004</v>
       </c>
@@ -1547,8 +1858,23 @@
       <c r="Q45">
         <v>0.87764299999999995</v>
       </c>
-    </row>
-    <row r="46" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R45">
+        <v>0.817415</v>
+      </c>
+      <c r="S45">
+        <v>0.81642199999999998</v>
+      </c>
+      <c r="T45">
+        <v>0.81667999999999996</v>
+      </c>
+      <c r="U45">
+        <v>0.81714200000000003</v>
+      </c>
+      <c r="V45">
+        <v>0.81699200000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M46">
         <v>0.87940399999999996</v>
       </c>
@@ -1564,8 +1890,23 @@
       <c r="Q46">
         <v>0.88111499999999998</v>
       </c>
-    </row>
-    <row r="47" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R46">
+        <v>0.81881599999999999</v>
+      </c>
+      <c r="S46">
+        <v>0.81784500000000004</v>
+      </c>
+      <c r="T46">
+        <v>0.81809100000000001</v>
+      </c>
+      <c r="U46">
+        <v>0.81855699999999998</v>
+      </c>
+      <c r="V46">
+        <v>0.81840100000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M47">
         <v>0.88280899999999995</v>
       </c>
@@ -1581,8 +1922,23 @@
       <c r="Q47">
         <v>0.88451599999999997</v>
       </c>
-    </row>
-    <row r="48" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R47">
+        <v>0.82017899999999999</v>
+      </c>
+      <c r="S47">
+        <v>0.81923100000000004</v>
+      </c>
+      <c r="T47">
+        <v>0.81946399999999997</v>
+      </c>
+      <c r="U47">
+        <v>0.81993400000000005</v>
+      </c>
+      <c r="V47">
+        <v>0.81977299999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M48">
         <v>0.88615200000000005</v>
       </c>
@@ -1598,8 +1954,23 @@
       <c r="Q48">
         <v>0.88783400000000001</v>
       </c>
-    </row>
-    <row r="49" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R48">
+        <v>0.82150599999999996</v>
+      </c>
+      <c r="S48">
+        <v>0.820581</v>
+      </c>
+      <c r="T48">
+        <v>0.820801</v>
+      </c>
+      <c r="U48">
+        <v>0.82127499999999998</v>
+      </c>
+      <c r="V48">
+        <v>0.82110899999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M49">
         <v>0.88942100000000002</v>
       </c>
@@ -1615,8 +1986,23 @@
       <c r="Q49">
         <v>0.89105999999999996</v>
       </c>
-    </row>
-    <row r="50" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R49">
+        <v>0.822797</v>
+      </c>
+      <c r="S49">
+        <v>0.82189699999999999</v>
+      </c>
+      <c r="T49">
+        <v>0.82210300000000003</v>
+      </c>
+      <c r="U49">
+        <v>0.82258100000000001</v>
+      </c>
+      <c r="V49">
+        <v>0.82241200000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M50">
         <v>0.89260899999999999</v>
       </c>
@@ -1632,8 +2018,23 @@
       <c r="Q50">
         <v>0.89419300000000002</v>
       </c>
-    </row>
-    <row r="51" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R50">
+        <v>0.82405399999999995</v>
+      </c>
+      <c r="S50">
+        <v>0.82317799999999997</v>
+      </c>
+      <c r="T50">
+        <v>0.82337199999999999</v>
+      </c>
+      <c r="U50">
+        <v>0.82385399999999998</v>
+      </c>
+      <c r="V50">
+        <v>0.823681</v>
+      </c>
+    </row>
+    <row r="51" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M51">
         <v>0.89571400000000001</v>
       </c>
@@ -1649,8 +2050,23 @@
       <c r="Q51">
         <v>0.89723200000000003</v>
       </c>
-    </row>
-    <row r="52" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R51">
+        <v>0.82527899999999998</v>
+      </c>
+      <c r="S51">
+        <v>0.82442800000000005</v>
+      </c>
+      <c r="T51">
+        <v>0.82460800000000001</v>
+      </c>
+      <c r="U51">
+        <v>0.82509399999999999</v>
+      </c>
+      <c r="V51">
+        <v>0.82491899999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M52">
         <v>0.89873499999999995</v>
       </c>
@@ -1666,8 +2082,23 @@
       <c r="Q52">
         <v>0.90017800000000003</v>
       </c>
-    </row>
-    <row r="53" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R52">
+        <v>0.82647199999999998</v>
+      </c>
+      <c r="S52">
+        <v>0.82564599999999999</v>
+      </c>
+      <c r="T52">
+        <v>0.82581300000000002</v>
+      </c>
+      <c r="U52">
+        <v>0.82630199999999998</v>
+      </c>
+      <c r="V52">
+        <v>0.82612600000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M53">
         <v>0.90167200000000003</v>
       </c>
@@ -1683,8 +2114,23 @@
       <c r="Q53">
         <v>0.90303500000000003</v>
       </c>
-    </row>
-    <row r="54" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R53">
+        <v>0.82763500000000001</v>
+      </c>
+      <c r="S53">
+        <v>0.82683399999999996</v>
+      </c>
+      <c r="T53">
+        <v>0.82698799999999995</v>
+      </c>
+      <c r="U53">
+        <v>0.82747999999999999</v>
+      </c>
+      <c r="V53">
+        <v>0.82730300000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M54">
         <v>0.90452600000000005</v>
       </c>
@@ -1700,8 +2146,23 @@
       <c r="Q54">
         <v>0.905806</v>
       </c>
-    </row>
-    <row r="55" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R54">
+        <v>0.82876899999999998</v>
+      </c>
+      <c r="S54">
+        <v>0.82799299999999998</v>
+      </c>
+      <c r="T54">
+        <v>0.82813400000000004</v>
+      </c>
+      <c r="U54">
+        <v>0.82862899999999995</v>
+      </c>
+      <c r="V54">
+        <v>0.82845199999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M55">
         <v>0.90730100000000002</v>
       </c>
@@ -1717,8 +2178,23 @@
       <c r="Q55">
         <v>0.90849500000000005</v>
       </c>
-    </row>
-    <row r="56" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R55">
+        <v>0.82987599999999995</v>
+      </c>
+      <c r="S55">
+        <v>0.82912399999999997</v>
+      </c>
+      <c r="T55">
+        <v>0.82925199999999999</v>
+      </c>
+      <c r="U55">
+        <v>0.82974999999999999</v>
+      </c>
+      <c r="V55">
+        <v>0.829573</v>
+      </c>
+    </row>
+    <row r="56" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M56">
         <v>0.90999799999999997</v>
       </c>
@@ -1734,8 +2210,23 @@
       <c r="Q56">
         <v>0.91110599999999997</v>
       </c>
-    </row>
-    <row r="57" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R56">
+        <v>0.830955</v>
+      </c>
+      <c r="S56">
+        <v>0.83022700000000005</v>
+      </c>
+      <c r="T56">
+        <v>0.83034399999999997</v>
+      </c>
+      <c r="U56">
+        <v>0.83084400000000003</v>
+      </c>
+      <c r="V56">
+        <v>0.83066799999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M57">
         <v>0.91262100000000002</v>
       </c>
@@ -1751,8 +2242,23 @@
       <c r="Q57">
         <v>0.91364299999999998</v>
       </c>
-    </row>
-    <row r="58" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R57">
+        <v>0.83200799999999997</v>
+      </c>
+      <c r="S57">
+        <v>0.83130499999999996</v>
+      </c>
+      <c r="T57">
+        <v>0.83140899999999995</v>
+      </c>
+      <c r="U57">
+        <v>0.83191199999999998</v>
+      </c>
+      <c r="V57">
+        <v>0.83173699999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M58">
         <v>0.91517099999999996</v>
       </c>
@@ -1768,8 +2274,23 @@
       <c r="Q58">
         <v>0.91610999999999998</v>
       </c>
-    </row>
-    <row r="59" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R58">
+        <v>0.83303700000000003</v>
+      </c>
+      <c r="S58">
+        <v>0.83235800000000004</v>
+      </c>
+      <c r="T58">
+        <v>0.83245000000000002</v>
+      </c>
+      <c r="U58">
+        <v>0.832955</v>
+      </c>
+      <c r="V58">
+        <v>0.83278099999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M59">
         <v>0.91765200000000002</v>
       </c>
@@ -1784,6 +2305,21 @@
       </c>
       <c r="Q59">
         <v>0.91851000000000005</v>
+      </c>
+      <c r="R59">
+        <v>0.83404100000000003</v>
+      </c>
+      <c r="S59">
+        <v>0.83338599999999996</v>
+      </c>
+      <c r="T59">
+        <v>0.83346699999999996</v>
+      </c>
+      <c r="U59">
+        <v>0.83397500000000002</v>
+      </c>
+      <c r="V59">
+        <v>0.83380200000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1792,19 +2328,34 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M9:M59">
-    <cfRule type="top10" dxfId="13" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="20" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N59">
-    <cfRule type="top10" dxfId="12" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="19" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:O59">
-    <cfRule type="top10" dxfId="11" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="18" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P59">
-    <cfRule type="top10" dxfId="10" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="17" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q59">
-    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="16" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9:R59">
+    <cfRule type="top10" dxfId="4" priority="10" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9:S59">
+    <cfRule type="top10" dxfId="3" priority="9" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9:T59">
+    <cfRule type="top10" dxfId="2" priority="8" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:U59">
+    <cfRule type="top10" dxfId="1" priority="7" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V9:V59">
+    <cfRule type="top10" dxfId="0" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1816,7 +2367,7 @@
   <dimension ref="F8:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/experiment/main.xlsx
+++ b/experiment/main.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="msre" sheetId="2" r:id="rId1"/>
+    <sheet name="mae" sheetId="3" r:id="rId2"/>
+    <sheet name="rank" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>ml-1m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,11 +103,97 @@
     <t>MAE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>0 2</t>
+  </si>
+  <si>
+    <t>0 3</t>
+  </si>
+  <si>
+    <t>0 4</t>
+  </si>
+  <si>
+    <t>0 5</t>
+  </si>
+  <si>
+    <t>1 1</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>1 3</t>
+  </si>
+  <si>
+    <t>1 4</t>
+  </si>
+  <si>
+    <t>1 5</t>
+  </si>
+  <si>
+    <t>2 1</t>
+  </si>
+  <si>
+    <t>2 2</t>
+  </si>
+  <si>
+    <t>2 3</t>
+  </si>
+  <si>
+    <t>2 4</t>
+  </si>
+  <si>
+    <t>2 5</t>
+  </si>
+  <si>
+    <t>3 1</t>
+  </si>
+  <si>
+    <t>3 2</t>
+  </si>
+  <si>
+    <t>3 3</t>
+  </si>
+  <si>
+    <t>3 4</t>
+  </si>
+  <si>
+    <t>3 5</t>
+  </si>
+  <si>
+    <t>4 1</t>
+  </si>
+  <si>
+    <t>4 2</t>
+  </si>
+  <si>
+    <t>4 3</t>
+  </si>
+  <si>
+    <t>4 4</t>
+  </si>
+  <si>
+    <t>4 5</t>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stdev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,9 +242,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -165,7 +255,307 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -545,19 +935,19 @@
   <dimension ref="F8:AA59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:J22"/>
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="8" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
       <c r="M8" t="s">
         <v>8</v>
       </c>
@@ -621,19 +1011,19 @@
         <v>6</v>
       </c>
       <c r="M9">
-        <v>1.1155109999999999</v>
+        <v>1.115462</v>
       </c>
       <c r="N9">
-        <v>1.11707</v>
+        <v>1.1170800000000001</v>
       </c>
       <c r="O9">
-        <v>1.117747</v>
+        <v>1.117821</v>
       </c>
       <c r="P9">
-        <v>1.118158</v>
+        <v>1.1181449999999999</v>
       </c>
       <c r="Q9">
-        <v>1.119586</v>
+        <v>1.1196630000000001</v>
       </c>
       <c r="R9">
         <v>1.060395</v>
@@ -655,26 +1045,28 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>0.84741900000000003</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="2">
+        <v>0.83561300000000005</v>
+      </c>
+      <c r="H10" s="2">
         <v>0.78235200000000005</v>
       </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="M10">
-        <v>0.92258700000000005</v>
+        <v>0.92482900000000001</v>
       </c>
       <c r="N10">
-        <v>0.92358899999999999</v>
+        <v>0.92541099999999998</v>
       </c>
       <c r="O10">
-        <v>0.92392600000000003</v>
+        <v>0.925817</v>
       </c>
       <c r="P10">
-        <v>0.92074400000000001</v>
+        <v>0.92207399999999995</v>
       </c>
       <c r="Q10">
-        <v>0.92435800000000001</v>
+        <v>0.926203</v>
       </c>
       <c r="R10">
         <v>0.880382</v>
@@ -696,26 +1088,28 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>0.84596300000000002</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="2">
+        <v>0.83404199999999995</v>
+      </c>
+      <c r="H11" s="2">
         <v>0.78138200000000002</v>
       </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="M11">
-        <v>0.91439800000000004</v>
+        <v>0.91609499999999999</v>
       </c>
       <c r="N11">
-        <v>0.91471999999999998</v>
+        <v>0.91597499999999998</v>
       </c>
       <c r="O11">
-        <v>0.91561199999999998</v>
+        <v>0.91708500000000004</v>
       </c>
       <c r="P11">
-        <v>0.91211200000000003</v>
+        <v>0.91306299999999996</v>
       </c>
       <c r="Q11">
-        <v>0.91543600000000003</v>
+        <v>0.91694699999999996</v>
       </c>
       <c r="R11">
         <v>0.87110699999999996</v>
@@ -737,26 +1131,28 @@
       <c r="F12">
         <v>3</v>
       </c>
-      <c r="G12">
-        <v>0.84741900000000003</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="2">
+        <v>0.83663699999999996</v>
+      </c>
+      <c r="H12" s="2">
         <v>0.78183800000000003</v>
       </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
       <c r="M12">
-        <v>0.91182700000000005</v>
+        <v>0.91317499999999996</v>
       </c>
       <c r="N12">
-        <v>0.91173099999999996</v>
+        <v>0.91259999999999997</v>
       </c>
       <c r="O12">
-        <v>0.91285499999999997</v>
+        <v>0.91405700000000001</v>
       </c>
       <c r="P12">
-        <v>0.90929400000000005</v>
+        <v>0.90997300000000003</v>
       </c>
       <c r="Q12">
-        <v>0.91238200000000003</v>
+        <v>0.913609</v>
       </c>
       <c r="R12">
         <v>0.85854600000000003</v>
@@ -778,26 +1174,28 @@
       <c r="F13">
         <v>4</v>
       </c>
-      <c r="G13">
-        <v>0.84576300000000004</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="2">
+        <v>0.83408499999999997</v>
+      </c>
+      <c r="H13" s="2">
         <v>0.782443</v>
       </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
       <c r="M13">
-        <v>0.91066599999999998</v>
+        <v>0.91175300000000004</v>
       </c>
       <c r="N13">
-        <v>0.91029400000000005</v>
+        <v>0.91089200000000003</v>
       </c>
       <c r="O13">
-        <v>0.91154599999999997</v>
+        <v>0.91253499999999999</v>
       </c>
       <c r="P13">
-        <v>0.90799200000000002</v>
+        <v>0.90846400000000005</v>
       </c>
       <c r="Q13">
-        <v>0.91089699999999996</v>
+        <v>0.91189200000000004</v>
       </c>
       <c r="R13">
         <v>0.84751299999999996</v>
@@ -819,26 +1217,28 @@
       <c r="F14">
         <v>5</v>
       </c>
-      <c r="G14">
-        <v>0.84730099999999997</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="2">
+        <v>0.83704699999999999</v>
+      </c>
+      <c r="H14" s="2">
         <v>0.78204899999999999</v>
       </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="M14">
-        <v>0.90987600000000002</v>
+        <v>0.91071199999999997</v>
       </c>
       <c r="N14">
-        <v>0.90927199999999997</v>
+        <v>0.90967699999999996</v>
       </c>
       <c r="O14">
-        <v>0.91069299999999997</v>
+        <v>0.91143399999999997</v>
       </c>
       <c r="P14">
-        <v>0.90710500000000005</v>
+        <v>0.90739800000000004</v>
       </c>
       <c r="Q14">
-        <v>0.90986999999999996</v>
+        <v>0.91064999999999996</v>
       </c>
       <c r="R14">
         <v>0.83733599999999997</v>
@@ -860,30 +1260,30 @@
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <f>AVERAGE(G10:G14)</f>
-        <v>0.846773</v>
-      </c>
-      <c r="H15" s="1">
+        <v>0.83548480000000003</v>
+      </c>
+      <c r="H15" s="3">
         <f>AVERAGE(H10:H14)</f>
         <v>0.78201280000000006</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="M15">
-        <v>0.90880499999999997</v>
+        <v>0.90943200000000002</v>
       </c>
       <c r="N15">
-        <v>0.90790000000000004</v>
+        <v>0.90830900000000003</v>
       </c>
       <c r="O15">
-        <v>0.90975200000000001</v>
+        <v>0.91016600000000003</v>
       </c>
       <c r="P15">
-        <v>0.90593900000000005</v>
+        <v>0.90616200000000002</v>
       </c>
       <c r="Q15">
-        <v>0.908582</v>
+        <v>0.90923699999999996</v>
       </c>
       <c r="R15">
         <v>0.82755400000000001</v>
@@ -905,30 +1305,30 @@
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <f>STDEV(G10:G14)</f>
-        <v>8.351071787501195E-4</v>
-      </c>
-      <c r="H16" s="1">
+        <v>1.3987119789291972E-3</v>
+      </c>
+      <c r="H16" s="3">
         <f>STDEV(H10:H14)</f>
         <v>4.271717453203083E-4</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="M16">
-        <v>0.90661400000000003</v>
+        <v>0.90740100000000001</v>
       </c>
       <c r="N16">
-        <v>0.90526300000000004</v>
+        <v>0.90626399999999996</v>
       </c>
       <c r="O16">
-        <v>0.90804099999999999</v>
+        <v>0.90823100000000001</v>
       </c>
       <c r="P16">
-        <v>0.90362699999999996</v>
+        <v>0.90423699999999996</v>
       </c>
       <c r="Q16">
-        <v>0.90613900000000003</v>
+        <v>0.90712400000000004</v>
       </c>
       <c r="R16">
         <v>0.81890499999999999</v>
@@ -948,19 +1348,19 @@
     </row>
     <row r="17" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M17">
-        <v>0.90277700000000005</v>
+        <v>0.90450200000000003</v>
       </c>
       <c r="N17">
-        <v>0.90112400000000004</v>
+        <v>0.90340100000000001</v>
       </c>
       <c r="O17">
-        <v>0.90480700000000003</v>
+        <v>0.905447</v>
       </c>
       <c r="P17">
-        <v>0.89964900000000003</v>
+        <v>0.90142199999999995</v>
       </c>
       <c r="Q17">
-        <v>0.90208299999999997</v>
+        <v>0.90419099999999997</v>
       </c>
       <c r="R17">
         <v>0.81060399999999999</v>
@@ -980,19 +1380,19 @@
     </row>
     <row r="18" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M18">
-        <v>0.89824999999999999</v>
+        <v>0.90123699999999995</v>
       </c>
       <c r="N18">
-        <v>0.89671100000000004</v>
+        <v>0.900177</v>
       </c>
       <c r="O18">
-        <v>0.90030100000000002</v>
+        <v>0.90221499999999999</v>
       </c>
       <c r="P18">
-        <v>0.89498500000000003</v>
+        <v>0.89813100000000001</v>
       </c>
       <c r="Q18">
-        <v>0.89749900000000005</v>
+        <v>0.90093100000000004</v>
       </c>
       <c r="R18">
         <v>0.80314200000000002</v>
@@ -1012,19 +1412,19 @@
     </row>
     <row r="19" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M19">
-        <v>0.894154</v>
+        <v>0.89818299999999995</v>
       </c>
       <c r="N19">
-        <v>0.89282499999999998</v>
+        <v>0.89713399999999999</v>
       </c>
       <c r="O19">
-        <v>0.89577200000000001</v>
+        <v>0.89910000000000001</v>
       </c>
       <c r="P19">
-        <v>0.89077899999999999</v>
+        <v>0.89495499999999995</v>
       </c>
       <c r="Q19">
-        <v>0.89346999999999999</v>
+        <v>0.89790099999999995</v>
       </c>
       <c r="R19">
         <v>0.79686500000000005</v>
@@ -1044,19 +1444,19 @@
     </row>
     <row r="20" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M20">
-        <v>0.89035500000000001</v>
+        <v>0.89553499999999997</v>
       </c>
       <c r="N20">
-        <v>0.88912899999999995</v>
+        <v>0.89446599999999998</v>
       </c>
       <c r="O20">
-        <v>0.89159999999999995</v>
+        <v>0.89634999999999998</v>
       </c>
       <c r="P20">
-        <v>0.88694099999999998</v>
+        <v>0.89216600000000001</v>
       </c>
       <c r="Q20">
-        <v>0.88979799999999998</v>
+        <v>0.89528600000000003</v>
       </c>
       <c r="R20">
         <v>0.79171999999999998</v>
@@ -1076,19 +1476,19 @@
     </row>
     <row r="21" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M21">
-        <v>0.88631700000000002</v>
+        <v>0.89321799999999996</v>
       </c>
       <c r="N21">
-        <v>0.88510599999999995</v>
+        <v>0.89210999999999996</v>
       </c>
       <c r="O21">
-        <v>0.88734400000000002</v>
+        <v>0.89392700000000003</v>
       </c>
       <c r="P21">
-        <v>0.88294300000000003</v>
+        <v>0.88973500000000005</v>
       </c>
       <c r="Q21">
-        <v>0.885903</v>
+        <v>0.893007</v>
       </c>
       <c r="R21">
         <v>0.78765700000000005</v>
@@ -1108,19 +1508,19 @@
     </row>
     <row r="22" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M22">
-        <v>0.88184200000000001</v>
+        <v>0.89106200000000002</v>
       </c>
       <c r="N22">
-        <v>0.88059200000000004</v>
+        <v>0.88991100000000001</v>
       </c>
       <c r="O22">
-        <v>0.88274399999999997</v>
+        <v>0.89167799999999997</v>
       </c>
       <c r="P22">
-        <v>0.87856000000000001</v>
+        <v>0.88751199999999997</v>
       </c>
       <c r="Q22">
-        <v>0.88154200000000005</v>
+        <v>0.890899</v>
       </c>
       <c r="R22">
         <v>0.78474299999999997</v>
@@ -1140,19 +1540,19 @@
     </row>
     <row r="23" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M23">
-        <v>0.87712599999999996</v>
+        <v>0.88889700000000005</v>
       </c>
       <c r="N23">
-        <v>0.87583299999999997</v>
+        <v>0.88770499999999997</v>
       </c>
       <c r="O23">
-        <v>0.87795699999999999</v>
+        <v>0.88943099999999997</v>
       </c>
       <c r="P23">
-        <v>0.87397400000000003</v>
+        <v>0.88532599999999995</v>
       </c>
       <c r="Q23">
-        <v>0.87690000000000001</v>
+        <v>0.88878699999999999</v>
       </c>
       <c r="R23">
         <v>0.782999</v>
@@ -1172,19 +1572,19 @@
     </row>
     <row r="24" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M24">
-        <v>0.87246199999999996</v>
+        <v>0.88658000000000003</v>
       </c>
       <c r="N24">
-        <v>0.87115799999999999</v>
+        <v>0.88535299999999995</v>
       </c>
       <c r="O24">
-        <v>0.87326099999999995</v>
+        <v>0.88703799999999999</v>
       </c>
       <c r="P24">
-        <v>0.86946800000000002</v>
+        <v>0.88302499999999995</v>
       </c>
       <c r="Q24">
-        <v>0.87229000000000001</v>
+        <v>0.88652399999999998</v>
       </c>
       <c r="R24">
         <v>0.78235200000000005</v>
@@ -1204,19 +1604,19 @@
     </row>
     <row r="25" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M25">
-        <v>0.86802199999999996</v>
+        <v>0.88401799999999997</v>
       </c>
       <c r="N25">
-        <v>0.86671699999999996</v>
+        <v>0.88276299999999996</v>
       </c>
       <c r="O25">
-        <v>0.86879399999999996</v>
+        <v>0.88440700000000005</v>
       </c>
       <c r="P25">
-        <v>0.86517200000000005</v>
+        <v>0.88050499999999998</v>
       </c>
       <c r="Q25">
-        <v>0.86787000000000003</v>
+        <v>0.88401099999999999</v>
       </c>
       <c r="R25">
         <v>0.78264699999999998</v>
@@ -1236,19 +1636,19 @@
     </row>
     <row r="26" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M26">
-        <v>0.86385900000000004</v>
+        <v>0.88119599999999998</v>
       </c>
       <c r="N26">
-        <v>0.86252799999999996</v>
+        <v>0.87992499999999996</v>
       </c>
       <c r="O26">
-        <v>0.86457700000000004</v>
+        <v>0.88152600000000003</v>
       </c>
       <c r="P26">
-        <v>0.86111000000000004</v>
+        <v>0.87773400000000001</v>
       </c>
       <c r="Q26">
-        <v>0.86368299999999998</v>
+        <v>0.88122699999999998</v>
       </c>
       <c r="R26">
         <v>0.78367200000000004</v>
@@ -1268,19 +1668,19 @@
     </row>
     <row r="27" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M27">
-        <v>0.86001099999999997</v>
+        <v>0.87818799999999997</v>
       </c>
       <c r="N27">
-        <v>0.85863199999999995</v>
+        <v>0.87690900000000005</v>
       </c>
       <c r="O27">
-        <v>0.86063299999999998</v>
+        <v>0.87847399999999998</v>
       </c>
       <c r="P27">
-        <v>0.85733999999999999</v>
+        <v>0.87477400000000005</v>
       </c>
       <c r="Q27">
-        <v>0.85978699999999997</v>
+        <v>0.87824100000000005</v>
       </c>
       <c r="R27">
         <v>0.78520000000000001</v>
@@ -1300,19 +1700,19 @@
     </row>
     <row r="28" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M28">
-        <v>0.85655800000000004</v>
+        <v>0.87512000000000001</v>
       </c>
       <c r="N28">
-        <v>0.85512699999999997</v>
+        <v>0.87383599999999995</v>
       </c>
       <c r="O28">
-        <v>0.85705100000000001</v>
+        <v>0.87538199999999999</v>
       </c>
       <c r="P28">
-        <v>0.85397599999999996</v>
+        <v>0.87174399999999996</v>
       </c>
       <c r="Q28">
-        <v>0.85628700000000002</v>
+        <v>0.87517800000000001</v>
       </c>
       <c r="R28">
         <v>0.78703299999999998</v>
@@ -1332,19 +1732,19 @@
     </row>
     <row r="29" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M29">
-        <v>0.85358599999999996</v>
+        <v>0.872116</v>
       </c>
       <c r="N29">
-        <v>0.85211099999999995</v>
+        <v>0.87082099999999996</v>
       </c>
       <c r="O29">
-        <v>0.853935</v>
+        <v>0.87236800000000003</v>
       </c>
       <c r="P29">
-        <v>0.85112200000000005</v>
+        <v>0.86877099999999996</v>
       </c>
       <c r="Q29">
-        <v>0.85328400000000004</v>
+        <v>0.872166</v>
       </c>
       <c r="R29">
         <v>0.789022</v>
@@ -1364,19 +1764,19 @@
     </row>
     <row r="30" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M30">
-        <v>0.85115099999999999</v>
+        <v>0.86924800000000002</v>
       </c>
       <c r="N30">
-        <v>0.84964799999999996</v>
+        <v>0.86792999999999998</v>
       </c>
       <c r="O30">
-        <v>0.85136299999999998</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="P30">
-        <v>0.84884400000000004</v>
+        <v>0.86593399999999998</v>
       </c>
       <c r="Q30">
-        <v>0.85084099999999996</v>
+        <v>0.86928700000000003</v>
       </c>
       <c r="R30">
         <v>0.79107300000000003</v>
@@ -1396,19 +1796,19 @@
     </row>
     <row r="31" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M31">
-        <v>0.84928899999999996</v>
+        <v>0.86653899999999995</v>
       </c>
       <c r="N31">
-        <v>0.84777999999999998</v>
+        <v>0.86518300000000004</v>
       </c>
       <c r="O31">
-        <v>0.84939100000000001</v>
+        <v>0.86679200000000001</v>
       </c>
       <c r="P31">
-        <v>0.84717500000000001</v>
+        <v>0.86326000000000003</v>
       </c>
       <c r="Q31">
-        <v>0.84900399999999998</v>
+        <v>0.866568</v>
       </c>
       <c r="R31">
         <v>0.79313100000000003</v>
@@ -1428,19 +1828,19 @@
     </row>
     <row r="32" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M32">
-        <v>0.84803499999999998</v>
+        <v>0.86397699999999999</v>
       </c>
       <c r="N32">
-        <v>0.84654200000000002</v>
+        <v>0.86257600000000001</v>
       </c>
       <c r="O32">
-        <v>0.84806599999999999</v>
+        <v>0.864232</v>
       </c>
       <c r="P32">
-        <v>0.84614199999999995</v>
+        <v>0.86073900000000003</v>
       </c>
       <c r="Q32">
-        <v>0.84781399999999996</v>
+        <v>0.86400600000000005</v>
       </c>
       <c r="R32">
         <v>0.79516500000000001</v>
@@ -1460,19 +1860,19 @@
     </row>
     <row r="33" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M33">
-        <v>0.84741900000000003</v>
+        <v>0.86154600000000003</v>
       </c>
       <c r="N33">
-        <v>0.84596300000000002</v>
+        <v>0.86009599999999997</v>
       </c>
       <c r="O33">
-        <v>0.84741900000000003</v>
+        <v>0.86180299999999999</v>
       </c>
       <c r="P33">
-        <v>0.84576300000000004</v>
+        <v>0.85835700000000004</v>
       </c>
       <c r="Q33">
-        <v>0.84730099999999997</v>
+        <v>0.86158800000000002</v>
       </c>
       <c r="R33">
         <v>0.79716299999999995</v>
@@ -1492,19 +1892,19 @@
     </row>
     <row r="34" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M34">
-        <v>0.84745499999999996</v>
+        <v>0.85923400000000005</v>
       </c>
       <c r="N34">
-        <v>0.84605600000000003</v>
+        <v>0.857738</v>
       </c>
       <c r="O34">
-        <v>0.84746100000000002</v>
+        <v>0.85949699999999996</v>
       </c>
       <c r="P34">
-        <v>0.84604000000000001</v>
+        <v>0.85610200000000003</v>
       </c>
       <c r="Q34">
-        <v>0.84747700000000004</v>
+        <v>0.85930399999999996</v>
       </c>
       <c r="R34">
         <v>0.79911500000000002</v>
@@ -1524,19 +1924,19 @@
     </row>
     <row r="35" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M35">
-        <v>0.84813000000000005</v>
+        <v>0.85704000000000002</v>
       </c>
       <c r="N35">
-        <v>0.84680999999999995</v>
+        <v>0.85550300000000001</v>
       </c>
       <c r="O35">
-        <v>0.84817399999999998</v>
+        <v>0.85731299999999999</v>
       </c>
       <c r="P35">
-        <v>0.84695200000000004</v>
+        <v>0.85397400000000001</v>
       </c>
       <c r="Q35">
-        <v>0.84832300000000005</v>
+        <v>0.857151</v>
       </c>
       <c r="R35">
         <v>0.80101900000000004</v>
@@ -1556,19 +1956,19 @@
     </row>
     <row r="36" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M36">
-        <v>0.84940400000000005</v>
+        <v>0.854966</v>
       </c>
       <c r="N36">
-        <v>0.84818499999999997</v>
+        <v>0.85339399999999999</v>
       </c>
       <c r="O36">
-        <v>0.84950999999999999</v>
+        <v>0.85525399999999996</v>
       </c>
       <c r="P36">
-        <v>0.84845300000000001</v>
+        <v>0.85197400000000001</v>
       </c>
       <c r="Q36">
-        <v>0.84979099999999996</v>
+        <v>0.85512999999999995</v>
       </c>
       <c r="R36">
         <v>0.80287200000000003</v>
@@ -1588,19 +1988,19 @@
     </row>
     <row r="37" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M37">
-        <v>0.85121400000000003</v>
+        <v>0.853016</v>
       </c>
       <c r="N37">
-        <v>0.85011999999999999</v>
+        <v>0.85141599999999995</v>
       </c>
       <c r="O37">
-        <v>0.85140300000000002</v>
+        <v>0.85332200000000002</v>
       </c>
       <c r="P37">
-        <v>0.85047700000000004</v>
+        <v>0.85010200000000002</v>
       </c>
       <c r="Q37">
-        <v>0.85180599999999995</v>
+        <v>0.85324</v>
       </c>
       <c r="R37">
         <v>0.80467599999999995</v>
@@ -1620,19 +2020,19 @@
     </row>
     <row r="38" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M38">
-        <v>0.85348400000000002</v>
+        <v>0.85118799999999994</v>
       </c>
       <c r="N38">
-        <v>0.85253699999999999</v>
+        <v>0.84956600000000004</v>
       </c>
       <c r="O38">
-        <v>0.853773</v>
+        <v>0.85151600000000005</v>
       </c>
       <c r="P38">
-        <v>0.85294800000000004</v>
+        <v>0.84835700000000003</v>
       </c>
       <c r="Q38">
-        <v>0.85428400000000004</v>
+        <v>0.85147600000000001</v>
       </c>
       <c r="R38">
         <v>0.80642999999999998</v>
@@ -1652,19 +2052,19 @@
     </row>
     <row r="39" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M39">
-        <v>0.85613399999999995</v>
+        <v>0.84947899999999998</v>
       </c>
       <c r="N39">
-        <v>0.85534699999999997</v>
+        <v>0.84784000000000004</v>
       </c>
       <c r="O39">
-        <v>0.85653299999999999</v>
+        <v>0.84983200000000003</v>
       </c>
       <c r="P39">
-        <v>0.85578100000000001</v>
+        <v>0.84673399999999999</v>
       </c>
       <c r="Q39">
-        <v>0.85713300000000003</v>
+        <v>0.84983500000000001</v>
       </c>
       <c r="R39">
         <v>0.80813599999999997</v>
@@ -1684,19 +2084,19 @@
     </row>
     <row r="40" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M40">
-        <v>0.85908200000000001</v>
+        <v>0.84788300000000005</v>
       </c>
       <c r="N40">
-        <v>0.858464</v>
+        <v>0.84623300000000001</v>
       </c>
       <c r="O40">
-        <v>0.85959799999999997</v>
+        <v>0.84826500000000005</v>
       </c>
       <c r="P40">
-        <v>0.85889199999999999</v>
+        <v>0.84522600000000003</v>
       </c>
       <c r="Q40">
-        <v>0.860263</v>
+        <v>0.84830799999999995</v>
       </c>
       <c r="R40">
         <v>0.80979299999999999</v>
@@ -1716,19 +2116,19 @@
     </row>
     <row r="41" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M41">
-        <v>0.86225300000000005</v>
+        <v>0.84639600000000004</v>
       </c>
       <c r="N41">
-        <v>0.86180199999999996</v>
+        <v>0.84474000000000005</v>
       </c>
       <c r="O41">
-        <v>0.86288799999999999</v>
+        <v>0.84680699999999998</v>
       </c>
       <c r="P41">
-        <v>0.86220200000000002</v>
+        <v>0.84382599999999996</v>
       </c>
       <c r="Q41">
-        <v>0.86359399999999997</v>
+        <v>0.846889</v>
       </c>
       <c r="R41">
         <v>0.81140500000000004</v>
@@ -1748,19 +2148,19 @@
     </row>
     <row r="42" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M42">
-        <v>0.86558000000000002</v>
+        <v>0.84501199999999999</v>
       </c>
       <c r="N42">
-        <v>0.86528499999999997</v>
+        <v>0.84335300000000002</v>
       </c>
       <c r="O42">
-        <v>0.86632900000000002</v>
+        <v>0.84545499999999996</v>
       </c>
       <c r="P42">
-        <v>0.86564099999999999</v>
+        <v>0.84253</v>
       </c>
       <c r="Q42">
-        <v>0.86705299999999996</v>
+        <v>0.84557499999999997</v>
       </c>
       <c r="R42">
         <v>0.812971</v>
@@ -1780,19 +2180,19 @@
     </row>
     <row r="43" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M43">
-        <v>0.86900299999999997</v>
+        <v>0.84372899999999995</v>
       </c>
       <c r="N43">
-        <v>0.86884799999999995</v>
+        <v>0.84206899999999996</v>
       </c>
       <c r="O43">
-        <v>0.86985999999999997</v>
+        <v>0.84420399999999995</v>
       </c>
       <c r="P43">
-        <v>0.86914800000000003</v>
+        <v>0.84133199999999997</v>
       </c>
       <c r="Q43">
-        <v>0.87057799999999996</v>
+        <v>0.84436</v>
       </c>
       <c r="R43">
         <v>0.81449400000000005</v>
@@ -1812,19 +2212,19 @@
     </row>
     <row r="44" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M44">
-        <v>0.87247399999999997</v>
+        <v>0.84254200000000001</v>
       </c>
       <c r="N44">
-        <v>0.87243599999999999</v>
+        <v>0.84088499999999999</v>
       </c>
       <c r="O44">
-        <v>0.87342799999999998</v>
+        <v>0.84305200000000002</v>
       </c>
       <c r="P44">
-        <v>0.87267300000000003</v>
+        <v>0.84023000000000003</v>
       </c>
       <c r="Q44">
-        <v>0.87412199999999995</v>
+        <v>0.84324200000000005</v>
       </c>
       <c r="R44">
         <v>0.81597500000000001</v>
@@ -1844,19 +2244,19 @@
     </row>
     <row r="45" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M45">
-        <v>0.87595100000000004</v>
+        <v>0.84145300000000001</v>
       </c>
       <c r="N45">
-        <v>0.87600900000000004</v>
+        <v>0.83979899999999996</v>
       </c>
       <c r="O45">
-        <v>0.87699400000000005</v>
+        <v>0.84199800000000002</v>
       </c>
       <c r="P45">
-        <v>0.87617800000000001</v>
+        <v>0.83922200000000002</v>
       </c>
       <c r="Q45">
-        <v>0.87764299999999995</v>
+        <v>0.842221</v>
       </c>
       <c r="R45">
         <v>0.817415</v>
@@ -1876,19 +2276,19 @@
     </row>
     <row r="46" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M46">
-        <v>0.87940399999999996</v>
+        <v>0.84045899999999996</v>
       </c>
       <c r="N46">
-        <v>0.87953499999999996</v>
+        <v>0.838808</v>
       </c>
       <c r="O46">
-        <v>0.880525</v>
+        <v>0.84104100000000004</v>
       </c>
       <c r="P46">
-        <v>0.879633</v>
+        <v>0.83830800000000005</v>
       </c>
       <c r="Q46">
-        <v>0.88111499999999998</v>
+        <v>0.84129500000000002</v>
       </c>
       <c r="R46">
         <v>0.81881599999999999</v>
@@ -1908,19 +2308,19 @@
     </row>
     <row r="47" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M47">
-        <v>0.88280899999999995</v>
+        <v>0.839561</v>
       </c>
       <c r="N47">
-        <v>0.88299099999999997</v>
+        <v>0.83791300000000002</v>
       </c>
       <c r="O47">
-        <v>0.88400100000000004</v>
+        <v>0.84018099999999996</v>
       </c>
       <c r="P47">
-        <v>0.88302000000000003</v>
+        <v>0.83748599999999995</v>
       </c>
       <c r="Q47">
-        <v>0.88451599999999997</v>
+        <v>0.84046399999999999</v>
       </c>
       <c r="R47">
         <v>0.82017899999999999</v>
@@ -1940,19 +2340,19 @@
     </row>
     <row r="48" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M48">
-        <v>0.88615200000000005</v>
+        <v>0.83875699999999997</v>
       </c>
       <c r="N48">
-        <v>0.88636499999999996</v>
+        <v>0.837113</v>
       </c>
       <c r="O48">
-        <v>0.887405</v>
+        <v>0.839418</v>
       </c>
       <c r="P48">
-        <v>0.88632500000000003</v>
+        <v>0.83675500000000003</v>
       </c>
       <c r="Q48">
-        <v>0.88783400000000001</v>
+        <v>0.839727</v>
       </c>
       <c r="R48">
         <v>0.82150599999999996</v>
@@ -1972,19 +2372,19 @@
     </row>
     <row r="49" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M49">
-        <v>0.88942100000000002</v>
+        <v>0.83804900000000004</v>
       </c>
       <c r="N49">
-        <v>0.88964900000000002</v>
+        <v>0.83640800000000004</v>
       </c>
       <c r="O49">
-        <v>0.89072799999999996</v>
+        <v>0.83875100000000002</v>
       </c>
       <c r="P49">
-        <v>0.88954</v>
+        <v>0.83611599999999997</v>
       </c>
       <c r="Q49">
-        <v>0.89105999999999996</v>
+        <v>0.83908300000000002</v>
       </c>
       <c r="R49">
         <v>0.822797</v>
@@ -2004,19 +2404,19 @@
     </row>
     <row r="50" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M50">
-        <v>0.89260899999999999</v>
+        <v>0.83743599999999996</v>
       </c>
       <c r="N50">
-        <v>0.89283900000000005</v>
+        <v>0.83579800000000004</v>
       </c>
       <c r="O50">
-        <v>0.89396500000000001</v>
+        <v>0.83818000000000004</v>
       </c>
       <c r="P50">
-        <v>0.89266299999999998</v>
+        <v>0.83556799999999998</v>
       </c>
       <c r="Q50">
-        <v>0.89419300000000002</v>
+        <v>0.83853200000000006</v>
       </c>
       <c r="R50">
         <v>0.82405399999999995</v>
@@ -2036,19 +2436,19 @@
     </row>
     <row r="51" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M51">
-        <v>0.89571400000000001</v>
+        <v>0.83691499999999996</v>
       </c>
       <c r="N51">
-        <v>0.89593400000000001</v>
+        <v>0.83528199999999997</v>
       </c>
       <c r="O51">
-        <v>0.89711300000000005</v>
+        <v>0.83770299999999998</v>
       </c>
       <c r="P51">
-        <v>0.89569399999999999</v>
+        <v>0.83510899999999999</v>
       </c>
       <c r="Q51">
-        <v>0.89723200000000003</v>
+        <v>0.83807100000000001</v>
       </c>
       <c r="R51">
         <v>0.82527899999999998</v>
@@ -2068,19 +2468,19 @@
     </row>
     <row r="52" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M52">
-        <v>0.89873499999999995</v>
+        <v>0.83648599999999995</v>
       </c>
       <c r="N52">
-        <v>0.89893599999999996</v>
+        <v>0.83485900000000002</v>
       </c>
       <c r="O52">
-        <v>0.90017199999999997</v>
+        <v>0.83731900000000004</v>
       </c>
       <c r="P52">
-        <v>0.89863199999999999</v>
+        <v>0.83473799999999998</v>
       </c>
       <c r="Q52">
-        <v>0.90017800000000003</v>
+        <v>0.8377</v>
       </c>
       <c r="R52">
         <v>0.82647199999999998</v>
@@ -2100,19 +2500,19 @@
     </row>
     <row r="53" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M53">
-        <v>0.90167200000000003</v>
+        <v>0.83614599999999994</v>
       </c>
       <c r="N53">
-        <v>0.90184699999999995</v>
+        <v>0.83452700000000002</v>
       </c>
       <c r="O53">
-        <v>0.90314300000000003</v>
+        <v>0.83702399999999999</v>
       </c>
       <c r="P53">
-        <v>0.90148300000000003</v>
+        <v>0.83445400000000003</v>
       </c>
       <c r="Q53">
-        <v>0.90303500000000003</v>
+        <v>0.83741500000000002</v>
       </c>
       <c r="R53">
         <v>0.82763500000000001</v>
@@ -2132,19 +2532,19 @@
     </row>
     <row r="54" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M54">
-        <v>0.90452600000000005</v>
+        <v>0.835893</v>
       </c>
       <c r="N54">
-        <v>0.90467200000000003</v>
+        <v>0.83428199999999997</v>
       </c>
       <c r="O54">
-        <v>0.90602899999999997</v>
+        <v>0.83681499999999998</v>
       </c>
       <c r="P54">
-        <v>0.90424800000000005</v>
+        <v>0.83425199999999999</v>
       </c>
       <c r="Q54">
-        <v>0.905806</v>
+        <v>0.83721400000000001</v>
       </c>
       <c r="R54">
         <v>0.82876899999999998</v>
@@ -2164,19 +2564,19 @@
     </row>
     <row r="55" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M55">
-        <v>0.90730100000000002</v>
+        <v>0.83572199999999996</v>
       </c>
       <c r="N55">
-        <v>0.90741400000000005</v>
+        <v>0.83412299999999995</v>
       </c>
       <c r="O55">
-        <v>0.908833</v>
+        <v>0.83668699999999996</v>
       </c>
       <c r="P55">
-        <v>0.90693299999999999</v>
+        <v>0.83413000000000004</v>
       </c>
       <c r="Q55">
-        <v>0.90849500000000005</v>
+        <v>0.83709199999999995</v>
       </c>
       <c r="R55">
         <v>0.82987599999999995</v>
@@ -2196,19 +2596,19 @@
     </row>
     <row r="56" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M56">
-        <v>0.90999799999999997</v>
+        <v>0.83562999999999998</v>
       </c>
       <c r="N56">
-        <v>0.910076</v>
+        <v>0.83404500000000004</v>
       </c>
       <c r="O56">
-        <v>0.91155600000000003</v>
+        <v>0.83663699999999996</v>
       </c>
       <c r="P56">
-        <v>0.90954000000000002</v>
+        <v>0.83408499999999997</v>
       </c>
       <c r="Q56">
-        <v>0.91110599999999997</v>
+        <v>0.83704699999999999</v>
       </c>
       <c r="R56">
         <v>0.830955</v>
@@ -2228,19 +2628,19 @@
     </row>
     <row r="57" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M57">
-        <v>0.91262100000000002</v>
+        <v>0.83561300000000005</v>
       </c>
       <c r="N57">
-        <v>0.91266199999999997</v>
+        <v>0.83404199999999995</v>
       </c>
       <c r="O57">
-        <v>0.91420299999999999</v>
+        <v>0.83665800000000001</v>
       </c>
       <c r="P57">
-        <v>0.91207300000000002</v>
+        <v>0.83411199999999996</v>
       </c>
       <c r="Q57">
-        <v>0.91364299999999998</v>
+        <v>0.83707299999999996</v>
       </c>
       <c r="R57">
         <v>0.83200799999999997</v>
@@ -2260,19 +2660,19 @@
     </row>
     <row r="58" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M58">
-        <v>0.91517099999999996</v>
+        <v>0.83566600000000002</v>
       </c>
       <c r="N58">
-        <v>0.91517499999999996</v>
+        <v>0.83411199999999996</v>
       </c>
       <c r="O58">
-        <v>0.91677600000000004</v>
+        <v>0.83674700000000002</v>
       </c>
       <c r="P58">
-        <v>0.91453600000000002</v>
+        <v>0.834206</v>
       </c>
       <c r="Q58">
-        <v>0.91610999999999998</v>
+        <v>0.83716699999999999</v>
       </c>
       <c r="R58">
         <v>0.83303700000000003</v>
@@ -2292,19 +2692,19 @@
     </row>
     <row r="59" spans="13:22" x14ac:dyDescent="0.2">
       <c r="M59">
-        <v>0.91765200000000002</v>
+        <v>0.83578300000000005</v>
       </c>
       <c r="N59">
-        <v>0.91761999999999999</v>
+        <v>0.83424699999999996</v>
       </c>
       <c r="O59">
-        <v>0.91927800000000004</v>
+        <v>0.836897</v>
       </c>
       <c r="P59">
-        <v>0.916933</v>
+        <v>0.83436200000000005</v>
       </c>
       <c r="Q59">
-        <v>0.91851000000000005</v>
+        <v>0.83732099999999998</v>
       </c>
       <c r="R59">
         <v>0.83404100000000003</v>
@@ -2328,34 +2728,34 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M9:M59">
-    <cfRule type="top10" dxfId="9" priority="20" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="39" priority="25" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N59">
-    <cfRule type="top10" dxfId="8" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="24" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:O59">
-    <cfRule type="top10" dxfId="7" priority="18" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="23" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P59">
-    <cfRule type="top10" dxfId="6" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="22" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q59">
-    <cfRule type="top10" dxfId="5" priority="16" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="21" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9:R59">
-    <cfRule type="top10" dxfId="4" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="15" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:S59">
-    <cfRule type="top10" dxfId="3" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="33" priority="14" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:T59">
-    <cfRule type="top10" dxfId="2" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="13" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9:U59">
-    <cfRule type="top10" dxfId="1" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="12" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9:V59">
-    <cfRule type="top10" dxfId="0" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="11" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2364,24 +2764,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F8:J16"/>
+  <dimension ref="F8:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="8" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F8" s="2" t="s">
+    <row r="8" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
         <v>23</v>
       </c>
@@ -2397,55 +2812,5223 @@
       <c r="J9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>0.93247199999999997</v>
+      </c>
+      <c r="N9">
+        <v>0.93428900000000004</v>
+      </c>
+      <c r="O9">
+        <v>0.93454700000000002</v>
+      </c>
+      <c r="P9">
+        <v>0.93471899999999997</v>
+      </c>
+      <c r="Q9">
+        <v>0.93533200000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="G10" s="2">
+        <v>0.65316799999999997</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="M10">
+        <v>0.733846</v>
+      </c>
+      <c r="N10">
+        <v>0.73567400000000005</v>
+      </c>
+      <c r="O10">
+        <v>0.73645899999999997</v>
+      </c>
+      <c r="P10">
+        <v>0.73270199999999996</v>
+      </c>
+      <c r="Q10">
+        <v>0.73526999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="G11" s="2">
+        <v>0.65326200000000001</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="M11">
+        <v>0.72507500000000003</v>
+      </c>
+      <c r="N11">
+        <v>0.72638100000000005</v>
+      </c>
+      <c r="O11">
+        <v>0.72757400000000005</v>
+      </c>
+      <c r="P11">
+        <v>0.72360199999999997</v>
+      </c>
+      <c r="Q11">
+        <v>0.72615700000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="G12" s="2">
+        <v>0.65542299999999998</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="M12">
+        <v>0.72187800000000002</v>
+      </c>
+      <c r="N12">
+        <v>0.72291799999999995</v>
+      </c>
+      <c r="O12">
+        <v>0.72423499999999996</v>
+      </c>
+      <c r="P12">
+        <v>0.72032600000000002</v>
+      </c>
+      <c r="Q12">
+        <v>0.72271399999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="G13" s="2">
+        <v>0.65324499999999996</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="M13">
+        <v>0.72021900000000005</v>
+      </c>
+      <c r="N13">
+        <v>0.72108300000000003</v>
+      </c>
+      <c r="O13">
+        <v>0.72243599999999997</v>
+      </c>
+      <c r="P13">
+        <v>0.71864700000000004</v>
+      </c>
+      <c r="Q13">
+        <v>0.72087500000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="G14" s="2">
+        <v>0.65436499999999997</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="M14">
+        <v>0.71903700000000004</v>
+      </c>
+      <c r="N14">
+        <v>0.71978399999999998</v>
+      </c>
+      <c r="O14">
+        <v>0.72113899999999997</v>
+      </c>
+      <c r="P14">
+        <v>0.717499</v>
+      </c>
+      <c r="Q14">
+        <v>0.71956200000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="G15" s="3">
+        <f>AVERAGE(G10:G14)</f>
+        <v>0.65389260000000005</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="M15">
+        <v>0.71775</v>
+      </c>
+      <c r="N15">
+        <v>0.71844300000000005</v>
+      </c>
+      <c r="O15">
+        <v>0.71980200000000005</v>
+      </c>
+      <c r="P15">
+        <v>0.71629600000000004</v>
+      </c>
+      <c r="Q15">
+        <v>0.71817799999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="G16" s="3">
+        <f>STDEV(G10:G14)</f>
+        <v>9.8835383340178137E-4</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="M16">
+        <v>0.71587999999999996</v>
+      </c>
+      <c r="N16">
+        <v>0.71657499999999996</v>
+      </c>
+      <c r="O16">
+        <v>0.71795500000000001</v>
+      </c>
+      <c r="P16">
+        <v>0.71458100000000002</v>
+      </c>
+      <c r="Q16">
+        <v>0.716256</v>
+      </c>
+    </row>
+    <row r="17" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>0.71328199999999997</v>
+      </c>
+      <c r="N17">
+        <v>0.71402200000000005</v>
+      </c>
+      <c r="O17">
+        <v>0.71540499999999996</v>
+      </c>
+      <c r="P17">
+        <v>0.71215899999999999</v>
+      </c>
+      <c r="Q17">
+        <v>0.71366200000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>0.71035499999999996</v>
+      </c>
+      <c r="N18">
+        <v>0.71114100000000002</v>
+      </c>
+      <c r="O18">
+        <v>0.71247199999999999</v>
+      </c>
+      <c r="P18">
+        <v>0.70934699999999995</v>
+      </c>
+      <c r="Q18">
+        <v>0.71080100000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>0.70759399999999995</v>
+      </c>
+      <c r="N19">
+        <v>0.70839399999999997</v>
+      </c>
+      <c r="O19">
+        <v>0.70965299999999998</v>
+      </c>
+      <c r="P19">
+        <v>0.70662000000000003</v>
+      </c>
+      <c r="Q19">
+        <v>0.70810700000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>0.70522300000000004</v>
+      </c>
+      <c r="N20">
+        <v>0.70599299999999998</v>
+      </c>
+      <c r="O20">
+        <v>0.70715399999999995</v>
+      </c>
+      <c r="P20">
+        <v>0.70424100000000001</v>
+      </c>
+      <c r="Q20">
+        <v>0.70578099999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>0.70314600000000005</v>
+      </c>
+      <c r="N21">
+        <v>0.70389100000000004</v>
+      </c>
+      <c r="O21">
+        <v>0.70498899999999998</v>
+      </c>
+      <c r="P21">
+        <v>0.70216000000000001</v>
+      </c>
+      <c r="Q21">
+        <v>0.70376899999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>0.70123100000000005</v>
+      </c>
+      <c r="N22">
+        <v>0.70195099999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.70300600000000002</v>
+      </c>
+      <c r="P22">
+        <v>0.70024600000000004</v>
+      </c>
+      <c r="Q22">
+        <v>0.70193799999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>0.69935400000000003</v>
+      </c>
+      <c r="N23">
+        <v>0.70003700000000002</v>
+      </c>
+      <c r="O23">
+        <v>0.70107200000000003</v>
+      </c>
+      <c r="P23">
+        <v>0.69836900000000002</v>
+      </c>
+      <c r="Q23">
+        <v>0.70013999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>0.697384</v>
+      </c>
+      <c r="N24">
+        <v>0.69803400000000004</v>
+      </c>
+      <c r="O24">
+        <v>0.69905300000000004</v>
+      </c>
+      <c r="P24">
+        <v>0.69641799999999998</v>
+      </c>
+      <c r="Q24">
+        <v>0.69823500000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>0.69523199999999996</v>
+      </c>
+      <c r="N25">
+        <v>0.69585300000000005</v>
+      </c>
+      <c r="O25">
+        <v>0.69685299999999994</v>
+      </c>
+      <c r="P25">
+        <v>0.69430199999999997</v>
+      </c>
+      <c r="Q25">
+        <v>0.69614299999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>0.69287900000000002</v>
+      </c>
+      <c r="N26">
+        <v>0.69348699999999996</v>
+      </c>
+      <c r="O26">
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="P26">
+        <v>0.691971</v>
+      </c>
+      <c r="Q26">
+        <v>0.69383399999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>0.69035599999999997</v>
+      </c>
+      <c r="N27">
+        <v>0.690967</v>
+      </c>
+      <c r="O27">
+        <v>0.69189299999999998</v>
+      </c>
+      <c r="P27">
+        <v>0.68948699999999996</v>
+      </c>
+      <c r="Q27">
+        <v>0.69135800000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>0.68779699999999999</v>
+      </c>
+      <c r="N28">
+        <v>0.68838200000000005</v>
+      </c>
+      <c r="O28">
+        <v>0.68929799999999997</v>
+      </c>
+      <c r="P28">
+        <v>0.68694699999999997</v>
+      </c>
+      <c r="Q28">
+        <v>0.688801</v>
+      </c>
+    </row>
+    <row r="29" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>0.68527800000000005</v>
+      </c>
+      <c r="N29">
+        <v>0.685805</v>
+      </c>
+      <c r="O29">
+        <v>0.68676899999999996</v>
+      </c>
+      <c r="P29">
+        <v>0.68443900000000002</v>
+      </c>
+      <c r="Q29">
+        <v>0.68626600000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>0.68285600000000002</v>
+      </c>
+      <c r="N30">
+        <v>0.68332099999999996</v>
+      </c>
+      <c r="O30">
+        <v>0.68435400000000002</v>
+      </c>
+      <c r="P30">
+        <v>0.68201800000000001</v>
+      </c>
+      <c r="Q30">
+        <v>0.68381400000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>0.680558</v>
+      </c>
+      <c r="N31">
+        <v>0.68095799999999995</v>
+      </c>
+      <c r="O31">
+        <v>0.682056</v>
+      </c>
+      <c r="P31">
+        <v>0.67971499999999996</v>
+      </c>
+      <c r="Q31">
+        <v>0.68147500000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>0.67836799999999997</v>
+      </c>
+      <c r="N32">
+        <v>0.67870200000000003</v>
+      </c>
+      <c r="O32">
+        <v>0.67986100000000005</v>
+      </c>
+      <c r="P32">
+        <v>0.67753699999999994</v>
+      </c>
+      <c r="Q32">
+        <v>0.67926299999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>0.67628999999999995</v>
+      </c>
+      <c r="N33">
+        <v>0.67655699999999996</v>
+      </c>
+      <c r="O33">
+        <v>0.67777200000000004</v>
+      </c>
+      <c r="P33">
+        <v>0.67547699999999999</v>
+      </c>
+      <c r="Q33">
+        <v>0.67716399999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>0.674315</v>
+      </c>
+      <c r="N34">
+        <v>0.67452000000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.67578400000000005</v>
+      </c>
+      <c r="P34">
+        <v>0.67353499999999999</v>
+      </c>
+      <c r="Q34">
+        <v>0.67516699999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>0.67243799999999998</v>
+      </c>
+      <c r="N35">
+        <v>0.67259199999999997</v>
+      </c>
+      <c r="O35">
+        <v>0.67390000000000005</v>
+      </c>
+      <c r="P35">
+        <v>0.67170399999999997</v>
+      </c>
+      <c r="Q35">
+        <v>0.67327400000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>0.67066499999999996</v>
+      </c>
+      <c r="N36">
+        <v>0.67078000000000004</v>
+      </c>
+      <c r="O36">
+        <v>0.67212499999999997</v>
+      </c>
+      <c r="P36">
+        <v>0.66997700000000004</v>
+      </c>
+      <c r="Q36">
+        <v>0.67148600000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>0.66899399999999998</v>
+      </c>
+      <c r="N37">
+        <v>0.66908400000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.67046099999999997</v>
+      </c>
+      <c r="P37">
+        <v>0.66834199999999999</v>
+      </c>
+      <c r="Q37">
+        <v>0.66981299999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>0.66742699999999999</v>
+      </c>
+      <c r="N38">
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="O38">
+        <v>0.66891400000000001</v>
+      </c>
+      <c r="P38">
+        <v>0.66681400000000002</v>
+      </c>
+      <c r="Q38">
+        <v>0.66824899999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>0.66595599999999999</v>
+      </c>
+      <c r="N39">
+        <v>0.66601500000000002</v>
+      </c>
+      <c r="O39">
+        <v>0.66747800000000002</v>
+      </c>
+      <c r="P39">
+        <v>0.66538799999999998</v>
+      </c>
+      <c r="Q39">
+        <v>0.66678899999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>0.66458200000000001</v>
+      </c>
+      <c r="N40">
+        <v>0.66462699999999997</v>
+      </c>
+      <c r="O40">
+        <v>0.66613900000000004</v>
+      </c>
+      <c r="P40">
+        <v>0.66406699999999996</v>
+      </c>
+      <c r="Q40">
+        <v>0.66542500000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>0.66329099999999996</v>
+      </c>
+      <c r="N41">
+        <v>0.66332400000000002</v>
+      </c>
+      <c r="O41">
+        <v>0.66489299999999996</v>
+      </c>
+      <c r="P41">
+        <v>0.66283999999999998</v>
+      </c>
+      <c r="Q41">
+        <v>0.66414899999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>0.66208400000000001</v>
+      </c>
+      <c r="N42">
+        <v>0.66211299999999995</v>
+      </c>
+      <c r="O42">
+        <v>0.66372399999999998</v>
+      </c>
+      <c r="P42">
+        <v>0.66169199999999995</v>
+      </c>
+      <c r="Q42">
+        <v>0.66295599999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>0.66095800000000005</v>
+      </c>
+      <c r="N43">
+        <v>0.66098299999999999</v>
+      </c>
+      <c r="O43">
+        <v>0.66263099999999997</v>
+      </c>
+      <c r="P43">
+        <v>0.66062299999999996</v>
+      </c>
+      <c r="Q43">
+        <v>0.66184399999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>0.65990499999999996</v>
+      </c>
+      <c r="N44">
+        <v>0.65993100000000005</v>
+      </c>
+      <c r="O44">
+        <v>0.66161800000000004</v>
+      </c>
+      <c r="P44">
+        <v>0.65963700000000003</v>
+      </c>
+      <c r="Q44">
+        <v>0.66081500000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>0.65892899999999999</v>
+      </c>
+      <c r="N45">
+        <v>0.65895999999999999</v>
+      </c>
+      <c r="O45">
+        <v>0.66067399999999998</v>
+      </c>
+      <c r="P45">
+        <v>0.65873000000000004</v>
+      </c>
+      <c r="Q45">
+        <v>0.65986199999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>0.65802799999999995</v>
+      </c>
+      <c r="N46">
+        <v>0.65807300000000002</v>
+      </c>
+      <c r="O46">
+        <v>0.65981199999999995</v>
+      </c>
+      <c r="P46">
+        <v>0.65789500000000001</v>
+      </c>
+      <c r="Q46">
+        <v>0.65898699999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>0.65720299999999998</v>
+      </c>
+      <c r="N47">
+        <v>0.65725500000000003</v>
+      </c>
+      <c r="O47">
+        <v>0.65903</v>
+      </c>
+      <c r="P47">
+        <v>0.65713100000000002</v>
+      </c>
+      <c r="Q47">
+        <v>0.65819099999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>0.65646099999999996</v>
+      </c>
+      <c r="N48">
+        <v>0.65651199999999998</v>
+      </c>
+      <c r="O48">
+        <v>0.65832800000000002</v>
+      </c>
+      <c r="P48">
+        <v>0.65643399999999996</v>
+      </c>
+      <c r="Q48">
+        <v>0.65747</v>
+      </c>
+    </row>
+    <row r="49" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>0.65579299999999996</v>
+      </c>
+      <c r="N49">
+        <v>0.65584600000000004</v>
+      </c>
+      <c r="O49">
+        <v>0.65770799999999996</v>
+      </c>
+      <c r="P49">
+        <v>0.65580700000000003</v>
+      </c>
+      <c r="Q49">
+        <v>0.65682499999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>0.65520599999999996</v>
+      </c>
+      <c r="N50">
+        <v>0.65525800000000001</v>
+      </c>
+      <c r="O50">
+        <v>0.65716200000000002</v>
+      </c>
+      <c r="P50">
+        <v>0.65525</v>
+      </c>
+      <c r="Q50">
+        <v>0.65625299999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <v>0.65470200000000001</v>
+      </c>
+      <c r="N51">
+        <v>0.654748</v>
+      </c>
+      <c r="O51">
+        <v>0.65669</v>
+      </c>
+      <c r="P51">
+        <v>0.65476599999999996</v>
+      </c>
+      <c r="Q51">
+        <v>0.65576000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <v>0.65427000000000002</v>
+      </c>
+      <c r="N52">
+        <v>0.65432199999999996</v>
+      </c>
+      <c r="O52">
+        <v>0.65629700000000002</v>
+      </c>
+      <c r="P52">
+        <v>0.65435200000000004</v>
+      </c>
+      <c r="Q52">
+        <v>0.65534199999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <v>0.653914</v>
+      </c>
+      <c r="N53">
+        <v>0.65398000000000001</v>
+      </c>
+      <c r="O53">
+        <v>0.65598199999999995</v>
+      </c>
+      <c r="P53">
+        <v>0.65400400000000003</v>
+      </c>
+      <c r="Q53">
+        <v>0.65499700000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <v>0.65363300000000002</v>
+      </c>
+      <c r="N54">
+        <v>0.65370700000000004</v>
+      </c>
+      <c r="O54">
+        <v>0.65574200000000005</v>
+      </c>
+      <c r="P54">
+        <v>0.65372300000000005</v>
+      </c>
+      <c r="Q54">
+        <v>0.65472799999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <v>0.65342</v>
+      </c>
+      <c r="N55">
+        <v>0.65350200000000003</v>
+      </c>
+      <c r="O55">
+        <v>0.65557100000000001</v>
+      </c>
+      <c r="P55">
+        <v>0.65351000000000004</v>
+      </c>
+      <c r="Q55">
+        <v>0.65454000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <v>0.65327500000000005</v>
+      </c>
+      <c r="N56">
+        <v>0.65335799999999999</v>
+      </c>
+      <c r="O56">
+        <v>0.65546700000000002</v>
+      </c>
+      <c r="P56">
+        <v>0.65336300000000003</v>
+      </c>
+      <c r="Q56">
+        <v>0.65442100000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <v>0.65319400000000005</v>
+      </c>
+      <c r="N57">
+        <v>0.65327900000000005</v>
+      </c>
+      <c r="O57">
+        <v>0.65542299999999998</v>
+      </c>
+      <c r="P57">
+        <v>0.65327599999999997</v>
+      </c>
+      <c r="Q57">
+        <v>0.65436499999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <v>0.65316799999999997</v>
+      </c>
+      <c r="N58">
+        <v>0.65326200000000001</v>
+      </c>
+      <c r="O58">
+        <v>0.65543700000000005</v>
+      </c>
+      <c r="P58">
+        <v>0.65324499999999996</v>
+      </c>
+      <c r="Q58">
+        <v>0.654366</v>
+      </c>
+    </row>
+    <row r="59" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <v>0.65319700000000003</v>
+      </c>
+      <c r="N59">
+        <v>0.65330299999999997</v>
+      </c>
+      <c r="O59">
+        <v>0.65550299999999995</v>
+      </c>
+      <c r="P59">
+        <v>0.65327000000000002</v>
+      </c>
+      <c r="Q59">
+        <v>0.65441899999999997</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="M9:M59">
+    <cfRule type="top10" dxfId="29" priority="10" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:N59">
+    <cfRule type="top10" dxfId="28" priority="9" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:O59">
+    <cfRule type="top10" dxfId="27" priority="8" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:P59">
+    <cfRule type="top10" dxfId="26" priority="7" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9:Q59">
+    <cfRule type="top10" dxfId="25" priority="6" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Z69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="7" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1.127005</v>
+      </c>
+      <c r="C3">
+        <v>1.1237740000000001</v>
+      </c>
+      <c r="D3">
+        <v>1.1485590000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.1305700000000001</v>
+      </c>
+      <c r="F3">
+        <v>1.124315</v>
+      </c>
+      <c r="G3">
+        <v>1.132085</v>
+      </c>
+      <c r="H3">
+        <v>1.115046</v>
+      </c>
+      <c r="I3">
+        <v>1.129033</v>
+      </c>
+      <c r="J3">
+        <v>1.128293</v>
+      </c>
+      <c r="K3">
+        <v>1.1212029999999999</v>
+      </c>
+      <c r="L3">
+        <v>1.093961</v>
+      </c>
+      <c r="M3">
+        <v>1.0972569999999999</v>
+      </c>
+      <c r="N3">
+        <v>1.1088640000000001</v>
+      </c>
+      <c r="O3">
+        <v>1.1007450000000001</v>
+      </c>
+      <c r="P3">
+        <v>1.1132230000000001</v>
+      </c>
+      <c r="Q3">
+        <v>1.1011500000000001</v>
+      </c>
+      <c r="R3">
+        <v>1.113445</v>
+      </c>
+      <c r="S3">
+        <v>1.098282</v>
+      </c>
+      <c r="T3">
+        <v>1.106311</v>
+      </c>
+      <c r="U3">
+        <v>1.0979179999999999</v>
+      </c>
+      <c r="V3">
+        <v>1.1226769999999999</v>
+      </c>
+      <c r="W3">
+        <v>1.1222730000000001</v>
+      </c>
+      <c r="X3">
+        <v>1.12384</v>
+      </c>
+      <c r="Y3">
+        <v>1.1242380000000001</v>
+      </c>
+      <c r="Z3">
+        <v>1.1285909999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0.99763100000000005</v>
+      </c>
+      <c r="C4">
+        <v>1.0023869999999999</v>
+      </c>
+      <c r="D4">
+        <v>1.0225550000000001</v>
+      </c>
+      <c r="E4">
+        <v>1.003396</v>
+      </c>
+      <c r="F4">
+        <v>1.0067390000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.98946199999999995</v>
+      </c>
+      <c r="H4">
+        <v>0.97242399999999996</v>
+      </c>
+      <c r="I4">
+        <v>0.98936999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.97985199999999995</v>
+      </c>
+      <c r="K4">
+        <v>0.98224400000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.94562000000000002</v>
+      </c>
+      <c r="M4">
+        <v>0.95685399999999998</v>
+      </c>
+      <c r="N4">
+        <v>0.95718300000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.950797</v>
+      </c>
+      <c r="P4">
+        <v>0.96059600000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.94170600000000004</v>
+      </c>
+      <c r="R4">
+        <v>0.94480299999999995</v>
+      </c>
+      <c r="S4">
+        <v>0.93228200000000006</v>
+      </c>
+      <c r="T4">
+        <v>0.93934600000000001</v>
+      </c>
+      <c r="U4">
+        <v>0.93348699999999996</v>
+      </c>
+      <c r="V4">
+        <v>0.90180099999999996</v>
+      </c>
+      <c r="W4">
+        <v>0.90111699999999995</v>
+      </c>
+      <c r="X4">
+        <v>0.90352100000000002</v>
+      </c>
+      <c r="Y4">
+        <v>0.89784600000000003</v>
+      </c>
+      <c r="Z4">
+        <v>0.90469900000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>0.98810900000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.99313700000000005</v>
+      </c>
+      <c r="D5">
+        <v>1.0141690000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.99313700000000005</v>
+      </c>
+      <c r="F5">
+        <v>0.99913799999999997</v>
+      </c>
+      <c r="G5">
+        <v>0.97606899999999996</v>
+      </c>
+      <c r="H5">
+        <v>0.95684999999999998</v>
+      </c>
+      <c r="I5">
+        <v>0.97321800000000003</v>
+      </c>
+      <c r="J5">
+        <v>0.96566300000000005</v>
+      </c>
+      <c r="K5">
+        <v>0.96777000000000002</v>
+      </c>
+      <c r="L5">
+        <v>0.93020599999999998</v>
+      </c>
+      <c r="M5">
+        <v>0.940446</v>
+      </c>
+      <c r="N5">
+        <v>0.94096000000000002</v>
+      </c>
+      <c r="O5">
+        <v>0.93475799999999998</v>
+      </c>
+      <c r="P5">
+        <v>0.94302900000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.92844599999999999</v>
+      </c>
+      <c r="R5">
+        <v>0.92973300000000003</v>
+      </c>
+      <c r="S5">
+        <v>0.91875399999999996</v>
+      </c>
+      <c r="T5">
+        <v>0.92563899999999999</v>
+      </c>
+      <c r="U5">
+        <v>0.91899600000000004</v>
+      </c>
+      <c r="V5">
+        <v>0.89690400000000003</v>
+      </c>
+      <c r="W5">
+        <v>0.89611499999999999</v>
+      </c>
+      <c r="X5">
+        <v>0.89908999999999994</v>
+      </c>
+      <c r="Y5">
+        <v>0.89286399999999999</v>
+      </c>
+      <c r="Z5">
+        <v>0.89974399999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>0.98121999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.98669499999999999</v>
+      </c>
+      <c r="D6">
+        <v>1.0079370000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.98608799999999996</v>
+      </c>
+      <c r="F6">
+        <v>0.99340700000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.96804199999999996</v>
+      </c>
+      <c r="H6">
+        <v>0.94692200000000004</v>
+      </c>
+      <c r="I6">
+        <v>0.96357999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.95741500000000002</v>
+      </c>
+      <c r="K6">
+        <v>0.95910700000000004</v>
+      </c>
+      <c r="L6">
+        <v>0.92353300000000005</v>
+      </c>
+      <c r="M6">
+        <v>0.93260399999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.93334300000000003</v>
+      </c>
+      <c r="O6">
+        <v>0.92757400000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.93459599999999998</v>
+      </c>
+      <c r="Q6">
+        <v>0.92500899999999997</v>
+      </c>
+      <c r="R6">
+        <v>0.92548600000000003</v>
+      </c>
+      <c r="S6">
+        <v>0.91539099999999995</v>
+      </c>
+      <c r="T6">
+        <v>0.92198599999999997</v>
+      </c>
+      <c r="U6">
+        <v>0.91499399999999997</v>
+      </c>
+      <c r="V6">
+        <v>0.89585899999999996</v>
+      </c>
+      <c r="W6">
+        <v>0.89500199999999996</v>
+      </c>
+      <c r="X6">
+        <v>0.89814899999999998</v>
+      </c>
+      <c r="Y6">
+        <v>0.89171100000000003</v>
+      </c>
+      <c r="Z6">
+        <v>0.89852100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>0.97580900000000004</v>
+      </c>
+      <c r="C7">
+        <v>0.98192699999999999</v>
+      </c>
+      <c r="D7">
+        <v>1.003034</v>
+      </c>
+      <c r="E7">
+        <v>0.98080999999999996</v>
+      </c>
+      <c r="F7">
+        <v>0.98886499999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.96308700000000003</v>
+      </c>
+      <c r="H7">
+        <v>0.940411</v>
+      </c>
+      <c r="I7">
+        <v>0.95753200000000005</v>
+      </c>
+      <c r="J7">
+        <v>0.95243199999999995</v>
+      </c>
+      <c r="K7">
+        <v>0.95371899999999998</v>
+      </c>
+      <c r="L7">
+        <v>0.92066300000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.92875300000000005</v>
+      </c>
+      <c r="N7">
+        <v>0.92965799999999998</v>
+      </c>
+      <c r="O7">
+        <v>0.92427400000000004</v>
+      </c>
+      <c r="P7">
+        <v>0.93038600000000005</v>
+      </c>
+      <c r="Q7">
+        <v>0.92404299999999995</v>
+      </c>
+      <c r="R7">
+        <v>0.92414600000000002</v>
+      </c>
+      <c r="S7">
+        <v>0.91452500000000003</v>
+      </c>
+      <c r="T7">
+        <v>0.92093400000000003</v>
+      </c>
+      <c r="U7">
+        <v>0.91374900000000003</v>
+      </c>
+      <c r="V7">
+        <v>0.89524800000000004</v>
+      </c>
+      <c r="W7">
+        <v>0.89436099999999996</v>
+      </c>
+      <c r="X7">
+        <v>0.89758000000000004</v>
+      </c>
+      <c r="Y7">
+        <v>0.89104000000000005</v>
+      </c>
+      <c r="Z7">
+        <v>0.89776400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>0.97148000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.97834699999999997</v>
+      </c>
+      <c r="D8">
+        <v>0.99915900000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.97676099999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.98525099999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.96001800000000004</v>
+      </c>
+      <c r="H8">
+        <v>0.93609799999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.95368799999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.94942800000000005</v>
+      </c>
+      <c r="K8">
+        <v>0.95034600000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.91944499999999996</v>
+      </c>
+      <c r="M8">
+        <v>0.92678499999999997</v>
+      </c>
+      <c r="N8">
+        <v>0.92781100000000005</v>
+      </c>
+      <c r="O8">
+        <v>0.92271199999999998</v>
+      </c>
+      <c r="P8">
+        <v>0.92817300000000003</v>
+      </c>
+      <c r="Q8">
+        <v>0.92360600000000004</v>
+      </c>
+      <c r="R8">
+        <v>0.923543</v>
+      </c>
+      <c r="S8">
+        <v>0.91417700000000002</v>
+      </c>
+      <c r="T8">
+        <v>0.920489</v>
+      </c>
+      <c r="U8">
+        <v>0.91317700000000002</v>
+      </c>
+      <c r="V8">
+        <v>0.89446199999999998</v>
+      </c>
+      <c r="W8">
+        <v>0.89357699999999995</v>
+      </c>
+      <c r="X8">
+        <v>0.89684799999999998</v>
+      </c>
+      <c r="Y8">
+        <v>0.89024899999999996</v>
+      </c>
+      <c r="Z8">
+        <v>0.89687300000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>0.96795900000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.97562400000000005</v>
+      </c>
+      <c r="D9">
+        <v>0.99607699999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.97359700000000005</v>
+      </c>
+      <c r="F9">
+        <v>0.98234900000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.95806000000000002</v>
+      </c>
+      <c r="H9">
+        <v>0.93317899999999998</v>
+      </c>
+      <c r="I9">
+        <v>0.951183</v>
+      </c>
+      <c r="J9">
+        <v>0.94759300000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.94819600000000004</v>
+      </c>
+      <c r="L9">
+        <v>0.91881699999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.92561599999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.92675399999999997</v>
+      </c>
+      <c r="O9">
+        <v>0.92183099999999996</v>
+      </c>
+      <c r="P9">
+        <v>0.92681599999999997</v>
+      </c>
+      <c r="Q9">
+        <v>0.92302899999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.92291800000000002</v>
+      </c>
+      <c r="S9">
+        <v>0.91369299999999998</v>
+      </c>
+      <c r="T9">
+        <v>0.91997200000000001</v>
+      </c>
+      <c r="U9">
+        <v>0.91256400000000004</v>
+      </c>
+      <c r="V9">
+        <v>0.89299300000000004</v>
+      </c>
+      <c r="W9">
+        <v>0.89214199999999999</v>
+      </c>
+      <c r="X9">
+        <v>0.89549599999999996</v>
+      </c>
+      <c r="Y9">
+        <v>0.88884799999999997</v>
+      </c>
+      <c r="Z9">
+        <v>0.89532400000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>0.96500200000000003</v>
+      </c>
+      <c r="C10">
+        <v>0.973491</v>
+      </c>
+      <c r="D10">
+        <v>0.99358100000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.97104100000000004</v>
+      </c>
+      <c r="F10">
+        <v>0.97994599999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.95665</v>
+      </c>
+      <c r="H10">
+        <v>0.93108199999999997</v>
+      </c>
+      <c r="I10">
+        <v>0.94942400000000005</v>
+      </c>
+      <c r="J10">
+        <v>0.94635400000000003</v>
+      </c>
+      <c r="K10">
+        <v>0.946712</v>
+      </c>
+      <c r="L10">
+        <v>0.91817800000000005</v>
+      </c>
+      <c r="M10">
+        <v>0.92461199999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.92589500000000002</v>
+      </c>
+      <c r="O10">
+        <v>0.92102499999999998</v>
+      </c>
+      <c r="P10">
+        <v>0.92564100000000005</v>
+      </c>
+      <c r="Q10">
+        <v>0.921906</v>
+      </c>
+      <c r="R10">
+        <v>0.92183400000000004</v>
+      </c>
+      <c r="S10">
+        <v>0.91269500000000003</v>
+      </c>
+      <c r="T10">
+        <v>0.91898999999999997</v>
+      </c>
+      <c r="U10">
+        <v>0.91150500000000001</v>
+      </c>
+      <c r="V10">
+        <v>0.890293</v>
+      </c>
+      <c r="W10">
+        <v>0.88951000000000002</v>
+      </c>
+      <c r="X10">
+        <v>0.89298999999999995</v>
+      </c>
+      <c r="Y10">
+        <v>0.88627699999999998</v>
+      </c>
+      <c r="Z10">
+        <v>0.89255499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>0.96242399999999995</v>
+      </c>
+      <c r="C11">
+        <v>0.97173200000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.99150400000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.96887699999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.97786200000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.95539799999999997</v>
+      </c>
+      <c r="H11">
+        <v>0.92940199999999995</v>
+      </c>
+      <c r="I11">
+        <v>0.94801199999999997</v>
+      </c>
+      <c r="J11">
+        <v>0.94531600000000005</v>
+      </c>
+      <c r="K11">
+        <v>0.94550900000000004</v>
+      </c>
+      <c r="L11">
+        <v>0.91718599999999995</v>
+      </c>
+      <c r="M11">
+        <v>0.92339899999999997</v>
+      </c>
+      <c r="N11">
+        <v>0.92488199999999998</v>
+      </c>
+      <c r="O11">
+        <v>0.91993599999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.92424799999999996</v>
+      </c>
+      <c r="Q11">
+        <v>0.92000899999999997</v>
+      </c>
+      <c r="R11">
+        <v>0.92002899999999999</v>
+      </c>
+      <c r="S11">
+        <v>0.91094699999999995</v>
+      </c>
+      <c r="T11">
+        <v>0.917292</v>
+      </c>
+      <c r="U11">
+        <v>0.90976999999999997</v>
+      </c>
+      <c r="V11">
+        <v>0.88637299999999997</v>
+      </c>
+      <c r="W11">
+        <v>0.88567200000000001</v>
+      </c>
+      <c r="X11">
+        <v>0.88922699999999999</v>
+      </c>
+      <c r="Y11">
+        <v>0.88241199999999997</v>
+      </c>
+      <c r="Z11">
+        <v>0.88857699999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>0.96012799999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="D12">
+        <v>0.98973500000000003</v>
+      </c>
+      <c r="E12">
+        <v>0.96698099999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.97598799999999997</v>
+      </c>
+      <c r="G12">
+        <v>0.95409900000000003</v>
+      </c>
+      <c r="H12">
+        <v>0.92788800000000005</v>
+      </c>
+      <c r="I12">
+        <v>0.94672999999999996</v>
+      </c>
+      <c r="J12">
+        <v>0.94427000000000005</v>
+      </c>
+      <c r="K12">
+        <v>0.94437099999999996</v>
+      </c>
+      <c r="L12">
+        <v>0.91576400000000002</v>
+      </c>
+      <c r="M12">
+        <v>0.92185300000000003</v>
+      </c>
+      <c r="N12">
+        <v>0.92357</v>
+      </c>
+      <c r="O12">
+        <v>0.91844400000000004</v>
+      </c>
+      <c r="P12">
+        <v>0.92251000000000005</v>
+      </c>
+      <c r="Q12">
+        <v>0.91744199999999998</v>
+      </c>
+      <c r="R12">
+        <v>0.91756599999999999</v>
+      </c>
+      <c r="S12">
+        <v>0.90851199999999999</v>
+      </c>
+      <c r="T12">
+        <v>0.91492600000000002</v>
+      </c>
+      <c r="U12">
+        <v>0.90744199999999997</v>
+      </c>
+      <c r="V12">
+        <v>0.88213900000000001</v>
+      </c>
+      <c r="W12">
+        <v>0.88148300000000002</v>
+      </c>
+      <c r="X12">
+        <v>0.88495800000000002</v>
+      </c>
+      <c r="Y12">
+        <v>0.878023</v>
+      </c>
+      <c r="Z12">
+        <v>0.88429500000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>0.95807600000000004</v>
+      </c>
+      <c r="C13">
+        <v>0.96881399999999995</v>
+      </c>
+      <c r="D13">
+        <v>0.98820399999999997</v>
+      </c>
+      <c r="E13">
+        <v>0.96529500000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.97427299999999994</v>
+      </c>
+      <c r="G13">
+        <v>0.95270100000000002</v>
+      </c>
+      <c r="H13">
+        <v>0.92641700000000005</v>
+      </c>
+      <c r="I13">
+        <v>0.94549499999999997</v>
+      </c>
+      <c r="J13">
+        <v>0.94315400000000005</v>
+      </c>
+      <c r="K13">
+        <v>0.943214</v>
+      </c>
+      <c r="L13">
+        <v>0.91402000000000005</v>
+      </c>
+      <c r="M13">
+        <v>0.92003599999999996</v>
+      </c>
+      <c r="N13">
+        <v>0.921983</v>
+      </c>
+      <c r="O13">
+        <v>0.91662500000000002</v>
+      </c>
+      <c r="P13">
+        <v>0.92050500000000002</v>
+      </c>
+      <c r="Q13">
+        <v>0.91454299999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.91474699999999998</v>
+      </c>
+      <c r="S13">
+        <v>0.90570300000000004</v>
+      </c>
+      <c r="T13">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="U13">
+        <v>0.90482099999999999</v>
+      </c>
+      <c r="V13">
+        <v>0.87847500000000001</v>
+      </c>
+      <c r="W13">
+        <v>0.87779600000000002</v>
+      </c>
+      <c r="X13">
+        <v>0.88107400000000002</v>
+      </c>
+      <c r="Y13">
+        <v>0.87404499999999996</v>
+      </c>
+      <c r="Z13">
+        <v>0.88058000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>0.95625000000000004</v>
+      </c>
+      <c r="C14">
+        <v>0.96753299999999998</v>
+      </c>
+      <c r="D14">
+        <v>0.98686200000000002</v>
+      </c>
+      <c r="E14">
+        <v>0.96378799999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.95122099999999998</v>
+      </c>
+      <c r="H14">
+        <v>0.92495300000000003</v>
+      </c>
+      <c r="I14">
+        <v>0.94428299999999998</v>
+      </c>
+      <c r="J14">
+        <v>0.94197200000000003</v>
+      </c>
+      <c r="K14">
+        <v>0.942025</v>
+      </c>
+      <c r="L14">
+        <v>0.91211100000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.91807499999999997</v>
+      </c>
+      <c r="N14">
+        <v>0.92021799999999998</v>
+      </c>
+      <c r="O14">
+        <v>0.91462600000000005</v>
+      </c>
+      <c r="P14">
+        <v>0.91837100000000005</v>
+      </c>
+      <c r="Q14">
+        <v>0.91162100000000001</v>
+      </c>
+      <c r="R14">
+        <v>0.91187099999999999</v>
+      </c>
+      <c r="S14">
+        <v>0.90284299999999995</v>
+      </c>
+      <c r="T14">
+        <v>0.90943099999999999</v>
+      </c>
+      <c r="U14">
+        <v>0.90217999999999998</v>
+      </c>
+      <c r="V14">
+        <v>0.87558199999999997</v>
+      </c>
+      <c r="W14">
+        <v>0.87482800000000005</v>
+      </c>
+      <c r="X14">
+        <v>0.87788299999999997</v>
+      </c>
+      <c r="Y14">
+        <v>0.87080900000000006</v>
+      </c>
+      <c r="Z14">
+        <v>0.87763400000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0.954619</v>
+      </c>
+      <c r="C15">
+        <v>0.966337</v>
+      </c>
+      <c r="D15">
+        <v>0.98566900000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.96243199999999995</v>
+      </c>
+      <c r="F15">
+        <v>0.97125399999999995</v>
+      </c>
+      <c r="G15">
+        <v>0.94968900000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.923485</v>
+      </c>
+      <c r="I15">
+        <v>0.94308599999999998</v>
+      </c>
+      <c r="J15">
+        <v>0.94073799999999996</v>
+      </c>
+      <c r="K15">
+        <v>0.94081300000000001</v>
+      </c>
+      <c r="L15">
+        <v>0.91014899999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.91607000000000005</v>
+      </c>
+      <c r="N15">
+        <v>0.91836200000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.91256499999999996</v>
+      </c>
+      <c r="P15">
+        <v>0.91621399999999997</v>
+      </c>
+      <c r="Q15">
+        <v>0.90883400000000003</v>
+      </c>
+      <c r="R15">
+        <v>0.909107</v>
+      </c>
+      <c r="S15">
+        <v>0.90010999999999997</v>
+      </c>
+      <c r="T15">
+        <v>0.90679900000000002</v>
+      </c>
+      <c r="U15">
+        <v>0.89966199999999996</v>
+      </c>
+      <c r="V15">
+        <v>0.87323200000000001</v>
+      </c>
+      <c r="W15">
+        <v>0.87237699999999996</v>
+      </c>
+      <c r="X15">
+        <v>0.87523300000000004</v>
+      </c>
+      <c r="Y15">
+        <v>0.86816700000000002</v>
+      </c>
+      <c r="Z15">
+        <v>0.87523899999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0.95314399999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.965202</v>
+      </c>
+      <c r="D16">
+        <v>0.98458400000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.96119299999999996</v>
+      </c>
+      <c r="F16">
+        <v>0.96991300000000003</v>
+      </c>
+      <c r="G16">
+        <v>0.94812300000000005</v>
+      </c>
+      <c r="H16">
+        <v>0.92200700000000002</v>
+      </c>
+      <c r="I16">
+        <v>0.94189000000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.93945100000000004</v>
+      </c>
+      <c r="K16">
+        <v>0.93958200000000003</v>
+      </c>
+      <c r="L16">
+        <v>0.90818699999999997</v>
+      </c>
+      <c r="M16">
+        <v>0.91406799999999999</v>
+      </c>
+      <c r="N16">
+        <v>0.916462</v>
+      </c>
+      <c r="O16">
+        <v>0.91050200000000003</v>
+      </c>
+      <c r="P16">
+        <v>0.91408199999999995</v>
+      </c>
+      <c r="Q16">
+        <v>0.90620900000000004</v>
+      </c>
+      <c r="R16">
+        <v>0.90648899999999999</v>
+      </c>
+      <c r="S16">
+        <v>0.89754</v>
+      </c>
+      <c r="T16">
+        <v>0.90434300000000001</v>
+      </c>
+      <c r="U16">
+        <v>0.897285</v>
+      </c>
+      <c r="V16">
+        <v>0.87110299999999996</v>
+      </c>
+      <c r="W16">
+        <v>0.87014599999999998</v>
+      </c>
+      <c r="X16">
+        <v>0.87283100000000002</v>
+      </c>
+      <c r="Y16">
+        <v>0.86582700000000001</v>
+      </c>
+      <c r="Z16">
+        <v>0.87308300000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>0.95177999999999996</v>
+      </c>
+      <c r="C17">
+        <v>0.96409800000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.98356399999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.96003499999999997</v>
+      </c>
+      <c r="F17">
+        <v>0.96865100000000004</v>
+      </c>
+      <c r="G17">
+        <v>0.94651700000000005</v>
+      </c>
+      <c r="H17">
+        <v>0.92049800000000004</v>
+      </c>
+      <c r="I17">
+        <v>0.94066799999999995</v>
+      </c>
+      <c r="J17">
+        <v>0.93810099999999996</v>
+      </c>
+      <c r="K17">
+        <v>0.93832300000000002</v>
+      </c>
+      <c r="L17">
+        <v>0.90622499999999995</v>
+      </c>
+      <c r="M17">
+        <v>0.91206799999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.91452500000000003</v>
+      </c>
+      <c r="O17">
+        <v>0.90844000000000003</v>
+      </c>
+      <c r="P17">
+        <v>0.91197099999999998</v>
+      </c>
+      <c r="Q17">
+        <v>0.90368899999999996</v>
+      </c>
+      <c r="R17">
+        <v>0.90396600000000005</v>
+      </c>
+      <c r="S17">
+        <v>0.89507199999999998</v>
+      </c>
+      <c r="T17">
+        <v>0.90200199999999997</v>
+      </c>
+      <c r="U17">
+        <v>0.89498800000000001</v>
+      </c>
+      <c r="V17">
+        <v>0.86891300000000005</v>
+      </c>
+      <c r="W17">
+        <v>0.86786700000000006</v>
+      </c>
+      <c r="X17">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="Y17">
+        <v>0.86351</v>
+      </c>
+      <c r="Z17">
+        <v>0.87088299999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>0.95047999999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.96299400000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.98256200000000005</v>
+      </c>
+      <c r="E18">
+        <v>0.95891700000000002</v>
+      </c>
+      <c r="F18">
+        <v>0.96743400000000002</v>
+      </c>
+      <c r="G18">
+        <v>0.94485300000000005</v>
+      </c>
+      <c r="H18">
+        <v>0.91893000000000002</v>
+      </c>
+      <c r="I18">
+        <v>0.93938900000000003</v>
+      </c>
+      <c r="J18">
+        <v>0.93666400000000005</v>
+      </c>
+      <c r="K18">
+        <v>0.93701900000000005</v>
+      </c>
+      <c r="L18">
+        <v>0.90422999999999998</v>
+      </c>
+      <c r="M18">
+        <v>0.91003800000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.91252699999999998</v>
+      </c>
+      <c r="O18">
+        <v>0.90634800000000004</v>
+      </c>
+      <c r="P18">
+        <v>0.90984900000000002</v>
+      </c>
+      <c r="Q18">
+        <v>0.90118100000000001</v>
+      </c>
+      <c r="R18">
+        <v>0.90144199999999997</v>
+      </c>
+      <c r="S18">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="T18">
+        <v>0.89967299999999994</v>
+      </c>
+      <c r="U18">
+        <v>0.89267099999999999</v>
+      </c>
+      <c r="V18">
+        <v>0.86645499999999998</v>
+      </c>
+      <c r="W18">
+        <v>0.86533700000000002</v>
+      </c>
+      <c r="X18">
+        <v>0.86772800000000005</v>
+      </c>
+      <c r="Y18">
+        <v>0.86099599999999998</v>
+      </c>
+      <c r="Z18">
+        <v>0.86842600000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>0.94920400000000005</v>
+      </c>
+      <c r="C19">
+        <v>0.96185799999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.98153699999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.95780100000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.96623099999999995</v>
+      </c>
+      <c r="G19">
+        <v>0.94310499999999997</v>
+      </c>
+      <c r="H19">
+        <v>0.91727400000000003</v>
+      </c>
+      <c r="I19">
+        <v>0.93802200000000002</v>
+      </c>
+      <c r="J19">
+        <v>0.93511699999999998</v>
+      </c>
+      <c r="K19">
+        <v>0.93564700000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.90215999999999996</v>
+      </c>
+      <c r="M19">
+        <v>0.90793699999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.91043300000000005</v>
+      </c>
+      <c r="O19">
+        <v>0.90417999999999998</v>
+      </c>
+      <c r="P19">
+        <v>0.90767100000000001</v>
+      </c>
+      <c r="Q19">
+        <v>0.89859</v>
+      </c>
+      <c r="R19">
+        <v>0.89882700000000004</v>
+      </c>
+      <c r="S19">
+        <v>0.89002099999999995</v>
+      </c>
+      <c r="T19">
+        <v>0.89724800000000005</v>
+      </c>
+      <c r="U19">
+        <v>0.89023600000000003</v>
+      </c>
+      <c r="V19">
+        <v>0.86361299999999996</v>
+      </c>
+      <c r="W19">
+        <v>0.86244600000000005</v>
+      </c>
+      <c r="X19">
+        <v>0.86470199999999997</v>
+      </c>
+      <c r="Y19">
+        <v>0.85815399999999997</v>
+      </c>
+      <c r="Z19">
+        <v>0.865587</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>0.94791700000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.96066399999999996</v>
+      </c>
+      <c r="D20">
+        <v>0.98045400000000005</v>
+      </c>
+      <c r="E20">
+        <v>0.95665900000000004</v>
+      </c>
+      <c r="F20">
+        <v>0.96501300000000001</v>
+      </c>
+      <c r="G20">
+        <v>0.94125499999999995</v>
+      </c>
+      <c r="H20">
+        <v>0.91550799999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.93654899999999996</v>
+      </c>
+      <c r="J20">
+        <v>0.93344400000000005</v>
+      </c>
+      <c r="K20">
+        <v>0.93418999999999996</v>
+      </c>
+      <c r="L20">
+        <v>0.89998199999999995</v>
+      </c>
+      <c r="M20">
+        <v>0.90573499999999996</v>
+      </c>
+      <c r="N20">
+        <v>0.90822000000000003</v>
+      </c>
+      <c r="O20">
+        <v>0.90189900000000001</v>
+      </c>
+      <c r="P20">
+        <v>0.90540100000000001</v>
+      </c>
+      <c r="Q20">
+        <v>0.89585800000000004</v>
+      </c>
+      <c r="R20">
+        <v>0.89606300000000005</v>
+      </c>
+      <c r="S20">
+        <v>0.88727</v>
+      </c>
+      <c r="T20">
+        <v>0.894652</v>
+      </c>
+      <c r="U20">
+        <v>0.88761599999999996</v>
+      </c>
+      <c r="V20">
+        <v>0.86039699999999997</v>
+      </c>
+      <c r="W20">
+        <v>0.85920600000000003</v>
+      </c>
+      <c r="X20">
+        <v>0.86133899999999997</v>
+      </c>
+      <c r="Y20">
+        <v>0.85497199999999995</v>
+      </c>
+      <c r="Z20">
+        <v>0.86236500000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>0.9466</v>
+      </c>
+      <c r="C21">
+        <v>0.95940400000000003</v>
+      </c>
+      <c r="D21">
+        <v>0.97929500000000003</v>
+      </c>
+      <c r="E21">
+        <v>0.95547199999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.96376099999999998</v>
+      </c>
+      <c r="G21">
+        <v>0.93930199999999997</v>
+      </c>
+      <c r="H21">
+        <v>0.91363300000000003</v>
+      </c>
+      <c r="I21">
+        <v>0.93496699999999999</v>
+      </c>
+      <c r="J21">
+        <v>0.931643</v>
+      </c>
+      <c r="K21">
+        <v>0.93264599999999998</v>
+      </c>
+      <c r="L21">
+        <v>0.89769100000000002</v>
+      </c>
+      <c r="M21">
+        <v>0.90342900000000004</v>
+      </c>
+      <c r="N21">
+        <v>0.905891</v>
+      </c>
+      <c r="O21">
+        <v>0.89949599999999996</v>
+      </c>
+      <c r="P21">
+        <v>0.90302899999999997</v>
+      </c>
+      <c r="Q21">
+        <v>0.89298299999999997</v>
+      </c>
+      <c r="R21">
+        <v>0.89315100000000003</v>
+      </c>
+      <c r="S21">
+        <v>0.88434500000000005</v>
+      </c>
+      <c r="T21">
+        <v>0.89187000000000005</v>
+      </c>
+      <c r="U21">
+        <v>0.88480300000000001</v>
+      </c>
+      <c r="V21">
+        <v>0.85694000000000004</v>
+      </c>
+      <c r="W21">
+        <v>0.85574399999999995</v>
+      </c>
+      <c r="X21">
+        <v>0.85778100000000002</v>
+      </c>
+      <c r="Y21">
+        <v>0.85156600000000005</v>
+      </c>
+      <c r="Z21">
+        <v>0.85888900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>0.94524699999999995</v>
+      </c>
+      <c r="C22">
+        <v>0.95807799999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.97805600000000004</v>
+      </c>
+      <c r="E22">
+        <v>0.95423500000000006</v>
+      </c>
+      <c r="F22">
+        <v>0.96247000000000005</v>
+      </c>
+      <c r="G22">
+        <v>0.93726299999999996</v>
+      </c>
+      <c r="H22">
+        <v>0.91166999999999998</v>
+      </c>
+      <c r="I22">
+        <v>0.93329399999999996</v>
+      </c>
+      <c r="J22">
+        <v>0.92973499999999998</v>
+      </c>
+      <c r="K22">
+        <v>0.93102600000000002</v>
+      </c>
+      <c r="L22">
+        <v>0.89531700000000003</v>
+      </c>
+      <c r="M22">
+        <v>0.90104399999999996</v>
+      </c>
+      <c r="N22">
+        <v>0.90348200000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.89700199999999997</v>
+      </c>
+      <c r="P22">
+        <v>0.90057799999999999</v>
+      </c>
+      <c r="Q22">
+        <v>0.89001799999999998</v>
+      </c>
+      <c r="R22">
+        <v>0.89014800000000005</v>
+      </c>
+      <c r="S22">
+        <v>0.88130399999999998</v>
+      </c>
+      <c r="T22">
+        <v>0.88894899999999999</v>
+      </c>
+      <c r="U22">
+        <v>0.88185400000000003</v>
+      </c>
+      <c r="V22">
+        <v>0.85343999999999998</v>
+      </c>
+      <c r="W22">
+        <v>0.85224699999999998</v>
+      </c>
+      <c r="X22">
+        <v>0.85422600000000004</v>
+      </c>
+      <c r="Y22">
+        <v>0.84812600000000005</v>
+      </c>
+      <c r="Z22">
+        <v>0.85535700000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>0.94386400000000004</v>
+      </c>
+      <c r="C23">
+        <v>0.95670100000000002</v>
+      </c>
+      <c r="D23">
+        <v>0.97674499999999997</v>
+      </c>
+      <c r="E23">
+        <v>0.95295200000000002</v>
+      </c>
+      <c r="F23">
+        <v>0.961144</v>
+      </c>
+      <c r="G23">
+        <v>0.935168</v>
+      </c>
+      <c r="H23">
+        <v>0.90965300000000004</v>
+      </c>
+      <c r="I23">
+        <v>0.93155699999999997</v>
+      </c>
+      <c r="J23">
+        <v>0.92775300000000005</v>
+      </c>
+      <c r="K23">
+        <v>0.92935500000000004</v>
+      </c>
+      <c r="L23">
+        <v>0.89290899999999995</v>
+      </c>
+      <c r="M23">
+        <v>0.89862299999999995</v>
+      </c>
+      <c r="N23">
+        <v>0.90104700000000004</v>
+      </c>
+      <c r="O23">
+        <v>0.89446999999999999</v>
+      </c>
+      <c r="P23">
+        <v>0.898092</v>
+      </c>
+      <c r="Q23">
+        <v>0.88704700000000003</v>
+      </c>
+      <c r="R23">
+        <v>0.88713699999999995</v>
+      </c>
+      <c r="S23">
+        <v>0.87823700000000005</v>
+      </c>
+      <c r="T23">
+        <v>0.88597300000000001</v>
+      </c>
+      <c r="U23">
+        <v>0.87885500000000005</v>
+      </c>
+      <c r="V23">
+        <v>0.85007299999999997</v>
+      </c>
+      <c r="W23">
+        <v>0.84887199999999996</v>
+      </c>
+      <c r="X23">
+        <v>0.85083900000000001</v>
+      </c>
+      <c r="Y23">
+        <v>0.84482800000000002</v>
+      </c>
+      <c r="Z23">
+        <v>0.85194999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>0.94246200000000002</v>
+      </c>
+      <c r="C24">
+        <v>0.95528999999999997</v>
+      </c>
+      <c r="D24">
+        <v>0.97537700000000005</v>
+      </c>
+      <c r="E24">
+        <v>0.95163299999999995</v>
+      </c>
+      <c r="F24">
+        <v>0.95979300000000001</v>
+      </c>
+      <c r="G24">
+        <v>0.93305099999999996</v>
+      </c>
+      <c r="H24">
+        <v>0.90761800000000004</v>
+      </c>
+      <c r="I24">
+        <v>0.92978400000000005</v>
+      </c>
+      <c r="J24">
+        <v>0.92573300000000003</v>
+      </c>
+      <c r="K24">
+        <v>0.92766099999999996</v>
+      </c>
+      <c r="L24">
+        <v>0.890517</v>
+      </c>
+      <c r="M24">
+        <v>0.89620999999999995</v>
+      </c>
+      <c r="N24">
+        <v>0.89863800000000005</v>
+      </c>
+      <c r="O24">
+        <v>0.89195999999999998</v>
+      </c>
+      <c r="P24">
+        <v>0.895617</v>
+      </c>
+      <c r="Q24">
+        <v>0.88414099999999995</v>
+      </c>
+      <c r="R24">
+        <v>0.88419300000000001</v>
+      </c>
+      <c r="S24">
+        <v>0.875224</v>
+      </c>
+      <c r="T24">
+        <v>0.88302700000000001</v>
+      </c>
+      <c r="U24">
+        <v>0.875892</v>
+      </c>
+      <c r="V24">
+        <v>0.84692699999999999</v>
+      </c>
+      <c r="W24">
+        <v>0.845696</v>
+      </c>
+      <c r="X24">
+        <v>0.84769300000000003</v>
+      </c>
+      <c r="Y24">
+        <v>0.84176499999999999</v>
+      </c>
+      <c r="Z24">
+        <v>0.84876799999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>0.94105000000000005</v>
+      </c>
+      <c r="C25">
+        <v>0.95385799999999998</v>
+      </c>
+      <c r="D25">
+        <v>0.97396400000000005</v>
+      </c>
+      <c r="E25">
+        <v>0.95028500000000005</v>
+      </c>
+      <c r="F25">
+        <v>0.958426</v>
+      </c>
+      <c r="G25">
+        <v>0.93094100000000002</v>
+      </c>
+      <c r="H25">
+        <v>0.90559199999999995</v>
+      </c>
+      <c r="I25">
+        <v>0.92799799999999999</v>
+      </c>
+      <c r="J25">
+        <v>0.92370300000000005</v>
+      </c>
+      <c r="K25">
+        <v>0.92596599999999996</v>
+      </c>
+      <c r="L25">
+        <v>0.88817599999999997</v>
+      </c>
+      <c r="M25">
+        <v>0.89383299999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.89629099999999995</v>
+      </c>
+      <c r="O25">
+        <v>0.88951499999999994</v>
+      </c>
+      <c r="P25">
+        <v>0.89319000000000004</v>
+      </c>
+      <c r="Q25">
+        <v>0.88134400000000002</v>
+      </c>
+      <c r="R25">
+        <v>0.88136199999999998</v>
+      </c>
+      <c r="S25">
+        <v>0.87231599999999998</v>
+      </c>
+      <c r="T25">
+        <v>0.88017000000000001</v>
+      </c>
+      <c r="U25">
+        <v>0.87302400000000002</v>
+      </c>
+      <c r="V25">
+        <v>0.84401099999999996</v>
+      </c>
+      <c r="W25">
+        <v>0.84272800000000003</v>
+      </c>
+      <c r="X25">
+        <v>0.84478399999999998</v>
+      </c>
+      <c r="Y25">
+        <v>0.83894599999999997</v>
+      </c>
+      <c r="Z25">
+        <v>0.84582800000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>0.939635</v>
+      </c>
+      <c r="C26">
+        <v>0.95241600000000004</v>
+      </c>
+      <c r="D26">
+        <v>0.97251600000000005</v>
+      </c>
+      <c r="E26">
+        <v>0.94891300000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.95705099999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.92885600000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.90359100000000003</v>
+      </c>
+      <c r="I26">
+        <v>0.92621100000000001</v>
+      </c>
+      <c r="J26">
+        <v>0.92168300000000003</v>
+      </c>
+      <c r="K26">
+        <v>0.92428500000000002</v>
+      </c>
+      <c r="L26">
+        <v>0.88590400000000002</v>
+      </c>
+      <c r="M26">
+        <v>0.89150799999999997</v>
+      </c>
+      <c r="N26">
+        <v>0.89402499999999996</v>
+      </c>
+      <c r="O26">
+        <v>0.88715999999999995</v>
+      </c>
+      <c r="P26">
+        <v>0.89083299999999999</v>
+      </c>
+      <c r="Q26">
+        <v>0.87867200000000001</v>
+      </c>
+      <c r="R26">
+        <v>0.87866599999999995</v>
+      </c>
+      <c r="S26">
+        <v>0.86953999999999998</v>
+      </c>
+      <c r="T26">
+        <v>0.87743199999999999</v>
+      </c>
+      <c r="U26">
+        <v>0.87028099999999997</v>
+      </c>
+      <c r="V26">
+        <v>0.84129299999999996</v>
+      </c>
+      <c r="W26">
+        <v>0.83994199999999997</v>
+      </c>
+      <c r="X26">
+        <v>0.84207299999999996</v>
+      </c>
+      <c r="Y26">
+        <v>0.83633800000000003</v>
+      </c>
+      <c r="Z26">
+        <v>0.84310200000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>0.93822099999999997</v>
+      </c>
+      <c r="C27">
+        <v>0.95097200000000004</v>
+      </c>
+      <c r="D27">
+        <v>0.97104000000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.94752099999999995</v>
+      </c>
+      <c r="F27">
+        <v>0.95567299999999999</v>
+      </c>
+      <c r="G27">
+        <v>0.92680600000000002</v>
+      </c>
+      <c r="H27">
+        <v>0.90162799999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.92443399999999998</v>
+      </c>
+      <c r="J27">
+        <v>0.91968300000000003</v>
+      </c>
+      <c r="K27">
+        <v>0.92262699999999997</v>
+      </c>
+      <c r="L27">
+        <v>0.88370700000000002</v>
+      </c>
+      <c r="M27">
+        <v>0.88924199999999998</v>
+      </c>
+      <c r="N27">
+        <v>0.89184699999999995</v>
+      </c>
+      <c r="O27">
+        <v>0.88490199999999997</v>
+      </c>
+      <c r="P27">
+        <v>0.88855399999999995</v>
+      </c>
+      <c r="Q27">
+        <v>0.87612500000000004</v>
+      </c>
+      <c r="R27">
+        <v>0.87611300000000003</v>
+      </c>
+      <c r="S27">
+        <v>0.86690199999999995</v>
+      </c>
+      <c r="T27">
+        <v>0.87482199999999999</v>
+      </c>
+      <c r="U27">
+        <v>0.86767700000000003</v>
+      </c>
+      <c r="V27">
+        <v>0.83873900000000001</v>
+      </c>
+      <c r="W27">
+        <v>0.83731199999999995</v>
+      </c>
+      <c r="X27">
+        <v>0.83952599999999999</v>
+      </c>
+      <c r="Y27">
+        <v>0.83390600000000004</v>
+      </c>
+      <c r="Z27">
+        <v>0.840561</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0.93681199999999998</v>
+      </c>
+      <c r="C28">
+        <v>0.94953299999999996</v>
+      </c>
+      <c r="D28">
+        <v>0.96954399999999996</v>
+      </c>
+      <c r="E28">
+        <v>0.94611199999999995</v>
+      </c>
+      <c r="F28">
+        <v>0.95429699999999995</v>
+      </c>
+      <c r="G28">
+        <v>0.92479900000000004</v>
+      </c>
+      <c r="H28">
+        <v>0.89970899999999998</v>
+      </c>
+      <c r="I28">
+        <v>0.92267399999999999</v>
+      </c>
+      <c r="J28">
+        <v>0.91771100000000005</v>
+      </c>
+      <c r="K28">
+        <v>0.92099900000000001</v>
+      </c>
+      <c r="L28">
+        <v>0.88158499999999995</v>
+      </c>
+      <c r="M28">
+        <v>0.88703699999999996</v>
+      </c>
+      <c r="N28">
+        <v>0.88976100000000002</v>
+      </c>
+      <c r="O28">
+        <v>0.882741</v>
+      </c>
+      <c r="P28">
+        <v>0.88636000000000004</v>
+      </c>
+      <c r="Q28">
+        <v>0.87369799999999997</v>
+      </c>
+      <c r="R28">
+        <v>0.87370099999999995</v>
+      </c>
+      <c r="S28">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="T28">
+        <v>0.87234500000000004</v>
+      </c>
+      <c r="U28">
+        <v>0.86521400000000004</v>
+      </c>
+      <c r="V28">
+        <v>0.83633199999999996</v>
+      </c>
+      <c r="W28">
+        <v>0.83482599999999996</v>
+      </c>
+      <c r="X28">
+        <v>0.83712299999999995</v>
+      </c>
+      <c r="Y28">
+        <v>0.83162800000000003</v>
+      </c>
+      <c r="Z28">
+        <v>0.83818300000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0.935415</v>
+      </c>
+      <c r="C29">
+        <v>0.948106</v>
+      </c>
+      <c r="D29">
+        <v>0.96804000000000001</v>
+      </c>
+      <c r="E29">
+        <v>0.94469199999999998</v>
+      </c>
+      <c r="F29">
+        <v>0.95292900000000003</v>
+      </c>
+      <c r="G29">
+        <v>0.92284100000000002</v>
+      </c>
+      <c r="H29">
+        <v>0.897841</v>
+      </c>
+      <c r="I29">
+        <v>0.92093899999999995</v>
+      </c>
+      <c r="J29">
+        <v>0.91577399999999998</v>
+      </c>
+      <c r="K29">
+        <v>0.91940900000000003</v>
+      </c>
+      <c r="L29">
+        <v>0.87953899999999996</v>
+      </c>
+      <c r="M29">
+        <v>0.88489600000000002</v>
+      </c>
+      <c r="N29">
+        <v>0.88776600000000006</v>
+      </c>
+      <c r="O29">
+        <v>0.88067600000000001</v>
+      </c>
+      <c r="P29">
+        <v>0.88425100000000001</v>
+      </c>
+      <c r="Q29">
+        <v>0.87138800000000005</v>
+      </c>
+      <c r="R29">
+        <v>0.87143000000000004</v>
+      </c>
+      <c r="S29">
+        <v>0.86205699999999996</v>
+      </c>
+      <c r="T29">
+        <v>0.87000200000000005</v>
+      </c>
+      <c r="U29">
+        <v>0.86289499999999997</v>
+      </c>
+      <c r="V29">
+        <v>0.834067</v>
+      </c>
+      <c r="W29">
+        <v>0.83248500000000003</v>
+      </c>
+      <c r="X29">
+        <v>0.83486000000000005</v>
+      </c>
+      <c r="Y29">
+        <v>0.82949899999999999</v>
+      </c>
+      <c r="Z29">
+        <v>0.83596199999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0.93403499999999995</v>
+      </c>
+      <c r="C30">
+        <v>0.94669800000000004</v>
+      </c>
+      <c r="D30">
+        <v>0.96653599999999995</v>
+      </c>
+      <c r="E30">
+        <v>0.943268</v>
+      </c>
+      <c r="F30">
+        <v>0.95157599999999998</v>
+      </c>
+      <c r="G30">
+        <v>0.92093700000000001</v>
+      </c>
+      <c r="H30">
+        <v>0.89603100000000002</v>
+      </c>
+      <c r="I30">
+        <v>0.91923999999999995</v>
+      </c>
+      <c r="J30">
+        <v>0.91387799999999997</v>
+      </c>
+      <c r="K30">
+        <v>0.91786100000000004</v>
+      </c>
+      <c r="L30">
+        <v>0.87757399999999997</v>
+      </c>
+      <c r="M30">
+        <v>0.88282400000000005</v>
+      </c>
+      <c r="N30">
+        <v>0.88586200000000004</v>
+      </c>
+      <c r="O30">
+        <v>0.87870599999999999</v>
+      </c>
+      <c r="P30">
+        <v>0.88223099999999999</v>
+      </c>
+      <c r="Q30">
+        <v>0.86919599999999997</v>
+      </c>
+      <c r="R30">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="S30">
+        <v>0.85985500000000004</v>
+      </c>
+      <c r="T30">
+        <v>0.86779499999999998</v>
+      </c>
+      <c r="U30">
+        <v>0.86072199999999999</v>
+      </c>
+      <c r="V30">
+        <v>0.83194800000000002</v>
+      </c>
+      <c r="W30">
+        <v>0.83029299999999995</v>
+      </c>
+      <c r="X30">
+        <v>0.83273900000000001</v>
+      </c>
+      <c r="Y30">
+        <v>0.82752199999999998</v>
+      </c>
+      <c r="Z30">
+        <v>0.83389500000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0.93268099999999998</v>
+      </c>
+      <c r="C31">
+        <v>0.94531900000000002</v>
+      </c>
+      <c r="D31">
+        <v>0.96504500000000004</v>
+      </c>
+      <c r="E31">
+        <v>0.94184599999999996</v>
+      </c>
+      <c r="F31">
+        <v>0.95024500000000001</v>
+      </c>
+      <c r="G31">
+        <v>0.91908999999999996</v>
+      </c>
+      <c r="H31">
+        <v>0.894285</v>
+      </c>
+      <c r="I31">
+        <v>0.91758499999999998</v>
+      </c>
+      <c r="J31">
+        <v>0.91203000000000001</v>
+      </c>
+      <c r="K31">
+        <v>0.91636099999999998</v>
+      </c>
+      <c r="L31">
+        <v>0.87569300000000005</v>
+      </c>
+      <c r="M31">
+        <v>0.88082300000000002</v>
+      </c>
+      <c r="N31">
+        <v>0.88404799999999994</v>
+      </c>
+      <c r="O31">
+        <v>0.87682899999999997</v>
+      </c>
+      <c r="P31">
+        <v>0.88030200000000003</v>
+      </c>
+      <c r="Q31">
+        <v>0.86712299999999998</v>
+      </c>
+      <c r="R31">
+        <v>0.867309</v>
+      </c>
+      <c r="S31">
+        <v>0.85780500000000004</v>
+      </c>
+      <c r="T31">
+        <v>0.865726</v>
+      </c>
+      <c r="U31">
+        <v>0.85869399999999996</v>
+      </c>
+      <c r="V31">
+        <v>0.82997600000000005</v>
+      </c>
+      <c r="W31">
+        <v>0.82825300000000002</v>
+      </c>
+      <c r="X31">
+        <v>0.83076099999999997</v>
+      </c>
+      <c r="Y31">
+        <v>0.82569499999999996</v>
+      </c>
+      <c r="Z31">
+        <v>0.831978</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>0.93135900000000005</v>
+      </c>
+      <c r="C32">
+        <v>0.94397600000000004</v>
+      </c>
+      <c r="D32">
+        <v>0.96357700000000002</v>
+      </c>
+      <c r="E32">
+        <v>0.94043600000000005</v>
+      </c>
+      <c r="F32">
+        <v>0.94894299999999998</v>
+      </c>
+      <c r="G32">
+        <v>0.91730699999999998</v>
+      </c>
+      <c r="H32">
+        <v>0.89261000000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.91598400000000002</v>
+      </c>
+      <c r="J32">
+        <v>0.91023900000000002</v>
+      </c>
+      <c r="K32">
+        <v>0.91491299999999998</v>
+      </c>
+      <c r="L32">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.87889899999999999</v>
+      </c>
+      <c r="N32">
+        <v>0.882324</v>
+      </c>
+      <c r="O32">
+        <v>0.87504400000000004</v>
+      </c>
+      <c r="P32">
+        <v>0.87846500000000005</v>
+      </c>
+      <c r="Q32">
+        <v>0.86516899999999997</v>
+      </c>
+      <c r="R32">
+        <v>0.86545499999999997</v>
+      </c>
+      <c r="S32">
+        <v>0.85590500000000003</v>
+      </c>
+      <c r="T32">
+        <v>0.86379499999999998</v>
+      </c>
+      <c r="U32">
+        <v>0.85680800000000001</v>
+      </c>
+      <c r="V32">
+        <v>0.82814900000000002</v>
+      </c>
+      <c r="W32">
+        <v>0.82636399999999999</v>
+      </c>
+      <c r="X32">
+        <v>0.82892399999999999</v>
+      </c>
+      <c r="Y32">
+        <v>0.82401400000000002</v>
+      </c>
+      <c r="Z32">
+        <v>0.830206</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>0.93007700000000004</v>
+      </c>
+      <c r="C33">
+        <v>0.94267400000000001</v>
+      </c>
+      <c r="D33">
+        <v>0.96214100000000002</v>
+      </c>
+      <c r="E33">
+        <v>0.93904500000000002</v>
+      </c>
+      <c r="F33">
+        <v>0.94767599999999996</v>
+      </c>
+      <c r="G33">
+        <v>0.91558799999999996</v>
+      </c>
+      <c r="H33">
+        <v>0.89100699999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.91444199999999998</v>
+      </c>
+      <c r="J33">
+        <v>0.90850900000000001</v>
+      </c>
+      <c r="K33">
+        <v>0.91352100000000003</v>
+      </c>
+      <c r="L33">
+        <v>0.87219800000000003</v>
+      </c>
+      <c r="M33">
+        <v>0.87705299999999997</v>
+      </c>
+      <c r="N33">
+        <v>0.88068599999999997</v>
+      </c>
+      <c r="O33">
+        <v>0.87334999999999996</v>
+      </c>
+      <c r="P33">
+        <v>0.87672300000000003</v>
+      </c>
+      <c r="Q33">
+        <v>0.86333099999999996</v>
+      </c>
+      <c r="R33">
+        <v>0.86373299999999997</v>
+      </c>
+      <c r="S33">
+        <v>0.85415099999999999</v>
+      </c>
+      <c r="T33">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="U33">
+        <v>0.85505900000000001</v>
+      </c>
+      <c r="V33">
+        <v>0.826461</v>
+      </c>
+      <c r="W33">
+        <v>0.82461899999999999</v>
+      </c>
+      <c r="X33">
+        <v>0.82722099999999998</v>
+      </c>
+      <c r="Y33">
+        <v>0.82247000000000003</v>
+      </c>
+      <c r="Z33">
+        <v>0.82857000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>0.92883800000000005</v>
+      </c>
+      <c r="C34">
+        <v>0.94141799999999998</v>
+      </c>
+      <c r="D34">
+        <v>0.96074300000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.93767900000000004</v>
+      </c>
+      <c r="F34">
+        <v>0.94645000000000001</v>
+      </c>
+      <c r="G34">
+        <v>0.913937</v>
+      </c>
+      <c r="H34">
+        <v>0.88948000000000005</v>
+      </c>
+      <c r="I34">
+        <v>0.91296500000000003</v>
+      </c>
+      <c r="J34">
+        <v>0.90684600000000004</v>
+      </c>
+      <c r="K34">
+        <v>0.912188</v>
+      </c>
+      <c r="L34">
+        <v>0.87058899999999995</v>
+      </c>
+      <c r="M34">
+        <v>0.87528799999999995</v>
+      </c>
+      <c r="N34">
+        <v>0.87913200000000002</v>
+      </c>
+      <c r="O34">
+        <v>0.87174300000000005</v>
+      </c>
+      <c r="P34">
+        <v>0.87507599999999996</v>
+      </c>
+      <c r="Q34">
+        <v>0.86160499999999995</v>
+      </c>
+      <c r="R34">
+        <v>0.86213300000000004</v>
+      </c>
+      <c r="S34">
+        <v>0.85253599999999996</v>
+      </c>
+      <c r="T34">
+        <v>0.86033400000000004</v>
+      </c>
+      <c r="U34">
+        <v>0.85343999999999998</v>
+      </c>
+      <c r="V34">
+        <v>0.82490200000000002</v>
+      </c>
+      <c r="W34">
+        <v>0.82300799999999996</v>
+      </c>
+      <c r="X34">
+        <v>0.82564499999999996</v>
+      </c>
+      <c r="Y34">
+        <v>0.82105300000000003</v>
+      </c>
+      <c r="Z34">
+        <v>0.82705799999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>0.927647</v>
+      </c>
+      <c r="C35">
+        <v>0.94021200000000005</v>
+      </c>
+      <c r="D35">
+        <v>0.95938999999999997</v>
+      </c>
+      <c r="E35">
+        <v>0.93634300000000004</v>
+      </c>
+      <c r="F35">
+        <v>0.945268</v>
+      </c>
+      <c r="G35">
+        <v>0.91235500000000003</v>
+      </c>
+      <c r="H35">
+        <v>0.88802999999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.91155699999999995</v>
+      </c>
+      <c r="J35">
+        <v>0.905254</v>
+      </c>
+      <c r="K35">
+        <v>0.91091299999999997</v>
+      </c>
+      <c r="L35">
+        <v>0.86907100000000004</v>
+      </c>
+      <c r="M35">
+        <v>0.87360400000000005</v>
+      </c>
+      <c r="N35">
+        <v>0.87765800000000005</v>
+      </c>
+      <c r="O35">
+        <v>0.87022200000000005</v>
+      </c>
+      <c r="P35">
+        <v>0.87352099999999999</v>
+      </c>
+      <c r="Q35">
+        <v>0.85998399999999997</v>
+      </c>
+      <c r="R35">
+        <v>0.86065000000000003</v>
+      </c>
+      <c r="S35">
+        <v>0.851051</v>
+      </c>
+      <c r="T35">
+        <v>0.858792</v>
+      </c>
+      <c r="U35">
+        <v>0.85194300000000001</v>
+      </c>
+      <c r="V35">
+        <v>0.823465</v>
+      </c>
+      <c r="W35">
+        <v>0.82152499999999995</v>
+      </c>
+      <c r="X35">
+        <v>0.824187</v>
+      </c>
+      <c r="Y35">
+        <v>0.81975299999999995</v>
+      </c>
+      <c r="Z35">
+        <v>0.82566399999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>0.92650600000000005</v>
+      </c>
+      <c r="C36">
+        <v>0.93905700000000003</v>
+      </c>
+      <c r="D36">
+        <v>0.95808499999999996</v>
+      </c>
+      <c r="E36">
+        <v>0.93504200000000004</v>
+      </c>
+      <c r="F36">
+        <v>0.94413199999999997</v>
+      </c>
+      <c r="G36">
+        <v>0.91083999999999998</v>
+      </c>
+      <c r="H36">
+        <v>0.88665700000000003</v>
+      </c>
+      <c r="I36">
+        <v>0.91021700000000005</v>
+      </c>
+      <c r="J36">
+        <v>0.90373499999999996</v>
+      </c>
+      <c r="K36">
+        <v>0.90969900000000004</v>
+      </c>
+      <c r="L36">
+        <v>0.86764399999999997</v>
+      </c>
+      <c r="M36">
+        <v>0.87200100000000003</v>
+      </c>
+      <c r="N36">
+        <v>0.87626099999999996</v>
+      </c>
+      <c r="O36">
+        <v>0.86878200000000005</v>
+      </c>
+      <c r="P36">
+        <v>0.87205900000000003</v>
+      </c>
+      <c r="Q36">
+        <v>0.858464</v>
+      </c>
+      <c r="R36">
+        <v>0.85927600000000004</v>
+      </c>
+      <c r="S36">
+        <v>0.84968699999999997</v>
+      </c>
+      <c r="T36">
+        <v>0.85736699999999999</v>
+      </c>
+      <c r="U36">
+        <v>0.85056200000000004</v>
+      </c>
+      <c r="V36">
+        <v>0.82214299999999996</v>
+      </c>
+      <c r="W36">
+        <v>0.82016100000000003</v>
+      </c>
+      <c r="X36">
+        <v>0.82284199999999996</v>
+      </c>
+      <c r="Y36">
+        <v>0.81856300000000004</v>
+      </c>
+      <c r="Z36">
+        <v>0.82438100000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>0.92541399999999996</v>
+      </c>
+      <c r="C37">
+        <v>0.93795300000000004</v>
+      </c>
+      <c r="D37">
+        <v>0.95682900000000004</v>
+      </c>
+      <c r="E37">
+        <v>0.93377699999999997</v>
+      </c>
+      <c r="F37">
+        <v>0.94304600000000005</v>
+      </c>
+      <c r="G37">
+        <v>0.90939400000000004</v>
+      </c>
+      <c r="H37">
+        <v>0.88535900000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.90894799999999998</v>
+      </c>
+      <c r="J37">
+        <v>0.90229099999999995</v>
+      </c>
+      <c r="K37">
+        <v>0.90854500000000005</v>
+      </c>
+      <c r="L37">
+        <v>0.86630499999999999</v>
+      </c>
+      <c r="M37">
+        <v>0.870479</v>
+      </c>
+      <c r="N37">
+        <v>0.87493900000000002</v>
+      </c>
+      <c r="O37">
+        <v>0.867421</v>
+      </c>
+      <c r="P37">
+        <v>0.87068599999999996</v>
+      </c>
+      <c r="Q37">
+        <v>0.85704100000000005</v>
+      </c>
+      <c r="R37">
+        <v>0.85800399999999999</v>
+      </c>
+      <c r="S37">
+        <v>0.848437</v>
+      </c>
+      <c r="T37">
+        <v>0.85605200000000004</v>
+      </c>
+      <c r="U37">
+        <v>0.84928999999999999</v>
+      </c>
+      <c r="V37">
+        <v>0.820932</v>
+      </c>
+      <c r="W37">
+        <v>0.818913</v>
+      </c>
+      <c r="X37">
+        <v>0.82160699999999998</v>
+      </c>
+      <c r="Y37">
+        <v>0.81747899999999996</v>
+      </c>
+      <c r="Z37">
+        <v>0.82320400000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>0.924373</v>
+      </c>
+      <c r="C38">
+        <v>0.93690200000000001</v>
+      </c>
+      <c r="D38">
+        <v>0.95562499999999995</v>
+      </c>
+      <c r="E38">
+        <v>0.93255200000000005</v>
+      </c>
+      <c r="F38">
+        <v>0.94200899999999999</v>
+      </c>
+      <c r="G38">
+        <v>0.90801500000000002</v>
+      </c>
+      <c r="H38">
+        <v>0.88413600000000003</v>
+      </c>
+      <c r="I38">
+        <v>0.907748</v>
+      </c>
+      <c r="J38">
+        <v>0.90092399999999995</v>
+      </c>
+      <c r="K38">
+        <v>0.90745100000000001</v>
+      </c>
+      <c r="L38">
+        <v>0.86505200000000004</v>
+      </c>
+      <c r="M38">
+        <v>0.86903600000000003</v>
+      </c>
+      <c r="N38">
+        <v>0.87369200000000002</v>
+      </c>
+      <c r="O38">
+        <v>0.86613600000000002</v>
+      </c>
+      <c r="P38">
+        <v>0.86940200000000001</v>
+      </c>
+      <c r="Q38">
+        <v>0.855711</v>
+      </c>
+      <c r="R38">
+        <v>0.85682999999999998</v>
+      </c>
+      <c r="S38">
+        <v>0.84729299999999996</v>
+      </c>
+      <c r="T38">
+        <v>0.85484300000000002</v>
+      </c>
+      <c r="U38">
+        <v>0.84812100000000001</v>
+      </c>
+      <c r="V38">
+        <v>0.81982999999999995</v>
+      </c>
+      <c r="W38">
+        <v>0.81777500000000003</v>
+      </c>
+      <c r="X38">
+        <v>0.82047999999999999</v>
+      </c>
+      <c r="Y38">
+        <v>0.81649799999999995</v>
+      </c>
+      <c r="Z38">
+        <v>0.822133</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>0.92338299999999995</v>
+      </c>
+      <c r="C39">
+        <v>0.93590200000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.95447199999999999</v>
+      </c>
+      <c r="E39">
+        <v>0.931369</v>
+      </c>
+      <c r="F39">
+        <v>0.94102300000000005</v>
+      </c>
+      <c r="G39">
+        <v>0.90670200000000001</v>
+      </c>
+      <c r="H39">
+        <v>0.88298600000000005</v>
+      </c>
+      <c r="I39">
+        <v>0.90661800000000003</v>
+      </c>
+      <c r="J39">
+        <v>0.89963300000000002</v>
+      </c>
+      <c r="K39">
+        <v>0.90641899999999997</v>
+      </c>
+      <c r="L39">
+        <v>0.86388200000000004</v>
+      </c>
+      <c r="M39">
+        <v>0.86767099999999997</v>
+      </c>
+      <c r="N39">
+        <v>0.87251699999999999</v>
+      </c>
+      <c r="O39">
+        <v>0.86492500000000005</v>
+      </c>
+      <c r="P39">
+        <v>0.86820399999999998</v>
+      </c>
+      <c r="Q39">
+        <v>0.85447200000000001</v>
+      </c>
+      <c r="R39">
+        <v>0.85574899999999998</v>
+      </c>
+      <c r="S39">
+        <v>0.84624900000000003</v>
+      </c>
+      <c r="T39">
+        <v>0.85373699999999997</v>
+      </c>
+      <c r="U39">
+        <v>0.84705299999999994</v>
+      </c>
+      <c r="V39">
+        <v>0.81883700000000004</v>
+      </c>
+      <c r="W39">
+        <v>0.816747</v>
+      </c>
+      <c r="X39">
+        <v>0.81946200000000002</v>
+      </c>
+      <c r="Y39">
+        <v>0.81561700000000004</v>
+      </c>
+      <c r="Z39">
+        <v>0.82116500000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>0.92244199999999998</v>
+      </c>
+      <c r="C40">
+        <v>0.93495399999999995</v>
+      </c>
+      <c r="D40">
+        <v>0.95337099999999997</v>
+      </c>
+      <c r="E40">
+        <v>0.93022800000000005</v>
+      </c>
+      <c r="F40">
+        <v>0.94008800000000003</v>
+      </c>
+      <c r="G40">
+        <v>0.90545399999999998</v>
+      </c>
+      <c r="H40">
+        <v>0.88190800000000003</v>
+      </c>
+      <c r="I40">
+        <v>0.905555</v>
+      </c>
+      <c r="J40">
+        <v>0.89841899999999997</v>
+      </c>
+      <c r="K40">
+        <v>0.90544599999999997</v>
+      </c>
+      <c r="L40">
+        <v>0.86279300000000003</v>
+      </c>
+      <c r="M40">
+        <v>0.86638499999999996</v>
+      </c>
+      <c r="N40">
+        <v>0.87141400000000002</v>
+      </c>
+      <c r="O40">
+        <v>0.86378699999999997</v>
+      </c>
+      <c r="P40">
+        <v>0.86709099999999995</v>
+      </c>
+      <c r="Q40">
+        <v>0.853325</v>
+      </c>
+      <c r="R40">
+        <v>0.85475800000000002</v>
+      </c>
+      <c r="S40">
+        <v>0.845302</v>
+      </c>
+      <c r="T40">
+        <v>0.85273100000000002</v>
+      </c>
+      <c r="U40">
+        <v>0.846082</v>
+      </c>
+      <c r="V40">
+        <v>0.81795099999999998</v>
+      </c>
+      <c r="W40">
+        <v>0.815828</v>
+      </c>
+      <c r="X40">
+        <v>0.818554</v>
+      </c>
+      <c r="Y40">
+        <v>0.814836</v>
+      </c>
+      <c r="Z40">
+        <v>0.82030199999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>0.92155100000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.93405800000000005</v>
+      </c>
+      <c r="D41">
+        <v>0.952322</v>
+      </c>
+      <c r="E41">
+        <v>0.92913199999999996</v>
+      </c>
+      <c r="F41">
+        <v>0.93920300000000001</v>
+      </c>
+      <c r="G41">
+        <v>0.90427100000000005</v>
+      </c>
+      <c r="H41">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="I41">
+        <v>0.90456000000000003</v>
+      </c>
+      <c r="J41">
+        <v>0.89728300000000005</v>
+      </c>
+      <c r="K41">
+        <v>0.90453399999999995</v>
+      </c>
+      <c r="L41">
+        <v>0.86178200000000005</v>
+      </c>
+      <c r="M41">
+        <v>0.86517599999999995</v>
+      </c>
+      <c r="N41">
+        <v>0.87038499999999996</v>
+      </c>
+      <c r="O41">
+        <v>0.86272099999999996</v>
+      </c>
+      <c r="P41">
+        <v>0.86606000000000005</v>
+      </c>
+      <c r="Q41">
+        <v>0.85226800000000003</v>
+      </c>
+      <c r="R41">
+        <v>0.85385599999999995</v>
+      </c>
+      <c r="S41">
+        <v>0.84444900000000001</v>
+      </c>
+      <c r="T41">
+        <v>0.85182199999999997</v>
+      </c>
+      <c r="U41">
+        <v>0.84520799999999996</v>
+      </c>
+      <c r="V41">
+        <v>0.81717300000000004</v>
+      </c>
+      <c r="W41">
+        <v>0.81501599999999996</v>
+      </c>
+      <c r="X41">
+        <v>0.81775600000000004</v>
+      </c>
+      <c r="Y41">
+        <v>0.81415499999999996</v>
+      </c>
+      <c r="Z41">
+        <v>0.81954300000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>0.92070799999999997</v>
+      </c>
+      <c r="C42">
+        <v>0.93321200000000004</v>
+      </c>
+      <c r="D42">
+        <v>0.95132300000000003</v>
+      </c>
+      <c r="E42">
+        <v>0.92808000000000002</v>
+      </c>
+      <c r="F42">
+        <v>0.93837000000000004</v>
+      </c>
+      <c r="G42">
+        <v>0.90315199999999995</v>
+      </c>
+      <c r="H42">
+        <v>0.87995900000000005</v>
+      </c>
+      <c r="I42">
+        <v>0.90363000000000004</v>
+      </c>
+      <c r="J42">
+        <v>0.89622299999999999</v>
+      </c>
+      <c r="K42">
+        <v>0.90368000000000004</v>
+      </c>
+      <c r="L42">
+        <v>0.86084799999999995</v>
+      </c>
+      <c r="M42">
+        <v>0.86404300000000001</v>
+      </c>
+      <c r="N42">
+        <v>0.86942799999999998</v>
+      </c>
+      <c r="O42">
+        <v>0.86172700000000002</v>
+      </c>
+      <c r="P42">
+        <v>0.86510900000000002</v>
+      </c>
+      <c r="Q42">
+        <v>0.85130300000000003</v>
+      </c>
+      <c r="R42">
+        <v>0.85304100000000005</v>
+      </c>
+      <c r="S42">
+        <v>0.84368600000000005</v>
+      </c>
+      <c r="T42">
+        <v>0.85101000000000004</v>
+      </c>
+      <c r="U42">
+        <v>0.84442700000000004</v>
+      </c>
+      <c r="V42">
+        <v>0.81650400000000001</v>
+      </c>
+      <c r="W42">
+        <v>0.81431299999999995</v>
+      </c>
+      <c r="X42">
+        <v>0.81706900000000005</v>
+      </c>
+      <c r="Y42">
+        <v>0.81357400000000002</v>
+      </c>
+      <c r="Z42">
+        <v>0.81888899999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0.91991400000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.93241700000000005</v>
+      </c>
+      <c r="D43">
+        <v>0.95037499999999997</v>
+      </c>
+      <c r="E43">
+        <v>0.92707499999999998</v>
+      </c>
+      <c r="F43">
+        <v>0.93758799999999998</v>
+      </c>
+      <c r="G43">
+        <v>0.90209499999999998</v>
+      </c>
+      <c r="H43">
+        <v>0.87908500000000001</v>
+      </c>
+      <c r="I43">
+        <v>0.90276599999999996</v>
+      </c>
+      <c r="J43">
+        <v>0.89523799999999998</v>
+      </c>
+      <c r="K43">
+        <v>0.90288599999999997</v>
+      </c>
+      <c r="L43">
+        <v>0.85998799999999997</v>
+      </c>
+      <c r="M43">
+        <v>0.86298799999999998</v>
+      </c>
+      <c r="N43">
+        <v>0.86854399999999998</v>
+      </c>
+      <c r="O43">
+        <v>0.86080500000000004</v>
+      </c>
+      <c r="P43">
+        <v>0.86423799999999995</v>
+      </c>
+      <c r="Q43">
+        <v>0.85043000000000002</v>
+      </c>
+      <c r="R43">
+        <v>0.85231100000000004</v>
+      </c>
+      <c r="S43">
+        <v>0.84301300000000001</v>
+      </c>
+      <c r="T43">
+        <v>0.85029299999999997</v>
+      </c>
+      <c r="U43">
+        <v>0.84374000000000005</v>
+      </c>
+      <c r="V43">
+        <v>0.81594199999999995</v>
+      </c>
+      <c r="W43">
+        <v>0.81371899999999997</v>
+      </c>
+      <c r="X43">
+        <v>0.81649400000000005</v>
+      </c>
+      <c r="Y43">
+        <v>0.81309100000000001</v>
+      </c>
+      <c r="Z43">
+        <v>0.81833699999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>0.91916699999999996</v>
+      </c>
+      <c r="C44">
+        <v>0.93167100000000003</v>
+      </c>
+      <c r="D44">
+        <v>0.94947599999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.92611600000000005</v>
+      </c>
+      <c r="F44">
+        <v>0.93685799999999997</v>
+      </c>
+      <c r="G44">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="H44">
+        <v>0.87827500000000003</v>
+      </c>
+      <c r="I44">
+        <v>0.90196399999999999</v>
+      </c>
+      <c r="J44">
+        <v>0.89432900000000004</v>
+      </c>
+      <c r="K44">
+        <v>0.90214799999999995</v>
+      </c>
+      <c r="L44">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="M44">
+        <v>0.86201000000000005</v>
+      </c>
+      <c r="N44">
+        <v>0.86773400000000001</v>
+      </c>
+      <c r="O44">
+        <v>0.859954</v>
+      </c>
+      <c r="P44">
+        <v>0.86344299999999996</v>
+      </c>
+      <c r="Q44">
+        <v>0.84964899999999999</v>
+      </c>
+      <c r="R44">
+        <v>0.85166699999999995</v>
+      </c>
+      <c r="S44">
+        <v>0.84242700000000004</v>
+      </c>
+      <c r="T44">
+        <v>0.84966900000000001</v>
+      </c>
+      <c r="U44">
+        <v>0.84314500000000003</v>
+      </c>
+      <c r="V44">
+        <v>0.81548799999999999</v>
+      </c>
+      <c r="W44">
+        <v>0.81323500000000004</v>
+      </c>
+      <c r="X44">
+        <v>0.81603000000000003</v>
+      </c>
+      <c r="Y44">
+        <v>0.81270699999999996</v>
+      </c>
+      <c r="Z44">
+        <v>0.81788899999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>0.91846799999999995</v>
+      </c>
+      <c r="C45">
+        <v>0.93097600000000003</v>
+      </c>
+      <c r="D45">
+        <v>0.94862500000000005</v>
+      </c>
+      <c r="E45">
+        <v>0.92520400000000003</v>
+      </c>
+      <c r="F45">
+        <v>0.93617899999999998</v>
+      </c>
+      <c r="G45">
+        <v>0.90016600000000002</v>
+      </c>
+      <c r="H45">
+        <v>0.87753000000000003</v>
+      </c>
+      <c r="I45">
+        <v>0.90122500000000005</v>
+      </c>
+      <c r="J45">
+        <v>0.89349199999999995</v>
+      </c>
+      <c r="K45">
+        <v>0.90146800000000005</v>
+      </c>
+      <c r="L45">
+        <v>0.85848400000000002</v>
+      </c>
+      <c r="M45">
+        <v>0.86110699999999996</v>
+      </c>
+      <c r="N45">
+        <v>0.86699700000000002</v>
+      </c>
+      <c r="O45">
+        <v>0.85917500000000002</v>
+      </c>
+      <c r="P45">
+        <v>0.86272499999999996</v>
+      </c>
+      <c r="Q45">
+        <v>0.84896099999999997</v>
+      </c>
+      <c r="R45">
+        <v>0.85110799999999998</v>
+      </c>
+      <c r="S45">
+        <v>0.84192699999999998</v>
+      </c>
+      <c r="T45">
+        <v>0.84913899999999998</v>
+      </c>
+      <c r="U45">
+        <v>0.842642</v>
+      </c>
+      <c r="V45">
+        <v>0.81513800000000003</v>
+      </c>
+      <c r="W45">
+        <v>0.81285799999999997</v>
+      </c>
+      <c r="X45">
+        <v>0.81567500000000004</v>
+      </c>
+      <c r="Y45">
+        <v>0.812419</v>
+      </c>
+      <c r="Z45">
+        <v>0.81754199999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>0.91781500000000005</v>
+      </c>
+      <c r="C46">
+        <v>0.93032899999999996</v>
+      </c>
+      <c r="D46">
+        <v>0.94782299999999997</v>
+      </c>
+      <c r="E46">
+        <v>0.92434099999999997</v>
+      </c>
+      <c r="F46">
+        <v>0.93555200000000005</v>
+      </c>
+      <c r="G46">
+        <v>0.89929199999999998</v>
+      </c>
+      <c r="H46">
+        <v>0.87684600000000001</v>
+      </c>
+      <c r="I46">
+        <v>0.90054599999999996</v>
+      </c>
+      <c r="J46">
+        <v>0.89272799999999997</v>
+      </c>
+      <c r="K46">
+        <v>0.90084200000000003</v>
+      </c>
+      <c r="L46">
+        <v>0.85783699999999996</v>
+      </c>
+      <c r="M46">
+        <v>0.86028000000000004</v>
+      </c>
+      <c r="N46">
+        <v>0.86633300000000002</v>
+      </c>
+      <c r="O46">
+        <v>0.85846599999999995</v>
+      </c>
+      <c r="P46">
+        <v>0.86207999999999996</v>
+      </c>
+      <c r="Q46">
+        <v>0.84836500000000004</v>
+      </c>
+      <c r="R46">
+        <v>0.85063200000000005</v>
+      </c>
+      <c r="S46">
+        <v>0.84151200000000004</v>
+      </c>
+      <c r="T46">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="U46">
+        <v>0.84222799999999998</v>
+      </c>
+      <c r="V46">
+        <v>0.81489100000000003</v>
+      </c>
+      <c r="W46">
+        <v>0.81258799999999998</v>
+      </c>
+      <c r="X46">
+        <v>0.81542599999999998</v>
+      </c>
+      <c r="Y46">
+        <v>0.812226</v>
+      </c>
+      <c r="Z46">
+        <v>0.81729300000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>0.91720900000000005</v>
+      </c>
+      <c r="C47">
+        <v>0.92973099999999997</v>
+      </c>
+      <c r="D47">
+        <v>0.94706699999999999</v>
+      </c>
+      <c r="E47">
+        <v>0.92352599999999996</v>
+      </c>
+      <c r="F47">
+        <v>0.93497600000000003</v>
+      </c>
+      <c r="G47">
+        <v>0.89847900000000003</v>
+      </c>
+      <c r="H47">
+        <v>0.87622299999999997</v>
+      </c>
+      <c r="I47">
+        <v>0.89992700000000003</v>
+      </c>
+      <c r="J47">
+        <v>0.89203399999999999</v>
+      </c>
+      <c r="K47">
+        <v>0.90027100000000004</v>
+      </c>
+      <c r="L47">
+        <v>0.85725700000000005</v>
+      </c>
+      <c r="M47">
+        <v>0.85952899999999999</v>
+      </c>
+      <c r="N47">
+        <v>0.86574099999999998</v>
+      </c>
+      <c r="O47">
+        <v>0.85782899999999995</v>
+      </c>
+      <c r="P47">
+        <v>0.86150700000000002</v>
+      </c>
+      <c r="Q47">
+        <v>0.84786099999999998</v>
+      </c>
+      <c r="R47">
+        <v>0.85023899999999997</v>
+      </c>
+      <c r="S47">
+        <v>0.84117900000000001</v>
+      </c>
+      <c r="T47">
+        <v>0.84835000000000005</v>
+      </c>
+      <c r="U47">
+        <v>0.84190200000000004</v>
+      </c>
+      <c r="V47">
+        <v>0.81474400000000002</v>
+      </c>
+      <c r="W47">
+        <v>0.81242199999999998</v>
+      </c>
+      <c r="X47">
+        <v>0.81528</v>
+      </c>
+      <c r="Y47">
+        <v>0.81212499999999999</v>
+      </c>
+      <c r="Z47">
+        <v>0.81713899999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>0.91664800000000002</v>
+      </c>
+      <c r="C48">
+        <v>0.92918100000000003</v>
+      </c>
+      <c r="D48">
+        <v>0.94635800000000003</v>
+      </c>
+      <c r="E48">
+        <v>0.922759</v>
+      </c>
+      <c r="F48">
+        <v>0.93445100000000003</v>
+      </c>
+      <c r="G48">
+        <v>0.897725</v>
+      </c>
+      <c r="H48">
+        <v>0.87565899999999997</v>
+      </c>
+      <c r="I48">
+        <v>0.899366</v>
+      </c>
+      <c r="J48">
+        <v>0.89140799999999998</v>
+      </c>
+      <c r="K48">
+        <v>0.899752</v>
+      </c>
+      <c r="L48">
+        <v>0.85674300000000003</v>
+      </c>
+      <c r="M48">
+        <v>0.85885199999999995</v>
+      </c>
+      <c r="N48">
+        <v>0.86521999999999999</v>
+      </c>
+      <c r="O48">
+        <v>0.85726199999999997</v>
+      </c>
+      <c r="P48">
+        <v>0.86100500000000002</v>
+      </c>
+      <c r="Q48">
+        <v>0.84744600000000003</v>
+      </c>
+      <c r="R48">
+        <v>0.84992800000000002</v>
+      </c>
+      <c r="S48">
+        <v>0.84092699999999998</v>
+      </c>
+      <c r="T48">
+        <v>0.84808700000000004</v>
+      </c>
+      <c r="U48">
+        <v>0.84166300000000005</v>
+      </c>
+      <c r="V48">
+        <v>0.814693</v>
+      </c>
+      <c r="W48">
+        <v>0.81235599999999997</v>
+      </c>
+      <c r="X48">
+        <v>0.81523000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0.81211299999999997</v>
+      </c>
+      <c r="Z48">
+        <v>0.81707700000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>0.91613100000000003</v>
+      </c>
+      <c r="C49">
+        <v>0.928678</v>
+      </c>
+      <c r="D49">
+        <v>0.94569499999999995</v>
+      </c>
+      <c r="E49">
+        <v>0.922041</v>
+      </c>
+      <c r="F49">
+        <v>0.93397600000000003</v>
+      </c>
+      <c r="G49">
+        <v>0.89702899999999997</v>
+      </c>
+      <c r="H49">
+        <v>0.87515299999999996</v>
+      </c>
+      <c r="I49">
+        <v>0.89885999999999999</v>
+      </c>
+      <c r="J49">
+        <v>0.890849</v>
+      </c>
+      <c r="K49">
+        <v>0.899285</v>
+      </c>
+      <c r="L49">
+        <v>0.85629299999999997</v>
+      </c>
+      <c r="M49">
+        <v>0.85824699999999998</v>
+      </c>
+      <c r="N49">
+        <v>0.86476900000000001</v>
+      </c>
+      <c r="O49">
+        <v>0.85676399999999997</v>
+      </c>
+      <c r="P49">
+        <v>0.860572</v>
+      </c>
+      <c r="Q49">
+        <v>0.84711899999999996</v>
+      </c>
+      <c r="R49">
+        <v>0.84969700000000004</v>
+      </c>
+      <c r="S49">
+        <v>0.84075299999999997</v>
+      </c>
+      <c r="T49">
+        <v>0.847908</v>
+      </c>
+      <c r="U49">
+        <v>0.84150700000000001</v>
+      </c>
+      <c r="V49">
+        <v>0.81473200000000001</v>
+      </c>
+      <c r="W49">
+        <v>0.81238500000000002</v>
+      </c>
+      <c r="X49">
+        <v>0.815272</v>
+      </c>
+      <c r="Y49">
+        <v>0.81218599999999996</v>
+      </c>
+      <c r="Z49">
+        <v>0.81710199999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>0.91565799999999997</v>
+      </c>
+      <c r="C50">
+        <v>0.92822099999999996</v>
+      </c>
+      <c r="D50">
+        <v>0.94507600000000003</v>
+      </c>
+      <c r="E50">
+        <v>0.92137199999999997</v>
+      </c>
+      <c r="F50">
+        <v>0.93354999999999999</v>
+      </c>
+      <c r="G50">
+        <v>0.89639000000000002</v>
+      </c>
+      <c r="H50">
+        <v>0.87470199999999998</v>
+      </c>
+      <c r="I50">
+        <v>0.89840900000000001</v>
+      </c>
+      <c r="J50">
+        <v>0.89035299999999995</v>
+      </c>
+      <c r="K50">
+        <v>0.89886699999999997</v>
+      </c>
+      <c r="L50">
+        <v>0.85590500000000003</v>
+      </c>
+      <c r="M50">
+        <v>0.85771399999999998</v>
+      </c>
+      <c r="N50">
+        <v>0.86438599999999999</v>
+      </c>
+      <c r="O50">
+        <v>0.85633400000000004</v>
+      </c>
+      <c r="P50">
+        <v>0.860205</v>
+      </c>
+      <c r="Q50">
+        <v>0.84687699999999999</v>
+      </c>
+      <c r="R50">
+        <v>0.84954399999999997</v>
+      </c>
+      <c r="S50">
+        <v>0.84065400000000001</v>
+      </c>
+      <c r="T50">
+        <v>0.84781099999999998</v>
+      </c>
+      <c r="U50">
+        <v>0.84143199999999996</v>
+      </c>
+      <c r="V50">
+        <v>0.81485600000000002</v>
+      </c>
+      <c r="W50">
+        <v>0.812504</v>
+      </c>
+      <c r="X50">
+        <v>0.81539799999999996</v>
+      </c>
+      <c r="Y50">
+        <v>0.812338</v>
+      </c>
+      <c r="Z50">
+        <v>0.81720800000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>0.91522800000000004</v>
+      </c>
+      <c r="C51">
+        <v>0.92780899999999999</v>
+      </c>
+      <c r="D51">
+        <v>0.94450100000000003</v>
+      </c>
+      <c r="E51">
+        <v>0.92074900000000004</v>
+      </c>
+      <c r="F51">
+        <v>0.933172</v>
+      </c>
+      <c r="G51">
+        <v>0.89580899999999997</v>
+      </c>
+      <c r="H51">
+        <v>0.87430600000000003</v>
+      </c>
+      <c r="I51">
+        <v>0.89800999999999997</v>
+      </c>
+      <c r="J51">
+        <v>0.88991900000000002</v>
+      </c>
+      <c r="K51">
+        <v>0.89849800000000002</v>
+      </c>
+      <c r="L51">
+        <v>0.85557799999999995</v>
+      </c>
+      <c r="M51">
+        <v>0.85724900000000004</v>
+      </c>
+      <c r="N51">
+        <v>0.86406899999999998</v>
+      </c>
+      <c r="O51">
+        <v>0.85597000000000001</v>
+      </c>
+      <c r="P51">
+        <v>0.85990299999999997</v>
+      </c>
+      <c r="Q51">
+        <v>0.84671799999999997</v>
+      </c>
+      <c r="R51">
+        <v>0.84946600000000005</v>
+      </c>
+      <c r="S51">
+        <v>0.84062700000000001</v>
+      </c>
+      <c r="T51">
+        <v>0.84779199999999999</v>
+      </c>
+      <c r="U51">
+        <v>0.84143400000000002</v>
+      </c>
+      <c r="V51">
+        <v>0.81505899999999998</v>
+      </c>
+      <c r="W51">
+        <v>0.81270600000000004</v>
+      </c>
+      <c r="X51">
+        <v>0.81560299999999997</v>
+      </c>
+      <c r="Y51">
+        <v>0.81256300000000004</v>
+      </c>
+      <c r="Z51">
+        <v>0.81738900000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>0.91483899999999996</v>
+      </c>
+      <c r="C52">
+        <v>0.92744099999999996</v>
+      </c>
+      <c r="D52">
+        <v>0.94396800000000003</v>
+      </c>
+      <c r="E52">
+        <v>0.92017400000000005</v>
+      </c>
+      <c r="F52">
+        <v>0.93284</v>
+      </c>
+      <c r="G52">
+        <v>0.89528200000000002</v>
+      </c>
+      <c r="H52">
+        <v>0.87396200000000002</v>
+      </c>
+      <c r="I52">
+        <v>0.89766199999999996</v>
+      </c>
+      <c r="J52">
+        <v>0.889544</v>
+      </c>
+      <c r="K52">
+        <v>0.89817599999999997</v>
+      </c>
+      <c r="L52">
+        <v>0.85530799999999996</v>
+      </c>
+      <c r="M52">
+        <v>0.85685199999999995</v>
+      </c>
+      <c r="N52">
+        <v>0.86381600000000003</v>
+      </c>
+      <c r="O52">
+        <v>0.85567000000000004</v>
+      </c>
+      <c r="P52">
+        <v>0.85966200000000004</v>
+      </c>
+      <c r="Q52">
+        <v>0.84663699999999997</v>
+      </c>
+      <c r="R52">
+        <v>0.84945999999999999</v>
+      </c>
+      <c r="S52">
+        <v>0.84066799999999997</v>
+      </c>
+      <c r="T52">
+        <v>0.84784599999999999</v>
+      </c>
+      <c r="U52">
+        <v>0.84150899999999995</v>
+      </c>
+      <c r="V52">
+        <v>0.815334</v>
+      </c>
+      <c r="W52">
+        <v>0.81298300000000001</v>
+      </c>
+      <c r="X52">
+        <v>0.81587799999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0.81285600000000002</v>
+      </c>
+      <c r="Z52">
+        <v>0.81764000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>0.914489</v>
+      </c>
+      <c r="C53">
+        <v>0.92711399999999999</v>
+      </c>
+      <c r="D53">
+        <v>0.94347800000000004</v>
+      </c>
+      <c r="E53">
+        <v>0.91964400000000002</v>
+      </c>
+      <c r="F53">
+        <v>0.93255200000000005</v>
+      </c>
+      <c r="G53">
+        <v>0.89480999999999999</v>
+      </c>
+      <c r="H53">
+        <v>0.87366900000000003</v>
+      </c>
+      <c r="I53">
+        <v>0.89736099999999996</v>
+      </c>
+      <c r="J53">
+        <v>0.88922599999999996</v>
+      </c>
+      <c r="K53">
+        <v>0.897899</v>
+      </c>
+      <c r="L53">
+        <v>0.85509500000000005</v>
+      </c>
+      <c r="M53">
+        <v>0.856518</v>
+      </c>
+      <c r="N53">
+        <v>0.86362300000000003</v>
+      </c>
+      <c r="O53">
+        <v>0.85543100000000005</v>
+      </c>
+      <c r="P53">
+        <v>0.85948100000000005</v>
+      </c>
+      <c r="Q53">
+        <v>0.84663100000000002</v>
+      </c>
+      <c r="R53">
+        <v>0.84952300000000003</v>
+      </c>
+      <c r="S53">
+        <v>0.84077400000000002</v>
+      </c>
+      <c r="T53">
+        <v>0.84797100000000003</v>
+      </c>
+      <c r="U53">
+        <v>0.84165299999999998</v>
+      </c>
+      <c r="V53">
+        <v>0.81567500000000004</v>
+      </c>
+      <c r="W53">
+        <v>0.81333</v>
+      </c>
+      <c r="X53">
+        <v>0.81621600000000005</v>
+      </c>
+      <c r="Y53">
+        <v>0.81320999999999999</v>
+      </c>
+      <c r="Z53">
+        <v>0.81795399999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C62" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.914489</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.89480999999999999</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.85509500000000005</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.84663100000000002</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.814693</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.92711399999999999</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.87366900000000003</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.856518</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.84945999999999999</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.81235599999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.94347800000000004</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.89736099999999996</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.86362300000000003</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.84062700000000001</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.81523000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.91964400000000002</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.88922599999999996</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.85543100000000005</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0.84779199999999999</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.81211299999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.93255200000000005</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.897899</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.85948100000000005</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.84143199999999996</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0.81707700000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2">
+        <f>AVERAGE(C63:C67)</f>
+        <v>0.92745540000000004</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" ref="D68:G68" si="0">AVERAGE(D63:D67)</f>
+        <v>0.89059299999999997</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="0"/>
+        <v>0.85802960000000006</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84518839999999995</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81429380000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="2">
+        <f>STDEV(C63:C67)</f>
+        <v>1.1313278649445544E-2</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" ref="D69:G69" si="1">STDEV(D63:D67)</f>
+        <v>1.0065498174457123E-2</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="1"/>
+        <v>3.57219187614551E-3</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="1"/>
+        <v>3.937743808324767E-3</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0792420974961381E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:B53">
+    <cfRule type="top10" dxfId="24" priority="50" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C53">
+    <cfRule type="top10" dxfId="23" priority="49" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D53">
+    <cfRule type="top10" dxfId="22" priority="48" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E53">
+    <cfRule type="top10" dxfId="21" priority="47" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F53">
+    <cfRule type="top10" dxfId="20" priority="46" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G53">
+    <cfRule type="top10" dxfId="19" priority="45" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H53">
+    <cfRule type="top10" dxfId="18" priority="44" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I53">
+    <cfRule type="top10" dxfId="17" priority="43" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J53">
+    <cfRule type="top10" dxfId="16" priority="42" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K53">
+    <cfRule type="top10" dxfId="15" priority="41" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L53">
+    <cfRule type="top10" dxfId="14" priority="40" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M53">
+    <cfRule type="top10" dxfId="13" priority="39" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N53">
+    <cfRule type="top10" dxfId="12" priority="38" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O53">
+    <cfRule type="top10" dxfId="11" priority="37" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P53">
+    <cfRule type="top10" dxfId="10" priority="36" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q53">
+    <cfRule type="top10" dxfId="9" priority="35" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R53">
+    <cfRule type="top10" dxfId="8" priority="34" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S53">
+    <cfRule type="top10" dxfId="7" priority="33" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T53">
+    <cfRule type="top10" dxfId="6" priority="32" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3:U53">
+    <cfRule type="top10" dxfId="5" priority="31" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V53">
+    <cfRule type="top10" dxfId="4" priority="30" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3:W53">
+    <cfRule type="top10" dxfId="3" priority="29" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X53">
+    <cfRule type="top10" dxfId="2" priority="28" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:Y53">
+    <cfRule type="top10" dxfId="1" priority="27" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:Z53">
+    <cfRule type="top10" dxfId="0" priority="26" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/experiment/main.xlsx
+++ b/experiment/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="msre" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>ml-1m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
   </si>
   <si>
     <t>avg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netflix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -255,7 +251,1507 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="190">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -934,64 +2430,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F8:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="8" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
       <c r="M8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
         <v>8</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>9</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>10</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>12</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>13</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>14</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>15</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>16</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>17</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>18</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>21</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="6:27" x14ac:dyDescent="0.2">
@@ -1007,9 +2502,6 @@
       <c r="I9" t="s">
         <v>2</v>
       </c>
-      <c r="J9" t="s">
-        <v>6</v>
-      </c>
       <c r="M9">
         <v>1.115462</v>
       </c>
@@ -1026,19 +2518,34 @@
         <v>1.1196630000000001</v>
       </c>
       <c r="R9">
-        <v>1.060395</v>
+        <v>1.0604960000000001</v>
       </c>
       <c r="S9">
-        <v>1.0609960000000001</v>
+        <v>1.061088</v>
       </c>
       <c r="T9">
         <v>1.059661</v>
       </c>
       <c r="U9">
-        <v>1.060419</v>
+        <v>1.0605709999999999</v>
       </c>
       <c r="V9">
-        <v>1.0604979999999999</v>
+        <v>1.060527</v>
+      </c>
+      <c r="W9">
+        <v>1.0522940000000001</v>
+      </c>
+      <c r="X9">
+        <v>1.0523659999999999</v>
+      </c>
+      <c r="Y9">
+        <v>1.052508</v>
+      </c>
+      <c r="Z9">
+        <v>1.0512159999999999</v>
+      </c>
+      <c r="AA9">
+        <v>1.052146</v>
       </c>
     </row>
     <row r="10" spans="6:27" x14ac:dyDescent="0.2">
@@ -1049,10 +2556,11 @@
         <v>0.83561300000000005</v>
       </c>
       <c r="H10" s="2">
-        <v>0.78235200000000005</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+        <v>0.77422899999999995</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.77493599999999996</v>
+      </c>
       <c r="M10">
         <v>0.92482900000000001</v>
       </c>
@@ -1069,19 +2577,34 @@
         <v>0.926203</v>
       </c>
       <c r="R10">
-        <v>0.880382</v>
+        <v>0.88663099999999995</v>
       </c>
       <c r="S10">
-        <v>0.87957099999999999</v>
+        <v>0.88527299999999998</v>
       </c>
       <c r="T10">
-        <v>0.87963599999999997</v>
+        <v>0.88514499999999996</v>
       </c>
       <c r="U10">
-        <v>0.88052200000000003</v>
+        <v>0.88488999999999995</v>
       </c>
       <c r="V10">
-        <v>0.87895999999999996</v>
+        <v>0.88568999999999998</v>
+      </c>
+      <c r="W10">
+        <v>0.85802</v>
+      </c>
+      <c r="X10">
+        <v>0.85791300000000004</v>
+      </c>
+      <c r="Y10">
+        <v>0.86232500000000001</v>
+      </c>
+      <c r="Z10">
+        <v>0.85589499999999996</v>
+      </c>
+      <c r="AA10">
+        <v>0.85612600000000005</v>
       </c>
     </row>
     <row r="11" spans="6:27" x14ac:dyDescent="0.2">
@@ -1092,10 +2615,11 @@
         <v>0.83404199999999995</v>
       </c>
       <c r="H11" s="2">
-        <v>0.78138200000000002</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+        <v>0.772976</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.77503</v>
+      </c>
       <c r="M11">
         <v>0.91609499999999999</v>
       </c>
@@ -1112,19 +2636,34 @@
         <v>0.91694699999999996</v>
       </c>
       <c r="R11">
-        <v>0.87110699999999996</v>
+        <v>0.87760099999999996</v>
       </c>
       <c r="S11">
-        <v>0.87009899999999996</v>
+        <v>0.87619199999999997</v>
       </c>
       <c r="T11">
-        <v>0.87033300000000002</v>
+        <v>0.87609800000000004</v>
       </c>
       <c r="U11">
-        <v>0.87120500000000001</v>
+        <v>0.87561800000000001</v>
       </c>
       <c r="V11">
-        <v>0.86958500000000005</v>
+        <v>0.87653999999999999</v>
+      </c>
+      <c r="W11">
+        <v>0.83536100000000002</v>
+      </c>
+      <c r="X11">
+        <v>0.83502200000000004</v>
+      </c>
+      <c r="Y11">
+        <v>0.83969700000000003</v>
+      </c>
+      <c r="Z11">
+        <v>0.83335999999999999</v>
+      </c>
+      <c r="AA11">
+        <v>0.83465400000000001</v>
       </c>
     </row>
     <row r="12" spans="6:27" x14ac:dyDescent="0.2">
@@ -1135,10 +2674,11 @@
         <v>0.83663699999999996</v>
       </c>
       <c r="H12" s="2">
-        <v>0.78183800000000003</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+        <v>0.77280800000000005</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.77737800000000001</v>
+      </c>
       <c r="M12">
         <v>0.91317499999999996</v>
       </c>
@@ -1155,19 +2695,34 @@
         <v>0.913609</v>
       </c>
       <c r="R12">
-        <v>0.85854600000000003</v>
+        <v>0.87287300000000001</v>
       </c>
       <c r="S12">
-        <v>0.85764099999999999</v>
+        <v>0.87145399999999995</v>
       </c>
       <c r="T12">
-        <v>0.85801899999999998</v>
+        <v>0.87132600000000004</v>
       </c>
       <c r="U12">
-        <v>0.85883600000000004</v>
+        <v>0.87081699999999995</v>
       </c>
       <c r="V12">
-        <v>0.85713399999999995</v>
+        <v>0.87180899999999995</v>
+      </c>
+      <c r="W12">
+        <v>0.82219699999999996</v>
+      </c>
+      <c r="X12">
+        <v>0.82213800000000004</v>
+      </c>
+      <c r="Y12">
+        <v>0.82577100000000003</v>
+      </c>
+      <c r="Z12">
+        <v>0.82042499999999996</v>
+      </c>
+      <c r="AA12">
+        <v>0.82144899999999998</v>
       </c>
     </row>
     <row r="13" spans="6:27" x14ac:dyDescent="0.2">
@@ -1178,10 +2733,11 @@
         <v>0.83408499999999997</v>
       </c>
       <c r="H13" s="2">
-        <v>0.782443</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+        <v>0.77378899999999995</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.77405400000000002</v>
+      </c>
       <c r="M13">
         <v>0.91175300000000004</v>
       </c>
@@ -1198,19 +2754,34 @@
         <v>0.91189200000000004</v>
       </c>
       <c r="R13">
-        <v>0.84751299999999996</v>
+        <v>0.86653800000000003</v>
       </c>
       <c r="S13">
-        <v>0.84656699999999996</v>
+        <v>0.86518600000000001</v>
       </c>
       <c r="T13">
-        <v>0.847024</v>
+        <v>0.86499700000000002</v>
       </c>
       <c r="U13">
-        <v>0.84750800000000004</v>
+        <v>0.86451500000000003</v>
       </c>
       <c r="V13">
-        <v>0.846306</v>
+        <v>0.865448</v>
+      </c>
+      <c r="W13">
+        <v>0.81355200000000005</v>
+      </c>
+      <c r="X13">
+        <v>0.81365399999999999</v>
+      </c>
+      <c r="Y13">
+        <v>0.81697799999999998</v>
+      </c>
+      <c r="Z13">
+        <v>0.81188899999999997</v>
+      </c>
+      <c r="AA13">
+        <v>0.81289400000000001</v>
       </c>
     </row>
     <row r="14" spans="6:27" x14ac:dyDescent="0.2">
@@ -1221,10 +2792,11 @@
         <v>0.83704699999999999</v>
       </c>
       <c r="H14" s="2">
-        <v>0.78204899999999999</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+        <v>0.77612199999999998</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.77502400000000005</v>
+      </c>
       <c r="M14">
         <v>0.91071199999999997</v>
       </c>
@@ -1241,19 +2813,34 @@
         <v>0.91064999999999996</v>
       </c>
       <c r="R14">
-        <v>0.83733599999999997</v>
+        <v>0.85904800000000003</v>
       </c>
       <c r="S14">
-        <v>0.83637099999999998</v>
+        <v>0.85772199999999998</v>
       </c>
       <c r="T14">
-        <v>0.83684899999999995</v>
+        <v>0.85763699999999998</v>
       </c>
       <c r="U14">
-        <v>0.83710899999999999</v>
+        <v>0.85701499999999997</v>
       </c>
       <c r="V14">
-        <v>0.83630499999999997</v>
+        <v>0.85806800000000005</v>
+      </c>
+      <c r="W14">
+        <v>0.80627000000000004</v>
+      </c>
+      <c r="X14">
+        <v>0.80636600000000003</v>
+      </c>
+      <c r="Y14">
+        <v>0.80991000000000002</v>
+      </c>
+      <c r="Z14">
+        <v>0.80457599999999996</v>
+      </c>
+      <c r="AA14">
+        <v>0.80569800000000003</v>
       </c>
     </row>
     <row r="15" spans="6:27" x14ac:dyDescent="0.2">
@@ -1266,10 +2853,12 @@
       </c>
       <c r="H15" s="3">
         <f>AVERAGE(H10:H14)</f>
-        <v>0.78201280000000006</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+        <v>0.77398479999999992</v>
+      </c>
+      <c r="I15" s="3">
+        <f>AVERAGE(I10:I14)</f>
+        <v>0.7752844000000001</v>
+      </c>
       <c r="M15">
         <v>0.90943200000000002</v>
       </c>
@@ -1286,19 +2875,34 @@
         <v>0.90923699999999996</v>
       </c>
       <c r="R15">
-        <v>0.82755400000000001</v>
+        <v>0.85337200000000002</v>
       </c>
       <c r="S15">
-        <v>0.82652099999999995</v>
+        <v>0.85202999999999995</v>
       </c>
       <c r="T15">
-        <v>0.82706900000000005</v>
+        <v>0.85201099999999996</v>
       </c>
       <c r="U15">
-        <v>0.82714799999999999</v>
+        <v>0.85127200000000003</v>
       </c>
       <c r="V15">
-        <v>0.82670299999999997</v>
+        <v>0.85266200000000003</v>
+      </c>
+      <c r="W15">
+        <v>0.79932899999999996</v>
+      </c>
+      <c r="X15">
+        <v>0.79953300000000005</v>
+      </c>
+      <c r="Y15">
+        <v>0.80326500000000001</v>
+      </c>
+      <c r="Z15">
+        <v>0.79771300000000001</v>
+      </c>
+      <c r="AA15">
+        <v>0.79872100000000001</v>
       </c>
     </row>
     <row r="16" spans="6:27" x14ac:dyDescent="0.2">
@@ -1311,10 +2915,12 @@
       </c>
       <c r="H16" s="3">
         <f>STDEV(H10:H14)</f>
-        <v>4.271717453203083E-4</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+        <v>1.3292978221602365E-3</v>
+      </c>
+      <c r="I16" s="3">
+        <f>STDEV(I10:I14)</f>
+        <v>1.2400559664789343E-3</v>
+      </c>
       <c r="M16">
         <v>0.90740100000000001</v>
       </c>
@@ -1331,22 +2937,37 @@
         <v>0.90712400000000004</v>
       </c>
       <c r="R16">
-        <v>0.81890499999999999</v>
+        <v>0.84872400000000003</v>
       </c>
       <c r="S16">
-        <v>0.81781999999999999</v>
+        <v>0.84738000000000002</v>
       </c>
       <c r="T16">
-        <v>0.81839099999999998</v>
+        <v>0.84738899999999995</v>
       </c>
       <c r="U16">
-        <v>0.818438</v>
+        <v>0.846553</v>
       </c>
       <c r="V16">
-        <v>0.81825099999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.84833199999999997</v>
+      </c>
+      <c r="W16">
+        <v>0.79339000000000004</v>
+      </c>
+      <c r="X16">
+        <v>0.79382699999999995</v>
+      </c>
+      <c r="Y16">
+        <v>0.79750500000000002</v>
+      </c>
+      <c r="Z16">
+        <v>0.79211699999999996</v>
+      </c>
+      <c r="AA16">
+        <v>0.79270099999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M17">
         <v>0.90450200000000003</v>
       </c>
@@ -1363,22 +2984,37 @@
         <v>0.90419099999999997</v>
       </c>
       <c r="R17">
-        <v>0.81060399999999999</v>
+        <v>0.84408000000000005</v>
       </c>
       <c r="S17">
-        <v>0.80950699999999998</v>
+        <v>0.84277299999999999</v>
       </c>
       <c r="T17">
-        <v>0.81011</v>
+        <v>0.84279499999999996</v>
       </c>
       <c r="U17">
-        <v>0.81021200000000004</v>
+        <v>0.84186799999999995</v>
       </c>
       <c r="V17">
-        <v>0.81007200000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.84402299999999997</v>
+      </c>
+      <c r="W17">
+        <v>0.78832400000000002</v>
+      </c>
+      <c r="X17">
+        <v>0.78887200000000002</v>
+      </c>
+      <c r="Y17">
+        <v>0.79238900000000001</v>
+      </c>
+      <c r="Z17">
+        <v>0.78729400000000005</v>
+      </c>
+      <c r="AA17">
+        <v>0.78761300000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M18">
         <v>0.90123699999999995</v>
       </c>
@@ -1395,22 +3031,37 @@
         <v>0.90093100000000004</v>
       </c>
       <c r="R18">
-        <v>0.80314200000000002</v>
+        <v>0.83933599999999997</v>
       </c>
       <c r="S18">
-        <v>0.80202799999999996</v>
+        <v>0.83807100000000001</v>
       </c>
       <c r="T18">
-        <v>0.80268200000000001</v>
+        <v>0.83809999999999996</v>
       </c>
       <c r="U18">
-        <v>0.80284199999999994</v>
+        <v>0.83713499999999996</v>
       </c>
       <c r="V18">
-        <v>0.80265799999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.83961600000000003</v>
+      </c>
+      <c r="W18">
+        <v>0.78390599999999999</v>
+      </c>
+      <c r="X18">
+        <v>0.78437900000000005</v>
+      </c>
+      <c r="Y18">
+        <v>0.78771599999999997</v>
+      </c>
+      <c r="Z18">
+        <v>0.78291699999999997</v>
+      </c>
+      <c r="AA18">
+        <v>0.78326200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M19">
         <v>0.89818299999999995</v>
       </c>
@@ -1427,22 +3078,37 @@
         <v>0.89790099999999995</v>
       </c>
       <c r="R19">
-        <v>0.79686500000000005</v>
+        <v>0.83482999999999996</v>
       </c>
       <c r="S19">
-        <v>0.79574900000000004</v>
+        <v>0.83356699999999995</v>
       </c>
       <c r="T19">
-        <v>0.796404</v>
+        <v>0.83361200000000002</v>
       </c>
       <c r="U19">
-        <v>0.79666800000000004</v>
+        <v>0.83266399999999996</v>
       </c>
       <c r="V19">
-        <v>0.79640900000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.83546100000000001</v>
+      </c>
+      <c r="W19">
+        <v>0.78018699999999996</v>
+      </c>
+      <c r="X19">
+        <v>0.78049000000000002</v>
+      </c>
+      <c r="Y19">
+        <v>0.78365600000000002</v>
+      </c>
+      <c r="Z19">
+        <v>0.77917700000000001</v>
+      </c>
+      <c r="AA19">
+        <v>0.77966999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M20">
         <v>0.89553499999999997</v>
       </c>
@@ -1459,22 +3125,37 @@
         <v>0.89528600000000003</v>
       </c>
       <c r="R20">
-        <v>0.79171999999999998</v>
+        <v>0.83073900000000001</v>
       </c>
       <c r="S20">
-        <v>0.79063600000000001</v>
+        <v>0.82943999999999996</v>
       </c>
       <c r="T20">
-        <v>0.79125500000000004</v>
+        <v>0.829511</v>
       </c>
       <c r="U20">
-        <v>0.79163399999999995</v>
+        <v>0.82860999999999996</v>
       </c>
       <c r="V20">
-        <v>0.79130599999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.83173600000000003</v>
+      </c>
+      <c r="W20">
+        <v>0.77737800000000001</v>
+      </c>
+      <c r="X20">
+        <v>0.77754100000000004</v>
+      </c>
+      <c r="Y20">
+        <v>0.78049500000000005</v>
+      </c>
+      <c r="Z20">
+        <v>0.77638200000000002</v>
+      </c>
+      <c r="AA20">
+        <v>0.77703900000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M21">
         <v>0.89321799999999996</v>
       </c>
@@ -1491,22 +3172,37 @@
         <v>0.893007</v>
       </c>
       <c r="R21">
-        <v>0.78765700000000005</v>
+        <v>0.827017</v>
       </c>
       <c r="S21">
-        <v>0.78662100000000001</v>
+        <v>0.82567100000000004</v>
       </c>
       <c r="T21">
-        <v>0.78718600000000005</v>
+        <v>0.82576899999999998</v>
       </c>
       <c r="U21">
-        <v>0.78764400000000001</v>
+        <v>0.82492200000000004</v>
       </c>
       <c r="V21">
-        <v>0.78728200000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.82836600000000005</v>
+      </c>
+      <c r="W21">
+        <v>0.77562399999999998</v>
+      </c>
+      <c r="X21">
+        <v>0.775729</v>
+      </c>
+      <c r="Y21">
+        <v>0.77840699999999996</v>
+      </c>
+      <c r="Z21">
+        <v>0.77468000000000004</v>
+      </c>
+      <c r="AA21">
+        <v>0.77549999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M22">
         <v>0.89106200000000002</v>
       </c>
@@ -1523,22 +3219,37 @@
         <v>0.890899</v>
       </c>
       <c r="R22">
-        <v>0.78474299999999997</v>
+        <v>0.82354499999999997</v>
       </c>
       <c r="S22">
-        <v>0.78374500000000002</v>
+        <v>0.82216800000000001</v>
       </c>
       <c r="T22">
-        <v>0.78425500000000004</v>
+        <v>0.82227799999999995</v>
       </c>
       <c r="U22">
-        <v>0.78476999999999997</v>
+        <v>0.82149000000000005</v>
       </c>
       <c r="V22">
-        <v>0.78439700000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.82521</v>
+      </c>
+      <c r="W22">
+        <v>0.77493599999999996</v>
+      </c>
+      <c r="X22">
+        <v>0.77503</v>
+      </c>
+      <c r="Y22">
+        <v>0.77740799999999999</v>
+      </c>
+      <c r="Z22">
+        <v>0.77405400000000002</v>
+      </c>
+      <c r="AA22">
+        <v>0.77502400000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M23">
         <v>0.88889700000000005</v>
       </c>
@@ -1555,22 +3266,37 @@
         <v>0.88878699999999999</v>
       </c>
       <c r="R23">
-        <v>0.782999</v>
+        <v>0.82023999999999997</v>
       </c>
       <c r="S23">
-        <v>0.78202199999999999</v>
+        <v>0.81884699999999999</v>
       </c>
       <c r="T23">
-        <v>0.78249500000000005</v>
+        <v>0.81895499999999999</v>
       </c>
       <c r="U23">
-        <v>0.78306100000000001</v>
+        <v>0.81822600000000001</v>
       </c>
       <c r="V23">
-        <v>0.78267600000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.82216699999999998</v>
+      </c>
+      <c r="W23">
+        <v>0.775173</v>
+      </c>
+      <c r="X23">
+        <v>0.77526899999999999</v>
+      </c>
+      <c r="Y23">
+        <v>0.77737800000000001</v>
+      </c>
+      <c r="Z23">
+        <v>0.77435600000000004</v>
+      </c>
+      <c r="AA23">
+        <v>0.77544500000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M24">
         <v>0.88658000000000003</v>
       </c>
@@ -1587,22 +3313,37 @@
         <v>0.88652399999999998</v>
       </c>
       <c r="R24">
-        <v>0.78235200000000005</v>
+        <v>0.817056</v>
       </c>
       <c r="S24">
-        <v>0.78138200000000002</v>
+        <v>0.81566399999999994</v>
       </c>
       <c r="T24">
-        <v>0.78183800000000003</v>
+        <v>0.81575699999999995</v>
       </c>
       <c r="U24">
-        <v>0.782443</v>
+        <v>0.81508800000000003</v>
       </c>
       <c r="V24">
-        <v>0.78204899999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.81918500000000005</v>
+      </c>
+      <c r="W24">
+        <v>0.77609399999999995</v>
+      </c>
+      <c r="X24">
+        <v>0.776196</v>
+      </c>
+      <c r="Y24">
+        <v>0.77809899999999999</v>
+      </c>
+      <c r="Z24">
+        <v>0.77534099999999995</v>
+      </c>
+      <c r="AA24">
+        <v>0.77652299999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M25">
         <v>0.88401799999999997</v>
       </c>
@@ -1619,22 +3360,37 @@
         <v>0.88401099999999999</v>
       </c>
       <c r="R25">
-        <v>0.78264699999999998</v>
+        <v>0.81399900000000003</v>
       </c>
       <c r="S25">
-        <v>0.78167500000000001</v>
+        <v>0.81262199999999996</v>
       </c>
       <c r="T25">
-        <v>0.78212400000000004</v>
+        <v>0.81269499999999995</v>
       </c>
       <c r="U25">
-        <v>0.78274500000000002</v>
+        <v>0.81208199999999997</v>
       </c>
       <c r="V25">
-        <v>0.78236000000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.81627000000000005</v>
+      </c>
+      <c r="W25">
+        <v>0.77745699999999995</v>
+      </c>
+      <c r="X25">
+        <v>0.77756099999999995</v>
+      </c>
+      <c r="Y25">
+        <v>0.77932699999999999</v>
+      </c>
+      <c r="Z25">
+        <v>0.77676000000000001</v>
+      </c>
+      <c r="AA25">
+        <v>0.77801600000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M26">
         <v>0.88119599999999998</v>
       </c>
@@ -1651,22 +3407,37 @@
         <v>0.88122699999999998</v>
       </c>
       <c r="R26">
-        <v>0.78367200000000004</v>
+        <v>0.81110700000000002</v>
       </c>
       <c r="S26">
-        <v>0.78269200000000005</v>
+        <v>0.809755</v>
       </c>
       <c r="T26">
-        <v>0.78313500000000003</v>
+        <v>0.809809</v>
       </c>
       <c r="U26">
-        <v>0.78374999999999995</v>
+        <v>0.80924700000000005</v>
       </c>
       <c r="V26">
-        <v>0.78339300000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.81346399999999996</v>
+      </c>
+      <c r="W26">
+        <v>0.77907400000000004</v>
+      </c>
+      <c r="X26">
+        <v>0.779173</v>
+      </c>
+      <c r="Y26">
+        <v>0.78085700000000002</v>
+      </c>
+      <c r="Z26">
+        <v>0.77841800000000005</v>
+      </c>
+      <c r="AA26">
+        <v>0.77973499999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M27">
         <v>0.87818799999999997</v>
       </c>
@@ -1683,22 +3454,37 @@
         <v>0.87824100000000005</v>
       </c>
       <c r="R27">
-        <v>0.78520000000000001</v>
+        <v>0.808419</v>
       </c>
       <c r="S27">
-        <v>0.78420699999999999</v>
+        <v>0.80709600000000004</v>
       </c>
       <c r="T27">
-        <v>0.78464</v>
+        <v>0.80713400000000002</v>
       </c>
       <c r="U27">
-        <v>0.78523500000000002</v>
+        <v>0.80661799999999995</v>
       </c>
       <c r="V27">
-        <v>0.78492300000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.81081300000000001</v>
+      </c>
+      <c r="W27">
+        <v>0.78082099999999999</v>
+      </c>
+      <c r="X27">
+        <v>0.78090700000000002</v>
+      </c>
+      <c r="Y27">
+        <v>0.78254500000000005</v>
+      </c>
+      <c r="Z27">
+        <v>0.78018900000000002</v>
+      </c>
+      <c r="AA27">
+        <v>0.78155699999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M28">
         <v>0.87512000000000001</v>
       </c>
@@ -1715,22 +3501,37 @@
         <v>0.87517800000000001</v>
       </c>
       <c r="R28">
-        <v>0.78703299999999998</v>
+        <v>0.805948</v>
       </c>
       <c r="S28">
-        <v>0.78601900000000002</v>
+        <v>0.80465299999999995</v>
       </c>
       <c r="T28">
-        <v>0.78644099999999995</v>
+        <v>0.80467900000000003</v>
       </c>
       <c r="U28">
-        <v>0.78701100000000002</v>
+        <v>0.80420899999999995</v>
       </c>
       <c r="V28">
-        <v>0.78674900000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.80834300000000003</v>
+      </c>
+      <c r="W28">
+        <v>0.78262399999999999</v>
+      </c>
+      <c r="X28">
+        <v>0.78269100000000003</v>
+      </c>
+      <c r="Y28">
+        <v>0.78430699999999998</v>
+      </c>
+      <c r="Z28">
+        <v>0.781999</v>
+      </c>
+      <c r="AA28">
+        <v>0.78341099999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M29">
         <v>0.872116</v>
       </c>
@@ -1747,22 +3548,37 @@
         <v>0.872166</v>
       </c>
       <c r="R29">
-        <v>0.789022</v>
+        <v>0.80368799999999996</v>
       </c>
       <c r="S29">
-        <v>0.78798500000000005</v>
+        <v>0.80241499999999999</v>
       </c>
       <c r="T29">
-        <v>0.78839599999999999</v>
+        <v>0.80243200000000003</v>
       </c>
       <c r="U29">
-        <v>0.78893800000000003</v>
+        <v>0.80200800000000005</v>
       </c>
       <c r="V29">
-        <v>0.78872600000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.80605800000000005</v>
+      </c>
+      <c r="W29">
+        <v>0.784439</v>
+      </c>
+      <c r="X29">
+        <v>0.78448399999999996</v>
+      </c>
+      <c r="Y29">
+        <v>0.78609200000000001</v>
+      </c>
+      <c r="Z29">
+        <v>0.78381000000000001</v>
+      </c>
+      <c r="AA29">
+        <v>0.78525900000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M30">
         <v>0.86924800000000002</v>
       </c>
@@ -1779,22 +3595,37 @@
         <v>0.86928700000000003</v>
       </c>
       <c r="R30">
-        <v>0.79107300000000003</v>
+        <v>0.80162</v>
       </c>
       <c r="S30">
-        <v>0.79001200000000005</v>
+        <v>0.80036099999999999</v>
       </c>
       <c r="T30">
-        <v>0.790412</v>
+        <v>0.80037199999999997</v>
       </c>
       <c r="U30">
-        <v>0.79092899999999999</v>
+        <v>0.79999600000000004</v>
       </c>
       <c r="V30">
-        <v>0.79076100000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.80395099999999997</v>
+      </c>
+      <c r="W30">
+        <v>0.786242</v>
+      </c>
+      <c r="X30">
+        <v>0.78626300000000005</v>
+      </c>
+      <c r="Y30">
+        <v>0.78787200000000002</v>
+      </c>
+      <c r="Z30">
+        <v>0.78559900000000005</v>
+      </c>
+      <c r="AA30">
+        <v>0.78708100000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M31">
         <v>0.86653899999999995</v>
       </c>
@@ -1811,22 +3642,37 @@
         <v>0.866568</v>
       </c>
       <c r="R31">
-        <v>0.79313100000000003</v>
+        <v>0.79971999999999999</v>
       </c>
       <c r="S31">
-        <v>0.79204799999999997</v>
+        <v>0.79846700000000004</v>
       </c>
       <c r="T31">
-        <v>0.79243799999999998</v>
+        <v>0.79847199999999996</v>
       </c>
       <c r="U31">
-        <v>0.792933</v>
+        <v>0.798149</v>
       </c>
       <c r="V31">
-        <v>0.79280099999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.80200499999999997</v>
+      </c>
+      <c r="W31">
+        <v>0.78801900000000002</v>
+      </c>
+      <c r="X31">
+        <v>0.78801600000000005</v>
+      </c>
+      <c r="Y31">
+        <v>0.78963099999999997</v>
+      </c>
+      <c r="Z31">
+        <v>0.78735599999999994</v>
+      </c>
+      <c r="AA31">
+        <v>0.78886699999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M32">
         <v>0.86397699999999999</v>
       </c>
@@ -1843,22 +3689,37 @@
         <v>0.86400600000000005</v>
       </c>
       <c r="R32">
-        <v>0.79516500000000001</v>
+        <v>0.79796199999999995</v>
       </c>
       <c r="S32">
-        <v>0.79406500000000002</v>
+        <v>0.79670700000000005</v>
       </c>
       <c r="T32">
-        <v>0.79444599999999999</v>
+        <v>0.79670799999999997</v>
       </c>
       <c r="U32">
-        <v>0.79492399999999996</v>
+        <v>0.79644099999999995</v>
       </c>
       <c r="V32">
-        <v>0.794817</v>
-      </c>
-    </row>
-    <row r="33" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.800203</v>
+      </c>
+      <c r="W32">
+        <v>0.78976100000000005</v>
+      </c>
+      <c r="X32">
+        <v>0.78973300000000002</v>
+      </c>
+      <c r="Y32">
+        <v>0.79135800000000001</v>
+      </c>
+      <c r="Z32">
+        <v>0.78907499999999997</v>
+      </c>
+      <c r="AA32">
+        <v>0.79061099999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M33">
         <v>0.86154600000000003</v>
       </c>
@@ -1875,22 +3736,37 @@
         <v>0.86158800000000002</v>
       </c>
       <c r="R33">
-        <v>0.79716299999999995</v>
+        <v>0.79632499999999995</v>
       </c>
       <c r="S33">
-        <v>0.79605000000000004</v>
+        <v>0.79506100000000002</v>
       </c>
       <c r="T33">
-        <v>0.79642100000000005</v>
+        <v>0.79505800000000004</v>
       </c>
       <c r="U33">
-        <v>0.79688599999999998</v>
+        <v>0.794852</v>
       </c>
       <c r="V33">
-        <v>0.79679699999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.79852500000000004</v>
+      </c>
+      <c r="W33">
+        <v>0.791462</v>
+      </c>
+      <c r="X33">
+        <v>0.791412</v>
+      </c>
+      <c r="Y33">
+        <v>0.79304699999999995</v>
+      </c>
+      <c r="Z33">
+        <v>0.79075399999999996</v>
+      </c>
+      <c r="AA33">
+        <v>0.79230999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M34">
         <v>0.85923400000000005</v>
       </c>
@@ -1907,22 +3783,37 @@
         <v>0.85930399999999996</v>
       </c>
       <c r="R34">
-        <v>0.79911500000000002</v>
+        <v>0.79478700000000002</v>
       </c>
       <c r="S34">
-        <v>0.79799399999999998</v>
+        <v>0.79351099999999997</v>
       </c>
       <c r="T34">
-        <v>0.79835699999999998</v>
+        <v>0.79350399999999999</v>
       </c>
       <c r="U34">
-        <v>0.79881199999999997</v>
+        <v>0.79336099999999998</v>
       </c>
       <c r="V34">
-        <v>0.798732</v>
-      </c>
-    </row>
-    <row r="35" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.79695400000000005</v>
+      </c>
+      <c r="W34">
+        <v>0.79312199999999999</v>
+      </c>
+      <c r="X34">
+        <v>0.793049</v>
+      </c>
+      <c r="Y34">
+        <v>0.79469299999999998</v>
+      </c>
+      <c r="Z34">
+        <v>0.79239000000000004</v>
+      </c>
+      <c r="AA34">
+        <v>0.793964</v>
+      </c>
+    </row>
+    <row r="35" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M35">
         <v>0.85704000000000002</v>
       </c>
@@ -1939,22 +3830,37 @@
         <v>0.857151</v>
       </c>
       <c r="R35">
-        <v>0.80101900000000004</v>
+        <v>0.79333500000000001</v>
       </c>
       <c r="S35">
-        <v>0.79989399999999999</v>
+        <v>0.792041</v>
       </c>
       <c r="T35">
-        <v>0.80025000000000002</v>
+        <v>0.79203199999999996</v>
       </c>
       <c r="U35">
-        <v>0.80069800000000002</v>
+        <v>0.79195400000000005</v>
       </c>
       <c r="V35">
-        <v>0.80062100000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.79547599999999996</v>
+      </c>
+      <c r="W35">
+        <v>0.79473800000000006</v>
+      </c>
+      <c r="X35">
+        <v>0.79464299999999999</v>
+      </c>
+      <c r="Y35">
+        <v>0.796296</v>
+      </c>
+      <c r="Z35">
+        <v>0.79398400000000002</v>
+      </c>
+      <c r="AA35">
+        <v>0.79557299999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M36">
         <v>0.854966</v>
       </c>
@@ -1971,22 +3877,37 @@
         <v>0.85512999999999995</v>
       </c>
       <c r="R36">
-        <v>0.80287200000000003</v>
+        <v>0.79195599999999999</v>
       </c>
       <c r="S36">
-        <v>0.80174900000000004</v>
+        <v>0.79064400000000001</v>
       </c>
       <c r="T36">
-        <v>0.80209699999999995</v>
+        <v>0.79063099999999997</v>
       </c>
       <c r="U36">
-        <v>0.80254000000000003</v>
+        <v>0.79062100000000002</v>
       </c>
       <c r="V36">
-        <v>0.80246200000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.79408000000000001</v>
+      </c>
+      <c r="W36">
+        <v>0.79631099999999999</v>
+      </c>
+      <c r="X36">
+        <v>0.79619399999999996</v>
+      </c>
+      <c r="Y36">
+        <v>0.79785300000000003</v>
+      </c>
+      <c r="Z36">
+        <v>0.79553499999999999</v>
+      </c>
+      <c r="AA36">
+        <v>0.79713800000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M37">
         <v>0.853016</v>
       </c>
@@ -2003,22 +3924,37 @@
         <v>0.85324</v>
       </c>
       <c r="R37">
-        <v>0.80467599999999995</v>
+        <v>0.79064100000000004</v>
       </c>
       <c r="S37">
-        <v>0.80355799999999999</v>
+        <v>0.78931099999999998</v>
       </c>
       <c r="T37">
-        <v>0.80389699999999997</v>
+        <v>0.78929499999999997</v>
       </c>
       <c r="U37">
-        <v>0.804338</v>
+        <v>0.789354</v>
       </c>
       <c r="V37">
-        <v>0.80425599999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.79275600000000002</v>
+      </c>
+      <c r="W37">
+        <v>0.79784100000000002</v>
+      </c>
+      <c r="X37">
+        <v>0.79770099999999999</v>
+      </c>
+      <c r="Y37">
+        <v>0.79936600000000002</v>
+      </c>
+      <c r="Z37">
+        <v>0.797045</v>
+      </c>
+      <c r="AA37">
+        <v>0.79865900000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M38">
         <v>0.85118799999999994</v>
       </c>
@@ -2035,22 +3971,37 @@
         <v>0.85147600000000001</v>
       </c>
       <c r="R38">
-        <v>0.80642999999999998</v>
+        <v>0.78938600000000003</v>
       </c>
       <c r="S38">
-        <v>0.80532000000000004</v>
+        <v>0.78803800000000002</v>
       </c>
       <c r="T38">
-        <v>0.80565100000000001</v>
+        <v>0.788018</v>
       </c>
       <c r="U38">
-        <v>0.806091</v>
+        <v>0.78814600000000001</v>
       </c>
       <c r="V38">
-        <v>0.806002</v>
-      </c>
-    </row>
-    <row r="39" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.79149700000000001</v>
+      </c>
+      <c r="W38">
+        <v>0.79932999999999998</v>
+      </c>
+      <c r="X38">
+        <v>0.79916600000000004</v>
+      </c>
+      <c r="Y38">
+        <v>0.80083499999999996</v>
+      </c>
+      <c r="Z38">
+        <v>0.79851399999999995</v>
+      </c>
+      <c r="AA38">
+        <v>0.80013800000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M39">
         <v>0.84947899999999998</v>
       </c>
@@ -2067,22 +4018,37 @@
         <v>0.84983500000000001</v>
       </c>
       <c r="R39">
-        <v>0.80813599999999997</v>
+        <v>0.788184</v>
       </c>
       <c r="S39">
-        <v>0.80703599999999998</v>
+        <v>0.78682200000000002</v>
       </c>
       <c r="T39">
-        <v>0.80735900000000005</v>
+        <v>0.78679699999999997</v>
       </c>
       <c r="U39">
-        <v>0.80779999999999996</v>
+        <v>0.78699399999999997</v>
       </c>
       <c r="V39">
-        <v>0.80770200000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.79029700000000003</v>
+      </c>
+      <c r="W39">
+        <v>0.80077699999999996</v>
+      </c>
+      <c r="X39">
+        <v>0.800589</v>
+      </c>
+      <c r="Y39">
+        <v>0.802261</v>
+      </c>
+      <c r="Z39">
+        <v>0.79994299999999996</v>
+      </c>
+      <c r="AA39">
+        <v>0.80157599999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M40">
         <v>0.84788300000000005</v>
       </c>
@@ -2099,22 +4065,37 @@
         <v>0.84830799999999995</v>
       </c>
       <c r="R40">
-        <v>0.80979299999999999</v>
+        <v>0.78703400000000001</v>
       </c>
       <c r="S40">
-        <v>0.80870699999999995</v>
+        <v>0.78566100000000005</v>
       </c>
       <c r="T40">
-        <v>0.80901999999999996</v>
+        <v>0.78563000000000005</v>
       </c>
       <c r="U40">
-        <v>0.80946300000000004</v>
+        <v>0.78589500000000001</v>
       </c>
       <c r="V40">
-        <v>0.80935699999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.78915199999999996</v>
+      </c>
+      <c r="W40">
+        <v>0.80218599999999995</v>
+      </c>
+      <c r="X40">
+        <v>0.80197099999999999</v>
+      </c>
+      <c r="Y40">
+        <v>0.80364500000000005</v>
+      </c>
+      <c r="Z40">
+        <v>0.80133399999999999</v>
+      </c>
+      <c r="AA40">
+        <v>0.80297600000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M41">
         <v>0.84639600000000004</v>
       </c>
@@ -2131,22 +4112,37 @@
         <v>0.846889</v>
       </c>
       <c r="R41">
-        <v>0.81140500000000004</v>
+        <v>0.78593400000000002</v>
       </c>
       <c r="S41">
-        <v>0.810334</v>
+        <v>0.78455399999999997</v>
       </c>
       <c r="T41">
-        <v>0.81063700000000005</v>
+        <v>0.78451599999999999</v>
       </c>
       <c r="U41">
-        <v>0.811083</v>
+        <v>0.78484500000000001</v>
       </c>
       <c r="V41">
-        <v>0.81096699999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.78805800000000004</v>
+      </c>
+      <c r="W41">
+        <v>0.80355699999999997</v>
+      </c>
+      <c r="X41">
+        <v>0.80331399999999997</v>
+      </c>
+      <c r="Y41">
+        <v>0.80498899999999995</v>
+      </c>
+      <c r="Z41">
+        <v>0.80268600000000001</v>
+      </c>
+      <c r="AA41">
+        <v>0.80433699999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M42">
         <v>0.84501199999999999</v>
       </c>
@@ -2163,22 +4159,37 @@
         <v>0.84557499999999997</v>
       </c>
       <c r="R42">
-        <v>0.812971</v>
+        <v>0.78488199999999997</v>
       </c>
       <c r="S42">
-        <v>0.81191800000000003</v>
+        <v>0.78349800000000003</v>
       </c>
       <c r="T42">
-        <v>0.81221100000000002</v>
+        <v>0.78345399999999998</v>
       </c>
       <c r="U42">
-        <v>0.81266000000000005</v>
+        <v>0.78384399999999999</v>
       </c>
       <c r="V42">
-        <v>0.81253500000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.78701399999999999</v>
+      </c>
+      <c r="W42">
+        <v>0.80489100000000002</v>
+      </c>
+      <c r="X42">
+        <v>0.80461899999999997</v>
+      </c>
+      <c r="Y42">
+        <v>0.80629399999999996</v>
+      </c>
+      <c r="Z42">
+        <v>0.80400199999999999</v>
+      </c>
+      <c r="AA42">
+        <v>0.80566199999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M43">
         <v>0.84372899999999995</v>
       </c>
@@ -2195,22 +4206,37 @@
         <v>0.84436</v>
       </c>
       <c r="R43">
-        <v>0.81449400000000005</v>
+        <v>0.78387899999999999</v>
       </c>
       <c r="S43">
-        <v>0.81345999999999996</v>
+        <v>0.78249500000000005</v>
       </c>
       <c r="T43">
-        <v>0.81374100000000005</v>
+        <v>0.78244199999999997</v>
       </c>
       <c r="U43">
-        <v>0.81419399999999997</v>
+        <v>0.78288999999999997</v>
       </c>
       <c r="V43">
-        <v>0.81406100000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.78601699999999997</v>
+      </c>
+      <c r="W43">
+        <v>0.80618900000000004</v>
+      </c>
+      <c r="X43">
+        <v>0.80588700000000002</v>
+      </c>
+      <c r="Y43">
+        <v>0.80756099999999997</v>
+      </c>
+      <c r="Z43">
+        <v>0.805284</v>
+      </c>
+      <c r="AA43">
+        <v>0.80695099999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M44">
         <v>0.84254200000000001</v>
       </c>
@@ -2227,22 +4253,37 @@
         <v>0.84324200000000005</v>
       </c>
       <c r="R44">
-        <v>0.81597500000000001</v>
+        <v>0.78292300000000004</v>
       </c>
       <c r="S44">
-        <v>0.81496100000000005</v>
+        <v>0.78154299999999999</v>
       </c>
       <c r="T44">
-        <v>0.81523100000000004</v>
+        <v>0.78148200000000001</v>
       </c>
       <c r="U44">
-        <v>0.81568799999999997</v>
+        <v>0.78198299999999998</v>
       </c>
       <c r="V44">
-        <v>0.81554599999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.78506600000000004</v>
+      </c>
+      <c r="W44">
+        <v>0.80745400000000001</v>
+      </c>
+      <c r="X44">
+        <v>0.80711999999999995</v>
+      </c>
+      <c r="Y44">
+        <v>0.80879299999999998</v>
+      </c>
+      <c r="Z44">
+        <v>0.806531</v>
+      </c>
+      <c r="AA44">
+        <v>0.80820700000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M45">
         <v>0.84145300000000001</v>
       </c>
@@ -2259,22 +4300,37 @@
         <v>0.842221</v>
       </c>
       <c r="R45">
-        <v>0.817415</v>
+        <v>0.78201600000000004</v>
       </c>
       <c r="S45">
-        <v>0.81642199999999998</v>
+        <v>0.78064199999999995</v>
       </c>
       <c r="T45">
-        <v>0.81667999999999996</v>
+        <v>0.78057200000000004</v>
       </c>
       <c r="U45">
-        <v>0.81714200000000003</v>
+        <v>0.78112300000000001</v>
       </c>
       <c r="V45">
-        <v>0.81699200000000005</v>
-      </c>
-    </row>
-    <row r="46" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.784161</v>
+      </c>
+      <c r="W45">
+        <v>0.80868600000000002</v>
+      </c>
+      <c r="X45">
+        <v>0.80832000000000004</v>
+      </c>
+      <c r="Y45">
+        <v>0.80999100000000002</v>
+      </c>
+      <c r="Z45">
+        <v>0.80774500000000005</v>
+      </c>
+      <c r="AA45">
+        <v>0.80942999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M46">
         <v>0.84045899999999996</v>
       </c>
@@ -2291,22 +4347,37 @@
         <v>0.84129500000000002</v>
       </c>
       <c r="R46">
-        <v>0.81881599999999999</v>
+        <v>0.78115599999999996</v>
       </c>
       <c r="S46">
-        <v>0.81784500000000004</v>
+        <v>0.77979100000000001</v>
       </c>
       <c r="T46">
-        <v>0.81809100000000001</v>
+        <v>0.77971299999999999</v>
       </c>
       <c r="U46">
-        <v>0.81855699999999998</v>
+        <v>0.780308</v>
       </c>
       <c r="V46">
-        <v>0.81840100000000005</v>
-      </c>
-    </row>
-    <row r="47" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.78330100000000003</v>
+      </c>
+      <c r="W46">
+        <v>0.80988700000000002</v>
+      </c>
+      <c r="X46">
+        <v>0.80948600000000004</v>
+      </c>
+      <c r="Y46">
+        <v>0.81115599999999999</v>
+      </c>
+      <c r="Z46">
+        <v>0.80892799999999998</v>
+      </c>
+      <c r="AA46">
+        <v>0.81062199999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M47">
         <v>0.839561</v>
       </c>
@@ -2323,22 +4394,37 @@
         <v>0.84046399999999999</v>
       </c>
       <c r="R47">
-        <v>0.82017899999999999</v>
+        <v>0.78034499999999996</v>
       </c>
       <c r="S47">
-        <v>0.81923100000000004</v>
+        <v>0.77898999999999996</v>
       </c>
       <c r="T47">
-        <v>0.81946399999999997</v>
+        <v>0.77890400000000004</v>
       </c>
       <c r="U47">
-        <v>0.81993400000000005</v>
+        <v>0.77954000000000001</v>
       </c>
       <c r="V47">
-        <v>0.81977299999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.78248600000000001</v>
+      </c>
+      <c r="W47">
+        <v>0.81105799999999995</v>
+      </c>
+      <c r="X47">
+        <v>0.81062199999999995</v>
+      </c>
+      <c r="Y47">
+        <v>0.81228999999999996</v>
+      </c>
+      <c r="Z47">
+        <v>0.81008000000000002</v>
+      </c>
+      <c r="AA47">
+        <v>0.81178300000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M48">
         <v>0.83875699999999997</v>
       </c>
@@ -2355,22 +4441,37 @@
         <v>0.839727</v>
       </c>
       <c r="R48">
-        <v>0.82150599999999996</v>
+        <v>0.77958300000000003</v>
       </c>
       <c r="S48">
-        <v>0.820581</v>
+        <v>0.77823699999999996</v>
       </c>
       <c r="T48">
-        <v>0.820801</v>
+        <v>0.77814499999999998</v>
       </c>
       <c r="U48">
-        <v>0.82127499999999998</v>
+        <v>0.77881800000000001</v>
       </c>
       <c r="V48">
-        <v>0.82110899999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.78171599999999997</v>
+      </c>
+      <c r="W48">
+        <v>0.812199</v>
+      </c>
+      <c r="X48">
+        <v>0.81172699999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0.81339300000000003</v>
+      </c>
+      <c r="Z48">
+        <v>0.81120300000000001</v>
+      </c>
+      <c r="AA48">
+        <v>0.81291599999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M49">
         <v>0.83804900000000004</v>
       </c>
@@ -2387,22 +4488,37 @@
         <v>0.83908300000000002</v>
       </c>
       <c r="R49">
-        <v>0.822797</v>
+        <v>0.778868</v>
       </c>
       <c r="S49">
-        <v>0.82189699999999999</v>
+        <v>0.77753399999999995</v>
       </c>
       <c r="T49">
-        <v>0.82210300000000003</v>
+        <v>0.77743399999999996</v>
       </c>
       <c r="U49">
-        <v>0.82258100000000001</v>
+        <v>0.77814099999999997</v>
       </c>
       <c r="V49">
-        <v>0.82241200000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.78098999999999996</v>
+      </c>
+      <c r="W49">
+        <v>0.81331299999999995</v>
+      </c>
+      <c r="X49">
+        <v>0.81280399999999997</v>
+      </c>
+      <c r="Y49">
+        <v>0.81446799999999997</v>
+      </c>
+      <c r="Z49">
+        <v>0.81229899999999999</v>
+      </c>
+      <c r="AA49">
+        <v>0.81401999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M50">
         <v>0.83743599999999996</v>
       </c>
@@ -2419,22 +4535,37 @@
         <v>0.83853200000000006</v>
       </c>
       <c r="R50">
-        <v>0.82405399999999995</v>
+        <v>0.77820100000000003</v>
       </c>
       <c r="S50">
-        <v>0.82317799999999997</v>
+        <v>0.77687799999999996</v>
       </c>
       <c r="T50">
-        <v>0.82337199999999999</v>
+        <v>0.77677099999999999</v>
       </c>
       <c r="U50">
-        <v>0.82385399999999998</v>
+        <v>0.77751000000000003</v>
       </c>
       <c r="V50">
-        <v>0.823681</v>
-      </c>
-    </row>
-    <row r="51" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.78030999999999995</v>
+      </c>
+      <c r="W50">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="X50">
+        <v>0.81385399999999997</v>
+      </c>
+      <c r="Y50">
+        <v>0.81551600000000002</v>
+      </c>
+      <c r="Z50">
+        <v>0.81336699999999995</v>
+      </c>
+      <c r="AA50">
+        <v>0.81509699999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M51">
         <v>0.83691499999999996</v>
       </c>
@@ -2451,22 +4582,37 @@
         <v>0.83807100000000001</v>
       </c>
       <c r="R51">
-        <v>0.82527899999999998</v>
+        <v>0.77758099999999997</v>
       </c>
       <c r="S51">
-        <v>0.82442800000000005</v>
+        <v>0.77626899999999999</v>
       </c>
       <c r="T51">
-        <v>0.82460800000000001</v>
+        <v>0.77615500000000004</v>
       </c>
       <c r="U51">
-        <v>0.82509399999999999</v>
+        <v>0.77692399999999995</v>
       </c>
       <c r="V51">
-        <v>0.82491899999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.77967299999999995</v>
+      </c>
+      <c r="W51">
+        <v>0.81545999999999996</v>
+      </c>
+      <c r="X51">
+        <v>0.81487699999999996</v>
+      </c>
+      <c r="Y51">
+        <v>0.81653799999999999</v>
+      </c>
+      <c r="Z51">
+        <v>0.81440900000000005</v>
+      </c>
+      <c r="AA51">
+        <v>0.81614799999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M52">
         <v>0.83648599999999995</v>
       </c>
@@ -2483,22 +4629,37 @@
         <v>0.8377</v>
       </c>
       <c r="R52">
-        <v>0.82647199999999998</v>
+        <v>0.77700800000000003</v>
       </c>
       <c r="S52">
-        <v>0.82564599999999999</v>
+        <v>0.77570600000000001</v>
       </c>
       <c r="T52">
-        <v>0.82581300000000002</v>
+        <v>0.775586</v>
       </c>
       <c r="U52">
-        <v>0.82630199999999998</v>
+        <v>0.77638300000000005</v>
       </c>
       <c r="V52">
-        <v>0.82612600000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.77908100000000002</v>
+      </c>
+      <c r="W52">
+        <v>0.81649700000000003</v>
+      </c>
+      <c r="X52">
+        <v>0.81587500000000002</v>
+      </c>
+      <c r="Y52">
+        <v>0.81753399999999998</v>
+      </c>
+      <c r="Z52">
+        <v>0.81542700000000001</v>
+      </c>
+      <c r="AA52">
+        <v>0.81717300000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M53">
         <v>0.83614599999999994</v>
       </c>
@@ -2515,22 +4676,37 @@
         <v>0.83741500000000002</v>
       </c>
       <c r="R53">
-        <v>0.82763500000000001</v>
+        <v>0.77648099999999998</v>
       </c>
       <c r="S53">
-        <v>0.82683399999999996</v>
+        <v>0.77518900000000002</v>
       </c>
       <c r="T53">
-        <v>0.82698799999999995</v>
+        <v>0.77506200000000003</v>
       </c>
       <c r="U53">
-        <v>0.82747999999999999</v>
+        <v>0.77588599999999996</v>
       </c>
       <c r="V53">
-        <v>0.82730300000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.77853300000000003</v>
+      </c>
+      <c r="W53">
+        <v>0.81750900000000004</v>
+      </c>
+      <c r="X53">
+        <v>0.81684900000000005</v>
+      </c>
+      <c r="Y53">
+        <v>0.81850599999999996</v>
+      </c>
+      <c r="Z53">
+        <v>0.81642000000000003</v>
+      </c>
+      <c r="AA53">
+        <v>0.81817499999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M54">
         <v>0.835893</v>
       </c>
@@ -2547,22 +4723,37 @@
         <v>0.83721400000000001</v>
       </c>
       <c r="R54">
-        <v>0.82876899999999998</v>
+        <v>0.77599899999999999</v>
       </c>
       <c r="S54">
-        <v>0.82799299999999998</v>
+        <v>0.77471599999999996</v>
       </c>
       <c r="T54">
-        <v>0.82813400000000004</v>
+        <v>0.77458199999999999</v>
       </c>
       <c r="U54">
-        <v>0.82862899999999995</v>
+        <v>0.77543300000000004</v>
       </c>
       <c r="V54">
-        <v>0.82845199999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.77802700000000002</v>
+      </c>
+      <c r="W54">
+        <v>0.81849799999999995</v>
+      </c>
+      <c r="X54">
+        <v>0.81779999999999997</v>
+      </c>
+      <c r="Y54">
+        <v>0.81945500000000004</v>
+      </c>
+      <c r="Z54">
+        <v>0.81739099999999998</v>
+      </c>
+      <c r="AA54">
+        <v>0.81915300000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M55">
         <v>0.83572199999999996</v>
       </c>
@@ -2579,22 +4770,37 @@
         <v>0.83709199999999995</v>
       </c>
       <c r="R55">
-        <v>0.82987599999999995</v>
+        <v>0.77556199999999997</v>
       </c>
       <c r="S55">
-        <v>0.82912399999999997</v>
+        <v>0.77428600000000003</v>
       </c>
       <c r="T55">
-        <v>0.82925199999999999</v>
+        <v>0.774146</v>
       </c>
       <c r="U55">
-        <v>0.82974999999999999</v>
+        <v>0.77502300000000002</v>
       </c>
       <c r="V55">
-        <v>0.829573</v>
-      </c>
-    </row>
-    <row r="56" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.77756499999999995</v>
+      </c>
+      <c r="W55">
+        <v>0.81946600000000003</v>
+      </c>
+      <c r="X55">
+        <v>0.81872800000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0.82038199999999994</v>
+      </c>
+      <c r="Z55">
+        <v>0.81833999999999996</v>
+      </c>
+      <c r="AA55">
+        <v>0.82010799999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M56">
         <v>0.83562999999999998</v>
       </c>
@@ -2611,22 +4817,37 @@
         <v>0.83704699999999999</v>
       </c>
       <c r="R56">
-        <v>0.830955</v>
+        <v>0.77516700000000005</v>
       </c>
       <c r="S56">
-        <v>0.83022700000000005</v>
+        <v>0.77389799999999997</v>
       </c>
       <c r="T56">
-        <v>0.83034399999999997</v>
+        <v>0.77375099999999997</v>
       </c>
       <c r="U56">
-        <v>0.83084400000000003</v>
+        <v>0.77465499999999998</v>
       </c>
       <c r="V56">
-        <v>0.83066799999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.77714399999999995</v>
+      </c>
+      <c r="W56">
+        <v>0.82041200000000003</v>
+      </c>
+      <c r="X56">
+        <v>0.819635</v>
+      </c>
+      <c r="Y56">
+        <v>0.82128800000000002</v>
+      </c>
+      <c r="Z56">
+        <v>0.81926699999999997</v>
+      </c>
+      <c r="AA56">
+        <v>0.82104100000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M57">
         <v>0.83561300000000005</v>
       </c>
@@ -2643,22 +4864,37 @@
         <v>0.83707299999999996</v>
       </c>
       <c r="R57">
-        <v>0.83200799999999997</v>
+        <v>0.774814</v>
       </c>
       <c r="S57">
-        <v>0.83130499999999996</v>
+        <v>0.77355099999999999</v>
       </c>
       <c r="T57">
-        <v>0.83140899999999995</v>
+        <v>0.77339800000000003</v>
       </c>
       <c r="U57">
-        <v>0.83191199999999998</v>
+        <v>0.77432699999999999</v>
       </c>
       <c r="V57">
-        <v>0.83173699999999995</v>
-      </c>
-    </row>
-    <row r="58" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.77676400000000001</v>
+      </c>
+      <c r="W57">
+        <v>0.82133699999999998</v>
+      </c>
+      <c r="X57">
+        <v>0.82052199999999997</v>
+      </c>
+      <c r="Y57">
+        <v>0.82217300000000004</v>
+      </c>
+      <c r="Z57">
+        <v>0.82017399999999996</v>
+      </c>
+      <c r="AA57">
+        <v>0.82195300000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M58">
         <v>0.83566600000000002</v>
       </c>
@@ -2675,22 +4911,37 @@
         <v>0.83716699999999999</v>
       </c>
       <c r="R58">
-        <v>0.83303700000000003</v>
+        <v>0.77450200000000002</v>
       </c>
       <c r="S58">
-        <v>0.83235800000000004</v>
+        <v>0.77324400000000004</v>
       </c>
       <c r="T58">
-        <v>0.83245000000000002</v>
+        <v>0.77308399999999999</v>
       </c>
       <c r="U58">
-        <v>0.832955</v>
+        <v>0.77403900000000003</v>
       </c>
       <c r="V58">
-        <v>0.83278099999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="13:22" x14ac:dyDescent="0.2">
+        <v>0.776424</v>
+      </c>
+      <c r="W58">
+        <v>0.82224299999999995</v>
+      </c>
+      <c r="X58">
+        <v>0.82138900000000004</v>
+      </c>
+      <c r="Y58">
+        <v>0.82303800000000005</v>
+      </c>
+      <c r="Z58">
+        <v>0.82106100000000004</v>
+      </c>
+      <c r="AA58">
+        <v>0.82284500000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M59">
         <v>0.83578300000000005</v>
       </c>
@@ -2707,55 +4958,85 @@
         <v>0.83732099999999998</v>
       </c>
       <c r="R59">
-        <v>0.83404100000000003</v>
+        <v>0.77422899999999995</v>
       </c>
       <c r="S59">
-        <v>0.83338599999999996</v>
+        <v>0.772976</v>
       </c>
       <c r="T59">
-        <v>0.83346699999999996</v>
+        <v>0.77280800000000005</v>
       </c>
       <c r="U59">
-        <v>0.83397500000000002</v>
+        <v>0.77378899999999995</v>
       </c>
       <c r="V59">
-        <v>0.83380200000000004</v>
+        <v>0.77612199999999998</v>
+      </c>
+      <c r="W59">
+        <v>0.82313000000000003</v>
+      </c>
+      <c r="X59">
+        <v>0.822237</v>
+      </c>
+      <c r="Y59">
+        <v>0.82388499999999998</v>
+      </c>
+      <c r="Z59">
+        <v>0.82192900000000002</v>
+      </c>
+      <c r="AA59">
+        <v>0.82371700000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F8:I8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M9:M59">
-    <cfRule type="top10" dxfId="39" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="124" priority="45" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N59">
-    <cfRule type="top10" dxfId="38" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="123" priority="44" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:O59">
-    <cfRule type="top10" dxfId="37" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="122" priority="43" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P59">
-    <cfRule type="top10" dxfId="36" priority="22" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="121" priority="42" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q59">
-    <cfRule type="top10" dxfId="35" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="120" priority="41" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R9:R59">
-    <cfRule type="top10" dxfId="34" priority="15" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="W9:W59">
+    <cfRule type="top10" dxfId="119" priority="20" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9:X59">
+    <cfRule type="top10" dxfId="118" priority="19" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y9:Y59">
+    <cfRule type="top10" dxfId="117" priority="18" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9:Z59">
+    <cfRule type="top10" dxfId="116" priority="17" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9:AA59">
+    <cfRule type="top10" dxfId="115" priority="16" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9:R49 R51:R59">
+    <cfRule type="top10" dxfId="114" priority="10" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:S59">
-    <cfRule type="top10" dxfId="33" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="113" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:T59">
-    <cfRule type="top10" dxfId="32" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="112" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9:U59">
-    <cfRule type="top10" dxfId="31" priority="12" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="111" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9:V59">
-    <cfRule type="top10" dxfId="30" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="110" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2764,41 +5045,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F8:Q59"/>
+  <dimension ref="F8:AA59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="8" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
       <c r="M8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
         <v>8</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>9</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>10</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="S8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
         <v>0</v>
@@ -2809,9 +5104,6 @@
       <c r="I9" t="s">
         <v>2</v>
       </c>
-      <c r="J9" t="s">
-        <v>6</v>
-      </c>
       <c r="M9">
         <v>0.93247199999999997</v>
       </c>
@@ -2827,17 +5119,50 @@
       <c r="Q9">
         <v>0.93533200000000005</v>
       </c>
-    </row>
-    <row r="10" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="R9">
+        <v>0.85591300000000003</v>
+      </c>
+      <c r="S9">
+        <v>0.85605500000000001</v>
+      </c>
+      <c r="T9">
+        <v>0.85488500000000001</v>
+      </c>
+      <c r="U9">
+        <v>0.85583500000000001</v>
+      </c>
+      <c r="V9">
+        <v>0.85594700000000001</v>
+      </c>
+      <c r="W9">
+        <v>0.84135300000000002</v>
+      </c>
+      <c r="X9">
+        <v>0.841167</v>
+      </c>
+      <c r="Y9">
+        <v>0.84111999999999998</v>
+      </c>
+      <c r="Z9">
+        <v>0.84017799999999998</v>
+      </c>
+      <c r="AA9">
+        <v>0.84092699999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" s="2">
         <v>0.65316799999999997</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="H10" s="2">
+        <v>0.593055</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.59023300000000001</v>
+      </c>
       <c r="M10">
         <v>0.733846</v>
       </c>
@@ -2853,17 +5178,50 @@
       <c r="Q10">
         <v>0.73526999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="R10">
+        <v>0.68836600000000003</v>
+      </c>
+      <c r="S10">
+        <v>0.68707099999999999</v>
+      </c>
+      <c r="T10">
+        <v>0.68718400000000002</v>
+      </c>
+      <c r="U10">
+        <v>0.68583700000000003</v>
+      </c>
+      <c r="V10">
+        <v>0.68660600000000005</v>
+      </c>
+      <c r="W10">
+        <v>0.6603</v>
+      </c>
+      <c r="X10">
+        <v>0.66008</v>
+      </c>
+      <c r="Y10">
+        <v>0.66535500000000003</v>
+      </c>
+      <c r="Z10">
+        <v>0.65881500000000004</v>
+      </c>
+      <c r="AA10">
+        <v>0.65904300000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" s="2">
         <v>0.65326200000000001</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="H11" s="2">
+        <v>0.59245000000000003</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.59089599999999998</v>
+      </c>
       <c r="M11">
         <v>0.72507500000000003</v>
       </c>
@@ -2879,17 +5237,50 @@
       <c r="Q11">
         <v>0.72615700000000005</v>
       </c>
-    </row>
-    <row r="12" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="R11">
+        <v>0.68029399999999995</v>
+      </c>
+      <c r="S11">
+        <v>0.67886400000000002</v>
+      </c>
+      <c r="T11">
+        <v>0.67901100000000003</v>
+      </c>
+      <c r="U11">
+        <v>0.67769500000000005</v>
+      </c>
+      <c r="V11">
+        <v>0.67851099999999998</v>
+      </c>
+      <c r="W11">
+        <v>0.64141099999999995</v>
+      </c>
+      <c r="X11">
+        <v>0.64095400000000002</v>
+      </c>
+      <c r="Y11">
+        <v>0.646065</v>
+      </c>
+      <c r="Z11">
+        <v>0.63974200000000003</v>
+      </c>
+      <c r="AA11">
+        <v>0.64100100000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12" s="2">
         <v>0.65542299999999998</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="H12" s="2">
+        <v>0.59240300000000001</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.59324100000000002</v>
+      </c>
       <c r="M12">
         <v>0.72187800000000002</v>
       </c>
@@ -2905,17 +5296,50 @@
       <c r="Q12">
         <v>0.72271399999999997</v>
       </c>
-    </row>
-    <row r="13" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="R12">
+        <v>0.67614099999999999</v>
+      </c>
+      <c r="S12">
+        <v>0.67462800000000001</v>
+      </c>
+      <c r="T12">
+        <v>0.674732</v>
+      </c>
+      <c r="U12">
+        <v>0.67344999999999999</v>
+      </c>
+      <c r="V12">
+        <v>0.67437199999999997</v>
+      </c>
+      <c r="W12">
+        <v>0.63046599999999997</v>
+      </c>
+      <c r="X12">
+        <v>0.63038099999999997</v>
+      </c>
+      <c r="Y12">
+        <v>0.63440099999999999</v>
+      </c>
+      <c r="Z12">
+        <v>0.62904300000000002</v>
+      </c>
+      <c r="AA12">
+        <v>0.63005699999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="2">
         <v>0.65324499999999996</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="H13" s="2">
+        <v>0.59201700000000002</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.58969700000000003</v>
+      </c>
       <c r="M13">
         <v>0.72021900000000005</v>
       </c>
@@ -2931,17 +5355,50 @@
       <c r="Q13">
         <v>0.72087500000000004</v>
       </c>
-    </row>
-    <row r="14" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="R13">
+        <v>0.67067299999999996</v>
+      </c>
+      <c r="S13">
+        <v>0.66919099999999998</v>
+      </c>
+      <c r="T13">
+        <v>0.66918299999999997</v>
+      </c>
+      <c r="U13">
+        <v>0.66798500000000005</v>
+      </c>
+      <c r="V13">
+        <v>0.66884699999999997</v>
+      </c>
+      <c r="W13">
+        <v>0.62314199999999997</v>
+      </c>
+      <c r="X13">
+        <v>0.62340700000000004</v>
+      </c>
+      <c r="Y13">
+        <v>0.62719100000000005</v>
+      </c>
+      <c r="Z13">
+        <v>0.62204999999999999</v>
+      </c>
+      <c r="AA13">
+        <v>0.62307800000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14" s="2">
         <v>0.65436499999999997</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="H14" s="2">
+        <v>0.59413700000000003</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.59066799999999997</v>
+      </c>
       <c r="M14">
         <v>0.71903700000000004</v>
       </c>
@@ -2957,8 +5414,38 @@
       <c r="Q14">
         <v>0.71956200000000003</v>
       </c>
-    </row>
-    <row r="15" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <v>0.66414099999999998</v>
+      </c>
+      <c r="S14">
+        <v>0.66276800000000002</v>
+      </c>
+      <c r="T14">
+        <v>0.662829</v>
+      </c>
+      <c r="U14">
+        <v>0.661547</v>
+      </c>
+      <c r="V14">
+        <v>0.66240500000000002</v>
+      </c>
+      <c r="W14">
+        <v>0.61705500000000002</v>
+      </c>
+      <c r="X14">
+        <v>0.61746199999999996</v>
+      </c>
+      <c r="Y14">
+        <v>0.62147600000000003</v>
+      </c>
+      <c r="Z14">
+        <v>0.61609899999999995</v>
+      </c>
+      <c r="AA14">
+        <v>0.61723099999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
@@ -2966,9 +5453,14 @@
         <f>AVERAGE(G10:G14)</f>
         <v>0.65389260000000005</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="H15" s="3">
+        <f t="shared" ref="H15:I15" si="0">AVERAGE(H10:H14)</f>
+        <v>0.59281240000000002</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.590947</v>
+      </c>
       <c r="M15">
         <v>0.71775</v>
       </c>
@@ -2984,8 +5476,38 @@
       <c r="Q15">
         <v>0.71817799999999998</v>
       </c>
-    </row>
-    <row r="16" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="R15">
+        <v>0.65922199999999997</v>
+      </c>
+      <c r="S15">
+        <v>0.65793699999999999</v>
+      </c>
+      <c r="T15">
+        <v>0.65810999999999997</v>
+      </c>
+      <c r="U15">
+        <v>0.65668700000000002</v>
+      </c>
+      <c r="V15">
+        <v>0.657717</v>
+      </c>
+      <c r="W15">
+        <v>0.61136699999999999</v>
+      </c>
+      <c r="X15">
+        <v>0.6119</v>
+      </c>
+      <c r="Y15">
+        <v>0.61612999999999996</v>
+      </c>
+      <c r="Z15">
+        <v>0.61045400000000005</v>
+      </c>
+      <c r="AA15">
+        <v>0.61146699999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
@@ -2993,9 +5515,14 @@
         <f>STDEV(G10:G14)</f>
         <v>9.8835383340178137E-4</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="H16" s="3">
+        <f t="shared" ref="H16:I16" si="1">STDEV(H10:H14)</f>
+        <v>8.2840557699716299E-4</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3615408550609145E-3</v>
+      </c>
       <c r="M16">
         <v>0.71587999999999996</v>
       </c>
@@ -3011,8 +5538,38 @@
       <c r="Q16">
         <v>0.716256</v>
       </c>
-    </row>
-    <row r="17" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <v>0.65529499999999996</v>
+      </c>
+      <c r="S16">
+        <v>0.65404300000000004</v>
+      </c>
+      <c r="T16">
+        <v>0.65429499999999996</v>
+      </c>
+      <c r="U16">
+        <v>0.65274399999999999</v>
+      </c>
+      <c r="V16">
+        <v>0.65403100000000003</v>
+      </c>
+      <c r="W16">
+        <v>0.60648000000000002</v>
+      </c>
+      <c r="X16">
+        <v>0.60722399999999999</v>
+      </c>
+      <c r="Y16">
+        <v>0.61145300000000002</v>
+      </c>
+      <c r="Z16">
+        <v>0.60579099999999997</v>
+      </c>
+      <c r="AA16">
+        <v>0.60640400000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M17">
         <v>0.71328199999999997</v>
       </c>
@@ -3028,8 +5585,38 @@
       <c r="Q17">
         <v>0.71366200000000002</v>
       </c>
-    </row>
-    <row r="18" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R17">
+        <v>0.65141700000000002</v>
+      </c>
+      <c r="S17">
+        <v>0.65020999999999995</v>
+      </c>
+      <c r="T17">
+        <v>0.65052699999999997</v>
+      </c>
+      <c r="U17">
+        <v>0.64884799999999998</v>
+      </c>
+      <c r="V17">
+        <v>0.65042199999999994</v>
+      </c>
+      <c r="W17">
+        <v>0.60224699999999998</v>
+      </c>
+      <c r="X17">
+        <v>0.60311099999999995</v>
+      </c>
+      <c r="Y17">
+        <v>0.607178</v>
+      </c>
+      <c r="Z17">
+        <v>0.60170100000000004</v>
+      </c>
+      <c r="AA17">
+        <v>0.60208600000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M18">
         <v>0.71035499999999996</v>
       </c>
@@ -3045,8 +5632,38 @@
       <c r="Q18">
         <v>0.71080100000000002</v>
       </c>
-    </row>
-    <row r="19" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <v>0.64746300000000001</v>
+      </c>
+      <c r="S18">
+        <v>0.64632100000000003</v>
+      </c>
+      <c r="T18">
+        <v>0.646679</v>
+      </c>
+      <c r="U18">
+        <v>0.64493400000000001</v>
+      </c>
+      <c r="V18">
+        <v>0.64677700000000005</v>
+      </c>
+      <c r="W18">
+        <v>0.59848199999999996</v>
+      </c>
+      <c r="X18">
+        <v>0.59932600000000003</v>
+      </c>
+      <c r="Y18">
+        <v>0.60317600000000005</v>
+      </c>
+      <c r="Z18">
+        <v>0.59792699999999999</v>
+      </c>
+      <c r="AA18">
+        <v>0.598329</v>
+      </c>
+    </row>
+    <row r="19" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M19">
         <v>0.70759399999999995</v>
       </c>
@@ -3062,8 +5679,38 @@
       <c r="Q19">
         <v>0.70810700000000004</v>
       </c>
-    </row>
-    <row r="20" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R19">
+        <v>0.64371400000000001</v>
+      </c>
+      <c r="S19">
+        <v>0.64263199999999998</v>
+      </c>
+      <c r="T19">
+        <v>0.64299899999999999</v>
+      </c>
+      <c r="U19">
+        <v>0.64126099999999997</v>
+      </c>
+      <c r="V19">
+        <v>0.64336199999999999</v>
+      </c>
+      <c r="W19">
+        <v>0.59524900000000003</v>
+      </c>
+      <c r="X19">
+        <v>0.59598799999999996</v>
+      </c>
+      <c r="Y19">
+        <v>0.59960000000000002</v>
+      </c>
+      <c r="Z19">
+        <v>0.59462899999999996</v>
+      </c>
+      <c r="AA19">
+        <v>0.59516800000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M20">
         <v>0.70522300000000004</v>
       </c>
@@ -3079,8 +5726,38 @@
       <c r="Q20">
         <v>0.70578099999999999</v>
       </c>
-    </row>
-    <row r="21" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <v>0.640316</v>
+      </c>
+      <c r="S20">
+        <v>0.63928499999999999</v>
+      </c>
+      <c r="T20">
+        <v>0.63963099999999995</v>
+      </c>
+      <c r="U20">
+        <v>0.63793800000000001</v>
+      </c>
+      <c r="V20">
+        <v>0.64032500000000003</v>
+      </c>
+      <c r="W20">
+        <v>0.59274700000000002</v>
+      </c>
+      <c r="X20">
+        <v>0.59338299999999999</v>
+      </c>
+      <c r="Y20">
+        <v>0.596715</v>
+      </c>
+      <c r="Z20">
+        <v>0.59208899999999998</v>
+      </c>
+      <c r="AA20">
+        <v>0.59278900000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M21">
         <v>0.70314600000000005</v>
       </c>
@@ -3096,8 +5773,38 @@
       <c r="Q21">
         <v>0.70376899999999998</v>
       </c>
-    </row>
-    <row r="22" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R21">
+        <v>0.637212</v>
+      </c>
+      <c r="S21">
+        <v>0.63622699999999999</v>
+      </c>
+      <c r="T21">
+        <v>0.63656100000000004</v>
+      </c>
+      <c r="U21">
+        <v>0.63492000000000004</v>
+      </c>
+      <c r="V21">
+        <v>0.63757900000000001</v>
+      </c>
+      <c r="W21">
+        <v>0.59108400000000005</v>
+      </c>
+      <c r="X21">
+        <v>0.59169400000000005</v>
+      </c>
+      <c r="Y21">
+        <v>0.59469300000000003</v>
+      </c>
+      <c r="Z21">
+        <v>0.59044799999999997</v>
+      </c>
+      <c r="AA21">
+        <v>0.59129299999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M22">
         <v>0.70123100000000005</v>
       </c>
@@ -3113,8 +5820,38 @@
       <c r="Q22">
         <v>0.70193799999999995</v>
       </c>
-    </row>
-    <row r="23" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R22">
+        <v>0.63431499999999996</v>
+      </c>
+      <c r="S22">
+        <v>0.63337900000000003</v>
+      </c>
+      <c r="T22">
+        <v>0.63369900000000001</v>
+      </c>
+      <c r="U22">
+        <v>0.63211499999999998</v>
+      </c>
+      <c r="V22">
+        <v>0.63500800000000002</v>
+      </c>
+      <c r="W22">
+        <v>0.59028499999999995</v>
+      </c>
+      <c r="X22">
+        <v>0.59090900000000002</v>
+      </c>
+      <c r="Y22">
+        <v>0.59357199999999999</v>
+      </c>
+      <c r="Z22">
+        <v>0.58969700000000003</v>
+      </c>
+      <c r="AA22">
+        <v>0.59066799999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M23">
         <v>0.69935400000000003</v>
       </c>
@@ -3130,8 +5867,38 @@
       <c r="Q23">
         <v>0.70013999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R23">
+        <v>0.63155899999999998</v>
+      </c>
+      <c r="S23">
+        <v>0.63066699999999998</v>
+      </c>
+      <c r="T23">
+        <v>0.63098100000000001</v>
+      </c>
+      <c r="U23">
+        <v>0.62944999999999995</v>
+      </c>
+      <c r="V23">
+        <v>0.63253800000000004</v>
+      </c>
+      <c r="W23">
+        <v>0.59023300000000001</v>
+      </c>
+      <c r="X23">
+        <v>0.59089599999999998</v>
+      </c>
+      <c r="Y23">
+        <v>0.59324100000000002</v>
+      </c>
+      <c r="Z23">
+        <v>0.58972500000000005</v>
+      </c>
+      <c r="AA23">
+        <v>0.59077999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M24">
         <v>0.697384</v>
       </c>
@@ -3147,8 +5914,38 @@
       <c r="Q24">
         <v>0.69823500000000005</v>
       </c>
-    </row>
-    <row r="25" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R24">
+        <v>0.62891399999999997</v>
+      </c>
+      <c r="S24">
+        <v>0.62805800000000001</v>
+      </c>
+      <c r="T24">
+        <v>0.62836999999999998</v>
+      </c>
+      <c r="U24">
+        <v>0.62689799999999996</v>
+      </c>
+      <c r="V24">
+        <v>0.63012599999999996</v>
+      </c>
+      <c r="W24">
+        <v>0.59073799999999999</v>
+      </c>
+      <c r="X24">
+        <v>0.59143800000000002</v>
+      </c>
+      <c r="Y24">
+        <v>0.59353100000000003</v>
+      </c>
+      <c r="Z24">
+        <v>0.59031999999999996</v>
+      </c>
+      <c r="AA24">
+        <v>0.59143199999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M25">
         <v>0.69523199999999996</v>
       </c>
@@ -3164,8 +5961,38 @@
       <c r="Q25">
         <v>0.69614299999999996</v>
       </c>
-    </row>
-    <row r="26" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R25">
+        <v>0.62639</v>
+      </c>
+      <c r="S25">
+        <v>0.62555400000000005</v>
+      </c>
+      <c r="T25">
+        <v>0.62586900000000001</v>
+      </c>
+      <c r="U25">
+        <v>0.62446000000000002</v>
+      </c>
+      <c r="V25">
+        <v>0.627772</v>
+      </c>
+      <c r="W25">
+        <v>0.59160999999999997</v>
+      </c>
+      <c r="X25">
+        <v>0.59233400000000003</v>
+      </c>
+      <c r="Y25">
+        <v>0.59425600000000001</v>
+      </c>
+      <c r="Z25">
+        <v>0.59126699999999999</v>
+      </c>
+      <c r="AA25">
+        <v>0.592445</v>
+      </c>
+    </row>
+    <row r="26" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M26">
         <v>0.69287900000000002</v>
       </c>
@@ -3181,8 +6008,38 @@
       <c r="Q26">
         <v>0.69383399999999995</v>
       </c>
-    </row>
-    <row r="27" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R26">
+        <v>0.62400699999999998</v>
+      </c>
+      <c r="S26">
+        <v>0.62318899999999999</v>
+      </c>
+      <c r="T26">
+        <v>0.62350899999999998</v>
+      </c>
+      <c r="U26">
+        <v>0.62215299999999996</v>
+      </c>
+      <c r="V26">
+        <v>0.62550300000000003</v>
+      </c>
+      <c r="W26">
+        <v>0.59270999999999996</v>
+      </c>
+      <c r="X26">
+        <v>0.59343299999999999</v>
+      </c>
+      <c r="Y26">
+        <v>0.595248</v>
+      </c>
+      <c r="Z26">
+        <v>0.59241500000000002</v>
+      </c>
+      <c r="AA26">
+        <v>0.59366099999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M27">
         <v>0.69035599999999997</v>
       </c>
@@ -3198,8 +6055,38 @@
       <c r="Q27">
         <v>0.69135800000000003</v>
       </c>
-    </row>
-    <row r="28" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R27">
+        <v>0.62178900000000004</v>
+      </c>
+      <c r="S27">
+        <v>0.62099199999999999</v>
+      </c>
+      <c r="T27">
+        <v>0.62131700000000001</v>
+      </c>
+      <c r="U27">
+        <v>0.620004</v>
+      </c>
+      <c r="V27">
+        <v>0.62336000000000003</v>
+      </c>
+      <c r="W27">
+        <v>0.59393399999999996</v>
+      </c>
+      <c r="X27">
+        <v>0.59463200000000005</v>
+      </c>
+      <c r="Y27">
+        <v>0.59638500000000005</v>
+      </c>
+      <c r="Z27">
+        <v>0.59366399999999997</v>
+      </c>
+      <c r="AA27">
+        <v>0.59497500000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M28">
         <v>0.68779699999999999</v>
       </c>
@@ -3215,8 +6102,38 @@
       <c r="Q28">
         <v>0.688801</v>
       </c>
-    </row>
-    <row r="29" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R28">
+        <v>0.61975100000000005</v>
+      </c>
+      <c r="S28">
+        <v>0.61897400000000002</v>
+      </c>
+      <c r="T28">
+        <v>0.61930300000000005</v>
+      </c>
+      <c r="U28">
+        <v>0.61801899999999999</v>
+      </c>
+      <c r="V28">
+        <v>0.62135700000000005</v>
+      </c>
+      <c r="W28">
+        <v>0.59521900000000005</v>
+      </c>
+      <c r="X28">
+        <v>0.59587199999999996</v>
+      </c>
+      <c r="Y28">
+        <v>0.59758800000000001</v>
+      </c>
+      <c r="Z28">
+        <v>0.59494599999999997</v>
+      </c>
+      <c r="AA28">
+        <v>0.59632700000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M29">
         <v>0.68527800000000005</v>
       </c>
@@ -3232,8 +6149,38 @@
       <c r="Q29">
         <v>0.68626600000000004</v>
       </c>
-    </row>
-    <row r="30" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R29">
+        <v>0.61788600000000005</v>
+      </c>
+      <c r="S29">
+        <v>0.61711899999999997</v>
+      </c>
+      <c r="T29">
+        <v>0.61745499999999998</v>
+      </c>
+      <c r="U29">
+        <v>0.61619599999999997</v>
+      </c>
+      <c r="V29">
+        <v>0.619502</v>
+      </c>
+      <c r="W29">
+        <v>0.59652400000000005</v>
+      </c>
+      <c r="X29">
+        <v>0.59712399999999999</v>
+      </c>
+      <c r="Y29">
+        <v>0.59882299999999999</v>
+      </c>
+      <c r="Z29">
+        <v>0.59623899999999996</v>
+      </c>
+      <c r="AA29">
+        <v>0.59767999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M30">
         <v>0.68285600000000002</v>
       </c>
@@ -3249,8 +6196,38 @@
       <c r="Q30">
         <v>0.68381400000000003</v>
       </c>
-    </row>
-    <row r="31" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <v>0.61617500000000003</v>
+      </c>
+      <c r="S30">
+        <v>0.61541500000000005</v>
+      </c>
+      <c r="T30">
+        <v>0.61575199999999997</v>
+      </c>
+      <c r="U30">
+        <v>0.61452399999999996</v>
+      </c>
+      <c r="V30">
+        <v>0.61778900000000003</v>
+      </c>
+      <c r="W30">
+        <v>0.597827</v>
+      </c>
+      <c r="X30">
+        <v>0.59836800000000001</v>
+      </c>
+      <c r="Y30">
+        <v>0.60006300000000001</v>
+      </c>
+      <c r="Z30">
+        <v>0.597522</v>
+      </c>
+      <c r="AA30">
+        <v>0.59902</v>
+      </c>
+    </row>
+    <row r="31" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M31">
         <v>0.680558</v>
       </c>
@@ -3266,8 +6243,38 @@
       <c r="Q31">
         <v>0.68147500000000005</v>
       </c>
-    </row>
-    <row r="32" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R31">
+        <v>0.61459699999999995</v>
+      </c>
+      <c r="S31">
+        <v>0.61384499999999997</v>
+      </c>
+      <c r="T31">
+        <v>0.61417999999999995</v>
+      </c>
+      <c r="U31">
+        <v>0.612981</v>
+      </c>
+      <c r="V31">
+        <v>0.616205</v>
+      </c>
+      <c r="W31">
+        <v>0.59911700000000001</v>
+      </c>
+      <c r="X31">
+        <v>0.59959899999999999</v>
+      </c>
+      <c r="Y31">
+        <v>0.60129299999999997</v>
+      </c>
+      <c r="Z31">
+        <v>0.59878299999999995</v>
+      </c>
+      <c r="AA31">
+        <v>0.60033499999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M32">
         <v>0.67836799999999997</v>
       </c>
@@ -3283,8 +6290,38 @@
       <c r="Q32">
         <v>0.67926299999999995</v>
       </c>
-    </row>
-    <row r="33" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R32">
+        <v>0.61313600000000001</v>
+      </c>
+      <c r="S32">
+        <v>0.61238800000000004</v>
+      </c>
+      <c r="T32">
+        <v>0.61271900000000001</v>
+      </c>
+      <c r="U32">
+        <v>0.61155199999999998</v>
+      </c>
+      <c r="V32">
+        <v>0.61473500000000003</v>
+      </c>
+      <c r="W32">
+        <v>0.60038499999999995</v>
+      </c>
+      <c r="X32">
+        <v>0.60081300000000004</v>
+      </c>
+      <c r="Y32">
+        <v>0.60250400000000004</v>
+      </c>
+      <c r="Z32">
+        <v>0.60002100000000003</v>
+      </c>
+      <c r="AA32">
+        <v>0.60161900000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M33">
         <v>0.67628999999999995</v>
       </c>
@@ -3300,8 +6337,38 @@
       <c r="Q33">
         <v>0.67716399999999999</v>
       </c>
-    </row>
-    <row r="34" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R33">
+        <v>0.61177000000000004</v>
+      </c>
+      <c r="S33">
+        <v>0.61102599999999996</v>
+      </c>
+      <c r="T33">
+        <v>0.61134900000000003</v>
+      </c>
+      <c r="U33">
+        <v>0.61021700000000001</v>
+      </c>
+      <c r="V33">
+        <v>0.61336599999999997</v>
+      </c>
+      <c r="W33">
+        <v>0.60162800000000005</v>
+      </c>
+      <c r="X33">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="Y33">
+        <v>0.60369399999999995</v>
+      </c>
+      <c r="Z33">
+        <v>0.60123199999999999</v>
+      </c>
+      <c r="AA33">
+        <v>0.60286799999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M34">
         <v>0.674315</v>
       </c>
@@ -3317,8 +6384,38 @@
       <c r="Q34">
         <v>0.67516699999999996</v>
       </c>
-    </row>
-    <row r="35" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R34">
+        <v>0.61048599999999997</v>
+      </c>
+      <c r="S34">
+        <v>0.60974700000000004</v>
+      </c>
+      <c r="T34">
+        <v>0.61005600000000004</v>
+      </c>
+      <c r="U34">
+        <v>0.60896399999999995</v>
+      </c>
+      <c r="V34">
+        <v>0.61207999999999996</v>
+      </c>
+      <c r="W34">
+        <v>0.60284000000000004</v>
+      </c>
+      <c r="X34">
+        <v>0.603159</v>
+      </c>
+      <c r="Y34">
+        <v>0.60485800000000001</v>
+      </c>
+      <c r="Z34">
+        <v>0.60241400000000001</v>
+      </c>
+      <c r="AA34">
+        <v>0.60408200000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M35">
         <v>0.67243799999999998</v>
       </c>
@@ -3334,8 +6431,38 @@
       <c r="Q35">
         <v>0.67327400000000004</v>
       </c>
-    </row>
-    <row r="36" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R35">
+        <v>0.60927200000000004</v>
+      </c>
+      <c r="S35">
+        <v>0.60853599999999997</v>
+      </c>
+      <c r="T35">
+        <v>0.60882999999999998</v>
+      </c>
+      <c r="U35">
+        <v>0.60777700000000001</v>
+      </c>
+      <c r="V35">
+        <v>0.61086600000000002</v>
+      </c>
+      <c r="W35">
+        <v>0.60402199999999995</v>
+      </c>
+      <c r="X35">
+        <v>0.60429100000000002</v>
+      </c>
+      <c r="Y35">
+        <v>0.60599400000000003</v>
+      </c>
+      <c r="Z35">
+        <v>0.60356600000000005</v>
+      </c>
+      <c r="AA35">
+        <v>0.60526100000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M36">
         <v>0.67066499999999996</v>
       </c>
@@ -3351,8 +6478,38 @@
       <c r="Q36">
         <v>0.67148600000000003</v>
       </c>
-    </row>
-    <row r="37" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <v>0.60811999999999999</v>
+      </c>
+      <c r="S36">
+        <v>0.60738300000000001</v>
+      </c>
+      <c r="T36">
+        <v>0.60766200000000004</v>
+      </c>
+      <c r="U36">
+        <v>0.60664899999999999</v>
+      </c>
+      <c r="V36">
+        <v>0.60971600000000004</v>
+      </c>
+      <c r="W36">
+        <v>0.60517200000000004</v>
+      </c>
+      <c r="X36">
+        <v>0.60539299999999996</v>
+      </c>
+      <c r="Y36">
+        <v>0.60709900000000006</v>
+      </c>
+      <c r="Z36">
+        <v>0.60468699999999997</v>
+      </c>
+      <c r="AA36">
+        <v>0.60640499999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M37">
         <v>0.66899399999999998</v>
       </c>
@@ -3368,8 +6525,38 @@
       <c r="Q37">
         <v>0.66981299999999999</v>
       </c>
-    </row>
-    <row r="38" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R37">
+        <v>0.60702100000000003</v>
+      </c>
+      <c r="S37">
+        <v>0.60628099999999996</v>
+      </c>
+      <c r="T37">
+        <v>0.60654799999999998</v>
+      </c>
+      <c r="U37">
+        <v>0.60557399999999995</v>
+      </c>
+      <c r="V37">
+        <v>0.60862099999999997</v>
+      </c>
+      <c r="W37">
+        <v>0.60629100000000002</v>
+      </c>
+      <c r="X37">
+        <v>0.60646500000000003</v>
+      </c>
+      <c r="Y37">
+        <v>0.60817500000000002</v>
+      </c>
+      <c r="Z37">
+        <v>0.60577700000000001</v>
+      </c>
+      <c r="AA37">
+        <v>0.607518</v>
+      </c>
+    </row>
+    <row r="38" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M38">
         <v>0.66742699999999999</v>
       </c>
@@ -3385,8 +6572,38 @@
       <c r="Q38">
         <v>0.66824899999999998</v>
       </c>
-    </row>
-    <row r="39" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R38">
+        <v>0.60597100000000004</v>
+      </c>
+      <c r="S38">
+        <v>0.60522900000000002</v>
+      </c>
+      <c r="T38">
+        <v>0.60548199999999996</v>
+      </c>
+      <c r="U38">
+        <v>0.60454799999999997</v>
+      </c>
+      <c r="V38">
+        <v>0.60757499999999998</v>
+      </c>
+      <c r="W38">
+        <v>0.60738000000000003</v>
+      </c>
+      <c r="X38">
+        <v>0.60750800000000005</v>
+      </c>
+      <c r="Y38">
+        <v>0.60921700000000001</v>
+      </c>
+      <c r="Z38">
+        <v>0.60683799999999999</v>
+      </c>
+      <c r="AA38">
+        <v>0.60860000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M39">
         <v>0.66595599999999999</v>
       </c>
@@ -3402,8 +6619,38 @@
       <c r="Q39">
         <v>0.66678899999999997</v>
       </c>
-    </row>
-    <row r="40" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R39">
+        <v>0.60496700000000003</v>
+      </c>
+      <c r="S39">
+        <v>0.60422100000000001</v>
+      </c>
+      <c r="T39">
+        <v>0.60446200000000005</v>
+      </c>
+      <c r="U39">
+        <v>0.60356699999999996</v>
+      </c>
+      <c r="V39">
+        <v>0.60657300000000003</v>
+      </c>
+      <c r="W39">
+        <v>0.60843999999999998</v>
+      </c>
+      <c r="X39">
+        <v>0.60851999999999995</v>
+      </c>
+      <c r="Y39">
+        <v>0.61022799999999999</v>
+      </c>
+      <c r="Z39">
+        <v>0.60787000000000002</v>
+      </c>
+      <c r="AA39">
+        <v>0.60965100000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M40">
         <v>0.66458200000000001</v>
       </c>
@@ -3419,8 +6666,38 @@
       <c r="Q40">
         <v>0.66542500000000004</v>
       </c>
-    </row>
-    <row r="41" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R40">
+        <v>0.60400500000000001</v>
+      </c>
+      <c r="S40">
+        <v>0.60325600000000001</v>
+      </c>
+      <c r="T40">
+        <v>0.60348500000000005</v>
+      </c>
+      <c r="U40">
+        <v>0.60263</v>
+      </c>
+      <c r="V40">
+        <v>0.60561299999999996</v>
+      </c>
+      <c r="W40">
+        <v>0.60947099999999998</v>
+      </c>
+      <c r="X40">
+        <v>0.60950099999999996</v>
+      </c>
+      <c r="Y40">
+        <v>0.61120799999999997</v>
+      </c>
+      <c r="Z40">
+        <v>0.608873</v>
+      </c>
+      <c r="AA40">
+        <v>0.61067300000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M41">
         <v>0.66329099999999996</v>
       </c>
@@ -3436,8 +6713,38 @@
       <c r="Q41">
         <v>0.66414899999999999</v>
       </c>
-    </row>
-    <row r="42" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R41">
+        <v>0.60308099999999998</v>
+      </c>
+      <c r="S41">
+        <v>0.60233599999999998</v>
+      </c>
+      <c r="T41">
+        <v>0.60255099999999995</v>
+      </c>
+      <c r="U41">
+        <v>0.60173600000000005</v>
+      </c>
+      <c r="V41">
+        <v>0.60469300000000004</v>
+      </c>
+      <c r="W41">
+        <v>0.61047399999999996</v>
+      </c>
+      <c r="X41">
+        <v>0.61045400000000005</v>
+      </c>
+      <c r="Y41">
+        <v>0.61215900000000001</v>
+      </c>
+      <c r="Z41">
+        <v>0.60984799999999995</v>
+      </c>
+      <c r="AA41">
+        <v>0.61166799999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M42">
         <v>0.66208400000000001</v>
       </c>
@@ -3453,8 +6760,38 @@
       <c r="Q42">
         <v>0.66295599999999999</v>
       </c>
-    </row>
-    <row r="43" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R42">
+        <v>0.60219699999999998</v>
+      </c>
+      <c r="S42">
+        <v>0.60145999999999999</v>
+      </c>
+      <c r="T42">
+        <v>0.60165800000000003</v>
+      </c>
+      <c r="U42">
+        <v>0.60088200000000003</v>
+      </c>
+      <c r="V42">
+        <v>0.60380999999999996</v>
+      </c>
+      <c r="W42">
+        <v>0.61144900000000002</v>
+      </c>
+      <c r="X42">
+        <v>0.61137799999999998</v>
+      </c>
+      <c r="Y42">
+        <v>0.61308200000000002</v>
+      </c>
+      <c r="Z42">
+        <v>0.61079600000000001</v>
+      </c>
+      <c r="AA42">
+        <v>0.61263500000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M43">
         <v>0.66095800000000005</v>
       </c>
@@ -3470,8 +6807,38 @@
       <c r="Q43">
         <v>0.66184399999999999</v>
       </c>
-    </row>
-    <row r="44" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R43">
+        <v>0.601352</v>
+      </c>
+      <c r="S43">
+        <v>0.60062499999999996</v>
+      </c>
+      <c r="T43">
+        <v>0.60080599999999995</v>
+      </c>
+      <c r="U43">
+        <v>0.60006700000000002</v>
+      </c>
+      <c r="V43">
+        <v>0.602962</v>
+      </c>
+      <c r="W43">
+        <v>0.61239900000000003</v>
+      </c>
+      <c r="X43">
+        <v>0.61227600000000004</v>
+      </c>
+      <c r="Y43">
+        <v>0.61397900000000005</v>
+      </c>
+      <c r="Z43">
+        <v>0.61171799999999998</v>
+      </c>
+      <c r="AA43">
+        <v>0.61357499999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M44">
         <v>0.65990499999999996</v>
       </c>
@@ -3487,8 +6854,38 @@
       <c r="Q44">
         <v>0.66081500000000004</v>
       </c>
-    </row>
-    <row r="45" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R44">
+        <v>0.60054600000000002</v>
+      </c>
+      <c r="S44">
+        <v>0.599831</v>
+      </c>
+      <c r="T44">
+        <v>0.59999499999999995</v>
+      </c>
+      <c r="U44">
+        <v>0.59928999999999999</v>
+      </c>
+      <c r="V44">
+        <v>0.60214800000000002</v>
+      </c>
+      <c r="W44">
+        <v>0.61332200000000003</v>
+      </c>
+      <c r="X44">
+        <v>0.613147</v>
+      </c>
+      <c r="Y44">
+        <v>0.61485000000000001</v>
+      </c>
+      <c r="Z44">
+        <v>0.61261500000000002</v>
+      </c>
+      <c r="AA44">
+        <v>0.61448999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M45">
         <v>0.65892899999999999</v>
       </c>
@@ -3504,8 +6901,38 @@
       <c r="Q45">
         <v>0.65986199999999995</v>
       </c>
-    </row>
-    <row r="46" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R45">
+        <v>0.599777</v>
+      </c>
+      <c r="S45">
+        <v>0.599078</v>
+      </c>
+      <c r="T45">
+        <v>0.59922399999999998</v>
+      </c>
+      <c r="U45">
+        <v>0.59855100000000006</v>
+      </c>
+      <c r="V45">
+        <v>0.60136800000000001</v>
+      </c>
+      <c r="W45">
+        <v>0.61422100000000002</v>
+      </c>
+      <c r="X45">
+        <v>0.61399300000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0.61569600000000002</v>
+      </c>
+      <c r="Z45">
+        <v>0.61348899999999995</v>
+      </c>
+      <c r="AA45">
+        <v>0.61537900000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M46">
         <v>0.65802799999999995</v>
       </c>
@@ -3521,8 +6948,38 @@
       <c r="Q46">
         <v>0.65898699999999999</v>
       </c>
-    </row>
-    <row r="47" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R46">
+        <v>0.599047</v>
+      </c>
+      <c r="S46">
+        <v>0.59836500000000004</v>
+      </c>
+      <c r="T46">
+        <v>0.59849300000000005</v>
+      </c>
+      <c r="U46">
+        <v>0.59784800000000005</v>
+      </c>
+      <c r="V46">
+        <v>0.60062300000000002</v>
+      </c>
+      <c r="W46">
+        <v>0.61509599999999998</v>
+      </c>
+      <c r="X46">
+        <v>0.61481399999999997</v>
+      </c>
+      <c r="Y46">
+        <v>0.61651900000000004</v>
+      </c>
+      <c r="Z46">
+        <v>0.61433800000000005</v>
+      </c>
+      <c r="AA46">
+        <v>0.61624500000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M47">
         <v>0.65720299999999998</v>
       </c>
@@ -3538,8 +6995,38 @@
       <c r="Q47">
         <v>0.65819099999999997</v>
       </c>
-    </row>
-    <row r="48" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R47">
+        <v>0.59835700000000003</v>
+      </c>
+      <c r="S47">
+        <v>0.59769300000000003</v>
+      </c>
+      <c r="T47">
+        <v>0.59780299999999997</v>
+      </c>
+      <c r="U47">
+        <v>0.59718099999999996</v>
+      </c>
+      <c r="V47">
+        <v>0.59991300000000003</v>
+      </c>
+      <c r="W47">
+        <v>0.61595</v>
+      </c>
+      <c r="X47">
+        <v>0.61561399999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0.61732100000000001</v>
+      </c>
+      <c r="Z47">
+        <v>0.61516400000000004</v>
+      </c>
+      <c r="AA47">
+        <v>0.61708799999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M48">
         <v>0.65646099999999996</v>
       </c>
@@ -3555,8 +7042,38 @@
       <c r="Q48">
         <v>0.65747</v>
       </c>
-    </row>
-    <row r="49" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R48">
+        <v>0.59770699999999999</v>
+      </c>
+      <c r="S48">
+        <v>0.59705799999999998</v>
+      </c>
+      <c r="T48">
+        <v>0.59715099999999999</v>
+      </c>
+      <c r="U48">
+        <v>0.59655000000000002</v>
+      </c>
+      <c r="V48">
+        <v>0.59923700000000002</v>
+      </c>
+      <c r="W48">
+        <v>0.61678100000000002</v>
+      </c>
+      <c r="X48">
+        <v>0.61639299999999997</v>
+      </c>
+      <c r="Y48">
+        <v>0.61810200000000004</v>
+      </c>
+      <c r="Z48">
+        <v>0.61596899999999999</v>
+      </c>
+      <c r="AA48">
+        <v>0.61790900000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M49">
         <v>0.65579299999999996</v>
       </c>
@@ -3572,8 +7089,38 @@
       <c r="Q49">
         <v>0.65682499999999999</v>
       </c>
-    </row>
-    <row r="50" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R49">
+        <v>0.59709599999999996</v>
+      </c>
+      <c r="S49">
+        <v>0.59645999999999999</v>
+      </c>
+      <c r="T49">
+        <v>0.59653800000000001</v>
+      </c>
+      <c r="U49">
+        <v>0.59595600000000004</v>
+      </c>
+      <c r="V49">
+        <v>0.59859799999999996</v>
+      </c>
+      <c r="W49">
+        <v>0.61759200000000003</v>
+      </c>
+      <c r="X49">
+        <v>0.61715100000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0.61886200000000002</v>
+      </c>
+      <c r="Z49">
+        <v>0.61675100000000005</v>
+      </c>
+      <c r="AA49">
+        <v>0.61870999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M50">
         <v>0.65520599999999996</v>
       </c>
@@ -3589,8 +7136,38 @@
       <c r="Q50">
         <v>0.65625299999999998</v>
       </c>
-    </row>
-    <row r="51" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R50">
+        <v>0.59652400000000005</v>
+      </c>
+      <c r="S50">
+        <v>0.59589800000000004</v>
+      </c>
+      <c r="T50">
+        <v>0.59596499999999997</v>
+      </c>
+      <c r="U50">
+        <v>0.59540099999999996</v>
+      </c>
+      <c r="V50">
+        <v>0.59799500000000005</v>
+      </c>
+      <c r="W50">
+        <v>0.61838199999999999</v>
+      </c>
+      <c r="X50">
+        <v>0.61788900000000002</v>
+      </c>
+      <c r="Y50">
+        <v>0.61960199999999999</v>
+      </c>
+      <c r="Z50">
+        <v>0.61751400000000001</v>
+      </c>
+      <c r="AA50">
+        <v>0.61949100000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M51">
         <v>0.65470200000000001</v>
       </c>
@@ -3606,8 +7183,38 @@
       <c r="Q51">
         <v>0.65576000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R51">
+        <v>0.59599100000000005</v>
+      </c>
+      <c r="S51">
+        <v>0.59537200000000001</v>
+      </c>
+      <c r="T51">
+        <v>0.59542899999999999</v>
+      </c>
+      <c r="U51">
+        <v>0.59488399999999997</v>
+      </c>
+      <c r="V51">
+        <v>0.59742899999999999</v>
+      </c>
+      <c r="W51">
+        <v>0.61915399999999998</v>
+      </c>
+      <c r="X51">
+        <v>0.61860700000000002</v>
+      </c>
+      <c r="Y51">
+        <v>0.62032200000000004</v>
+      </c>
+      <c r="Z51">
+        <v>0.61825600000000003</v>
+      </c>
+      <c r="AA51">
+        <v>0.62025200000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M52">
         <v>0.65427000000000002</v>
       </c>
@@ -3623,8 +7230,38 @@
       <c r="Q52">
         <v>0.65534199999999998</v>
       </c>
-    </row>
-    <row r="53" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R52">
+        <v>0.59549700000000005</v>
+      </c>
+      <c r="S52">
+        <v>0.59488399999999997</v>
+      </c>
+      <c r="T52">
+        <v>0.59493099999999999</v>
+      </c>
+      <c r="U52">
+        <v>0.59440300000000001</v>
+      </c>
+      <c r="V52">
+        <v>0.59689800000000004</v>
+      </c>
+      <c r="W52">
+        <v>0.61990599999999996</v>
+      </c>
+      <c r="X52">
+        <v>0.61930799999999997</v>
+      </c>
+      <c r="Y52">
+        <v>0.62102400000000002</v>
+      </c>
+      <c r="Z52">
+        <v>0.618981</v>
+      </c>
+      <c r="AA52">
+        <v>0.62099400000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M53">
         <v>0.653914</v>
       </c>
@@ -3640,8 +7277,38 @@
       <c r="Q53">
         <v>0.65499700000000005</v>
       </c>
-    </row>
-    <row r="54" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R53">
+        <v>0.59504199999999996</v>
+      </c>
+      <c r="S53">
+        <v>0.59443199999999996</v>
+      </c>
+      <c r="T53">
+        <v>0.594468</v>
+      </c>
+      <c r="U53">
+        <v>0.59396000000000004</v>
+      </c>
+      <c r="V53">
+        <v>0.59640199999999999</v>
+      </c>
+      <c r="W53">
+        <v>0.62063999999999997</v>
+      </c>
+      <c r="X53">
+        <v>0.61999199999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0.62170899999999996</v>
+      </c>
+      <c r="Z53">
+        <v>0.61968800000000002</v>
+      </c>
+      <c r="AA53">
+        <v>0.62171799999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M54">
         <v>0.65363300000000002</v>
       </c>
@@ -3657,8 +7324,38 @@
       <c r="Q54">
         <v>0.65472799999999998</v>
       </c>
-    </row>
-    <row r="55" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R54">
+        <v>0.59462300000000001</v>
+      </c>
+      <c r="S54">
+        <v>0.59401599999999999</v>
+      </c>
+      <c r="T54">
+        <v>0.59403899999999998</v>
+      </c>
+      <c r="U54">
+        <v>0.59355199999999997</v>
+      </c>
+      <c r="V54">
+        <v>0.59594100000000005</v>
+      </c>
+      <c r="W54">
+        <v>0.62135700000000005</v>
+      </c>
+      <c r="X54">
+        <v>0.62065800000000004</v>
+      </c>
+      <c r="Y54">
+        <v>0.62237799999999999</v>
+      </c>
+      <c r="Z54">
+        <v>0.62037600000000004</v>
+      </c>
+      <c r="AA54">
+        <v>0.62242399999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M55">
         <v>0.65342</v>
       </c>
@@ -3674,8 +7371,38 @@
       <c r="Q55">
         <v>0.65454000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R55">
+        <v>0.59424100000000002</v>
+      </c>
+      <c r="S55">
+        <v>0.59363600000000005</v>
+      </c>
+      <c r="T55">
+        <v>0.59364600000000001</v>
+      </c>
+      <c r="U55">
+        <v>0.59317799999999998</v>
+      </c>
+      <c r="V55">
+        <v>0.59551299999999996</v>
+      </c>
+      <c r="W55">
+        <v>0.62205699999999997</v>
+      </c>
+      <c r="X55">
+        <v>0.621309</v>
+      </c>
+      <c r="Y55">
+        <v>0.62302999999999997</v>
+      </c>
+      <c r="Z55">
+        <v>0.62104700000000002</v>
+      </c>
+      <c r="AA55">
+        <v>0.623112</v>
+      </c>
+    </row>
+    <row r="56" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M56">
         <v>0.65327500000000005</v>
       </c>
@@ -3691,8 +7418,38 @@
       <c r="Q56">
         <v>0.65442100000000003</v>
       </c>
-    </row>
-    <row r="57" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R56">
+        <v>0.593893</v>
+      </c>
+      <c r="S56">
+        <v>0.59328999999999998</v>
+      </c>
+      <c r="T56">
+        <v>0.59328599999999998</v>
+      </c>
+      <c r="U56">
+        <v>0.592839</v>
+      </c>
+      <c r="V56">
+        <v>0.59511899999999995</v>
+      </c>
+      <c r="W56">
+        <v>0.62274200000000002</v>
+      </c>
+      <c r="X56">
+        <v>0.62194499999999997</v>
+      </c>
+      <c r="Y56">
+        <v>0.623668</v>
+      </c>
+      <c r="Z56">
+        <v>0.62170300000000001</v>
+      </c>
+      <c r="AA56">
+        <v>0.62378299999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M57">
         <v>0.65319400000000005</v>
       </c>
@@ -3708,8 +7465,38 @@
       <c r="Q57">
         <v>0.65436499999999997</v>
       </c>
-    </row>
-    <row r="58" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R57">
+        <v>0.59358</v>
+      </c>
+      <c r="S57">
+        <v>0.59297800000000001</v>
+      </c>
+      <c r="T57">
+        <v>0.59296000000000004</v>
+      </c>
+      <c r="U57">
+        <v>0.59253299999999998</v>
+      </c>
+      <c r="V57">
+        <v>0.59475999999999996</v>
+      </c>
+      <c r="W57">
+        <v>0.62341100000000005</v>
+      </c>
+      <c r="X57">
+        <v>0.62256599999999995</v>
+      </c>
+      <c r="Y57">
+        <v>0.62429100000000004</v>
+      </c>
+      <c r="Z57">
+        <v>0.62234400000000001</v>
+      </c>
+      <c r="AA57">
+        <v>0.62443899999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M58">
         <v>0.65316799999999997</v>
       </c>
@@ -3725,8 +7512,38 @@
       <c r="Q58">
         <v>0.654366</v>
       </c>
-    </row>
-    <row r="59" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="R58">
+        <v>0.593302</v>
+      </c>
+      <c r="S58">
+        <v>0.59269799999999995</v>
+      </c>
+      <c r="T58">
+        <v>0.59266600000000003</v>
+      </c>
+      <c r="U58">
+        <v>0.59225899999999998</v>
+      </c>
+      <c r="V58">
+        <v>0.59443199999999996</v>
+      </c>
+      <c r="W58">
+        <v>0.62406499999999998</v>
+      </c>
+      <c r="X58">
+        <v>0.62317299999999998</v>
+      </c>
+      <c r="Y58">
+        <v>0.62489899999999998</v>
+      </c>
+      <c r="Z58">
+        <v>0.62297000000000002</v>
+      </c>
+      <c r="AA58">
+        <v>0.62507999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M59">
         <v>0.65319700000000003</v>
       </c>
@@ -3742,26 +7559,86 @@
       <c r="Q59">
         <v>0.65441899999999997</v>
       </c>
+      <c r="R59">
+        <v>0.593055</v>
+      </c>
+      <c r="S59">
+        <v>0.59245000000000003</v>
+      </c>
+      <c r="T59">
+        <v>0.59240300000000001</v>
+      </c>
+      <c r="U59">
+        <v>0.59201700000000002</v>
+      </c>
+      <c r="V59">
+        <v>0.59413700000000003</v>
+      </c>
+      <c r="W59">
+        <v>0.62470499999999995</v>
+      </c>
+      <c r="X59">
+        <v>0.62376699999999996</v>
+      </c>
+      <c r="Y59">
+        <v>0.62549299999999997</v>
+      </c>
+      <c r="Z59">
+        <v>0.62358199999999997</v>
+      </c>
+      <c r="AA59">
+        <v>0.62570599999999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F8:I8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M9:M59">
-    <cfRule type="top10" dxfId="29" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="33" priority="30" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N59">
-    <cfRule type="top10" dxfId="28" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="29" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:O59">
-    <cfRule type="top10" dxfId="27" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="28" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P59">
-    <cfRule type="top10" dxfId="26" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="27" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q59">
-    <cfRule type="top10" dxfId="25" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="26" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W9:W59">
+    <cfRule type="top10" dxfId="28" priority="20" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9:X59">
+    <cfRule type="top10" dxfId="27" priority="19" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y9:Y59">
+    <cfRule type="top10" dxfId="26" priority="18" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9:Z59">
+    <cfRule type="top10" dxfId="25" priority="17" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9:AA59">
+    <cfRule type="top10" dxfId="24" priority="16" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9:R59">
+    <cfRule type="top10" dxfId="23" priority="10" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9:S59">
+    <cfRule type="top10" dxfId="22" priority="9" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9:T59">
+    <cfRule type="top10" dxfId="21" priority="8" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:U59">
+    <cfRule type="top10" dxfId="20" priority="7" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V9:V59">
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3771,8 +7648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z69"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3782,79 +7659,79 @@
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>41</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>42</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>44</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>45</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>47</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.2">
@@ -7903,7 +11780,7 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2">
         <f>AVERAGE(C63:C67)</f>
@@ -7928,7 +11805,7 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2">
         <f>STDEV(C63:C67)</f>
@@ -7954,79 +11831,79 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:B53">
-    <cfRule type="top10" dxfId="24" priority="50" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="104" priority="50" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C53">
-    <cfRule type="top10" dxfId="23" priority="49" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="103" priority="49" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D53">
-    <cfRule type="top10" dxfId="22" priority="48" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="102" priority="48" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E53">
-    <cfRule type="top10" dxfId="21" priority="47" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="101" priority="47" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F53">
-    <cfRule type="top10" dxfId="20" priority="46" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="100" priority="46" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G53">
-    <cfRule type="top10" dxfId="19" priority="45" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="99" priority="45" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H53">
-    <cfRule type="top10" dxfId="18" priority="44" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="98" priority="44" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I53">
-    <cfRule type="top10" dxfId="17" priority="43" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="97" priority="43" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J53">
-    <cfRule type="top10" dxfId="16" priority="42" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="96" priority="42" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K53">
-    <cfRule type="top10" dxfId="15" priority="41" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="95" priority="41" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L53">
-    <cfRule type="top10" dxfId="14" priority="40" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="94" priority="40" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M53">
-    <cfRule type="top10" dxfId="13" priority="39" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="93" priority="39" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N53">
-    <cfRule type="top10" dxfId="12" priority="38" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="92" priority="38" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O53">
-    <cfRule type="top10" dxfId="11" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="91" priority="37" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P53">
-    <cfRule type="top10" dxfId="10" priority="36" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="90" priority="36" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q53">
-    <cfRule type="top10" dxfId="9" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="89" priority="35" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R53">
-    <cfRule type="top10" dxfId="8" priority="34" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="88" priority="34" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S53">
-    <cfRule type="top10" dxfId="7" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="87" priority="33" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T53">
-    <cfRule type="top10" dxfId="6" priority="32" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="86" priority="32" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U53">
-    <cfRule type="top10" dxfId="5" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="85" priority="31" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V53">
-    <cfRule type="top10" dxfId="4" priority="30" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="84" priority="30" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W53">
-    <cfRule type="top10" dxfId="3" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="83" priority="29" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X53">
-    <cfRule type="top10" dxfId="2" priority="28" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="82" priority="28" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y53">
-    <cfRule type="top10" dxfId="1" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="81" priority="27" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z53">
-    <cfRule type="top10" dxfId="0" priority="26" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="80" priority="26" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/experiment/main.xlsx
+++ b/experiment/main.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>ml-1m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,10 @@
     <t>stdev</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>20m 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -251,897 +255,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="190">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="101">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2430,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F8:AA59"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2533,19 +1647,19 @@
         <v>1.060527</v>
       </c>
       <c r="W9">
-        <v>1.0522940000000001</v>
+        <v>1.052543</v>
       </c>
       <c r="X9">
-        <v>1.0523659999999999</v>
+        <v>1.05243</v>
       </c>
       <c r="Y9">
-        <v>1.052508</v>
+        <v>1.052529</v>
       </c>
       <c r="Z9">
-        <v>1.0512159999999999</v>
+        <v>1.051159</v>
       </c>
       <c r="AA9">
-        <v>1.052146</v>
+        <v>1.0522</v>
       </c>
     </row>
     <row r="10" spans="6:27" x14ac:dyDescent="0.2">
@@ -2559,7 +1673,7 @@
         <v>0.77422899999999995</v>
       </c>
       <c r="I10" s="2">
-        <v>0.77493599999999996</v>
+        <v>0.76515299999999997</v>
       </c>
       <c r="M10">
         <v>0.92482900000000001</v>
@@ -2592,19 +1706,19 @@
         <v>0.88568999999999998</v>
       </c>
       <c r="W10">
-        <v>0.85802</v>
+        <v>0.87887199999999999</v>
       </c>
       <c r="X10">
-        <v>0.85791300000000004</v>
+        <v>0.87905299999999997</v>
       </c>
       <c r="Y10">
-        <v>0.86232500000000001</v>
+        <v>0.882687</v>
       </c>
       <c r="Z10">
-        <v>0.85589499999999996</v>
+        <v>0.87662399999999996</v>
       </c>
       <c r="AA10">
-        <v>0.85612600000000005</v>
+        <v>0.87602000000000002</v>
       </c>
     </row>
     <row r="11" spans="6:27" x14ac:dyDescent="0.2">
@@ -2618,7 +1732,7 @@
         <v>0.772976</v>
       </c>
       <c r="I11" s="2">
-        <v>0.77503</v>
+        <v>0.76543399999999995</v>
       </c>
       <c r="M11">
         <v>0.91609499999999999</v>
@@ -2651,19 +1765,19 @@
         <v>0.87653999999999999</v>
       </c>
       <c r="W11">
-        <v>0.83536100000000002</v>
+        <v>0.86919299999999999</v>
       </c>
       <c r="X11">
-        <v>0.83502200000000004</v>
+        <v>0.86922900000000003</v>
       </c>
       <c r="Y11">
-        <v>0.83969700000000003</v>
+        <v>0.87286399999999997</v>
       </c>
       <c r="Z11">
-        <v>0.83335999999999999</v>
+        <v>0.86662799999999995</v>
       </c>
       <c r="AA11">
-        <v>0.83465400000000001</v>
+        <v>0.86620200000000003</v>
       </c>
     </row>
     <row r="12" spans="6:27" x14ac:dyDescent="0.2">
@@ -2677,7 +1791,7 @@
         <v>0.77280800000000005</v>
       </c>
       <c r="I12" s="2">
-        <v>0.77737800000000001</v>
+        <v>0.76879900000000001</v>
       </c>
       <c r="M12">
         <v>0.91317499999999996</v>
@@ -2710,19 +1824,19 @@
         <v>0.87180899999999995</v>
       </c>
       <c r="W12">
-        <v>0.82219699999999996</v>
+        <v>0.85791499999999998</v>
       </c>
       <c r="X12">
-        <v>0.82213800000000004</v>
+        <v>0.85771699999999995</v>
       </c>
       <c r="Y12">
-        <v>0.82577100000000003</v>
+        <v>0.86187000000000002</v>
       </c>
       <c r="Z12">
-        <v>0.82042499999999996</v>
+        <v>0.85475100000000004</v>
       </c>
       <c r="AA12">
-        <v>0.82144899999999998</v>
+        <v>0.85472700000000001</v>
       </c>
     </row>
     <row r="13" spans="6:27" x14ac:dyDescent="0.2">
@@ -2736,7 +1850,7 @@
         <v>0.77378899999999995</v>
       </c>
       <c r="I13" s="2">
-        <v>0.77405400000000002</v>
+        <v>0.76389099999999999</v>
       </c>
       <c r="M13">
         <v>0.91175300000000004</v>
@@ -2769,19 +1883,19 @@
         <v>0.865448</v>
       </c>
       <c r="W13">
-        <v>0.81355200000000005</v>
+        <v>0.849464</v>
       </c>
       <c r="X13">
-        <v>0.81365399999999999</v>
+        <v>0.84898700000000005</v>
       </c>
       <c r="Y13">
-        <v>0.81697799999999998</v>
+        <v>0.853518</v>
       </c>
       <c r="Z13">
-        <v>0.81188899999999997</v>
+        <v>0.84599199999999997</v>
       </c>
       <c r="AA13">
-        <v>0.81289400000000001</v>
+        <v>0.84628099999999995</v>
       </c>
     </row>
     <row r="14" spans="6:27" x14ac:dyDescent="0.2">
@@ -2795,7 +1909,7 @@
         <v>0.77612199999999998</v>
       </c>
       <c r="I14" s="2">
-        <v>0.77502400000000005</v>
+        <v>0.76455700000000004</v>
       </c>
       <c r="M14">
         <v>0.91071199999999997</v>
@@ -2828,19 +1942,19 @@
         <v>0.85806800000000005</v>
       </c>
       <c r="W14">
-        <v>0.80627000000000004</v>
+        <v>0.84290299999999996</v>
       </c>
       <c r="X14">
-        <v>0.80636600000000003</v>
+        <v>0.84230099999999997</v>
       </c>
       <c r="Y14">
-        <v>0.80991000000000002</v>
+        <v>0.84701300000000002</v>
       </c>
       <c r="Z14">
-        <v>0.80457599999999996</v>
+        <v>0.83931900000000004</v>
       </c>
       <c r="AA14">
-        <v>0.80569800000000003</v>
+        <v>0.83985699999999996</v>
       </c>
     </row>
     <row r="15" spans="6:27" x14ac:dyDescent="0.2">
@@ -2857,7 +1971,7 @@
       </c>
       <c r="I15" s="3">
         <f>AVERAGE(I10:I14)</f>
-        <v>0.7752844000000001</v>
+        <v>0.76556679999999999</v>
       </c>
       <c r="M15">
         <v>0.90943200000000002</v>
@@ -2890,19 +2004,19 @@
         <v>0.85266200000000003</v>
       </c>
       <c r="W15">
-        <v>0.79932899999999996</v>
+        <v>0.83633999999999997</v>
       </c>
       <c r="X15">
-        <v>0.79953300000000005</v>
+        <v>0.83569000000000004</v>
       </c>
       <c r="Y15">
-        <v>0.80326500000000001</v>
+        <v>0.84048800000000001</v>
       </c>
       <c r="Z15">
-        <v>0.79771300000000001</v>
+        <v>0.83288300000000004</v>
       </c>
       <c r="AA15">
-        <v>0.79872100000000001</v>
+        <v>0.83342700000000003</v>
       </c>
     </row>
     <row r="16" spans="6:27" x14ac:dyDescent="0.2">
@@ -2919,7 +2033,7 @@
       </c>
       <c r="I16" s="3">
         <f>STDEV(I10:I14)</f>
-        <v>1.2400559664789343E-3</v>
+        <v>1.9015772926704859E-3</v>
       </c>
       <c r="M16">
         <v>0.90740100000000001</v>
@@ -2952,19 +2066,19 @@
         <v>0.84833199999999997</v>
       </c>
       <c r="W16">
-        <v>0.79339000000000004</v>
+        <v>0.83024699999999996</v>
       </c>
       <c r="X16">
-        <v>0.79382699999999995</v>
+        <v>0.82962400000000003</v>
       </c>
       <c r="Y16">
-        <v>0.79750500000000002</v>
+        <v>0.83441699999999996</v>
       </c>
       <c r="Z16">
-        <v>0.79211699999999996</v>
+        <v>0.82705300000000004</v>
       </c>
       <c r="AA16">
-        <v>0.79270099999999999</v>
+        <v>0.82751399999999997</v>
       </c>
     </row>
     <row r="17" spans="13:27" x14ac:dyDescent="0.2">
@@ -2999,19 +2113,19 @@
         <v>0.84402299999999997</v>
       </c>
       <c r="W17">
-        <v>0.78832400000000002</v>
+        <v>0.82487699999999997</v>
       </c>
       <c r="X17">
-        <v>0.78887200000000002</v>
+        <v>0.82439399999999996</v>
       </c>
       <c r="Y17">
-        <v>0.79238900000000001</v>
+        <v>0.82905600000000002</v>
       </c>
       <c r="Z17">
-        <v>0.78729400000000005</v>
+        <v>0.82189500000000004</v>
       </c>
       <c r="AA17">
-        <v>0.78761300000000001</v>
+        <v>0.82236799999999999</v>
       </c>
     </row>
     <row r="18" spans="13:27" x14ac:dyDescent="0.2">
@@ -3046,19 +2160,19 @@
         <v>0.83961600000000003</v>
       </c>
       <c r="W18">
-        <v>0.78390599999999999</v>
+        <v>0.82006900000000005</v>
       </c>
       <c r="X18">
-        <v>0.78437900000000005</v>
+        <v>0.81981000000000004</v>
       </c>
       <c r="Y18">
-        <v>0.78771599999999997</v>
+        <v>0.82427399999999995</v>
       </c>
       <c r="Z18">
-        <v>0.78291699999999997</v>
+        <v>0.81726200000000004</v>
       </c>
       <c r="AA18">
-        <v>0.78326200000000001</v>
+        <v>0.81779000000000002</v>
       </c>
     </row>
     <row r="19" spans="13:27" x14ac:dyDescent="0.2">
@@ -3093,19 +2207,19 @@
         <v>0.83546100000000001</v>
       </c>
       <c r="W19">
-        <v>0.78018699999999996</v>
+        <v>0.81561899999999998</v>
       </c>
       <c r="X19">
-        <v>0.78049000000000002</v>
+        <v>0.81559800000000005</v>
       </c>
       <c r="Y19">
-        <v>0.78365600000000002</v>
+        <v>0.81989199999999995</v>
       </c>
       <c r="Z19">
-        <v>0.77917700000000001</v>
+        <v>0.81298199999999998</v>
       </c>
       <c r="AA19">
-        <v>0.77966999999999997</v>
+        <v>0.81354499999999996</v>
       </c>
     </row>
     <row r="20" spans="13:27" x14ac:dyDescent="0.2">
@@ -3140,19 +2254,19 @@
         <v>0.83173600000000003</v>
       </c>
       <c r="W20">
-        <v>0.77737800000000001</v>
+        <v>0.81143900000000002</v>
       </c>
       <c r="X20">
-        <v>0.77754100000000004</v>
+        <v>0.81159999999999999</v>
       </c>
       <c r="Y20">
-        <v>0.78049500000000005</v>
+        <v>0.81581700000000001</v>
       </c>
       <c r="Z20">
-        <v>0.77638200000000002</v>
+        <v>0.80896000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.77703900000000004</v>
+        <v>0.80951700000000004</v>
       </c>
     </row>
     <row r="21" spans="13:27" x14ac:dyDescent="0.2">
@@ -3187,19 +2301,19 @@
         <v>0.82836600000000005</v>
       </c>
       <c r="W21">
-        <v>0.77562399999999998</v>
+        <v>0.807585</v>
       </c>
       <c r="X21">
-        <v>0.775729</v>
+        <v>0.80785499999999999</v>
       </c>
       <c r="Y21">
-        <v>0.77840699999999996</v>
+        <v>0.81207600000000002</v>
       </c>
       <c r="Z21">
-        <v>0.77468000000000004</v>
+        <v>0.80522899999999997</v>
       </c>
       <c r="AA21">
-        <v>0.77549999999999997</v>
+        <v>0.80574900000000005</v>
       </c>
     </row>
     <row r="22" spans="13:27" x14ac:dyDescent="0.2">
@@ -3234,19 +2348,19 @@
         <v>0.82521</v>
       </c>
       <c r="W22">
-        <v>0.77493599999999996</v>
+        <v>0.80412600000000001</v>
       </c>
       <c r="X22">
-        <v>0.77503</v>
+        <v>0.80446200000000001</v>
       </c>
       <c r="Y22">
-        <v>0.77740799999999999</v>
+        <v>0.80871800000000005</v>
       </c>
       <c r="Z22">
-        <v>0.77405400000000002</v>
+        <v>0.80185600000000001</v>
       </c>
       <c r="AA22">
-        <v>0.77502400000000005</v>
+        <v>0.80232599999999998</v>
       </c>
     </row>
     <row r="23" spans="13:27" x14ac:dyDescent="0.2">
@@ -3281,19 +2395,19 @@
         <v>0.82216699999999998</v>
       </c>
       <c r="W23">
-        <v>0.775173</v>
+        <v>0.80104500000000001</v>
       </c>
       <c r="X23">
-        <v>0.77526899999999999</v>
+        <v>0.80144499999999996</v>
       </c>
       <c r="Y23">
-        <v>0.77737800000000001</v>
+        <v>0.80572699999999997</v>
       </c>
       <c r="Z23">
-        <v>0.77435600000000004</v>
+        <v>0.79883999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.77544500000000005</v>
+        <v>0.799261</v>
       </c>
     </row>
     <row r="24" spans="13:27" x14ac:dyDescent="0.2">
@@ -3328,19 +2442,19 @@
         <v>0.81918500000000005</v>
       </c>
       <c r="W24">
-        <v>0.77609399999999995</v>
+        <v>0.79828500000000002</v>
       </c>
       <c r="X24">
-        <v>0.776196</v>
+        <v>0.79876100000000005</v>
       </c>
       <c r="Y24">
-        <v>0.77809899999999999</v>
+        <v>0.80305000000000004</v>
       </c>
       <c r="Z24">
-        <v>0.77534099999999995</v>
+        <v>0.79613699999999998</v>
       </c>
       <c r="AA24">
-        <v>0.77652299999999996</v>
+        <v>0.79651700000000003</v>
       </c>
     </row>
     <row r="25" spans="13:27" x14ac:dyDescent="0.2">
@@ -3375,19 +2489,19 @@
         <v>0.81627000000000005</v>
       </c>
       <c r="W25">
-        <v>0.77745699999999995</v>
+        <v>0.79579</v>
       </c>
       <c r="X25">
-        <v>0.77756099999999995</v>
+        <v>0.79634799999999994</v>
       </c>
       <c r="Y25">
-        <v>0.77932699999999999</v>
+        <v>0.80063099999999998</v>
       </c>
       <c r="Z25">
-        <v>0.77676000000000001</v>
+        <v>0.79369599999999996</v>
       </c>
       <c r="AA25">
-        <v>0.77801600000000004</v>
+        <v>0.79404399999999997</v>
       </c>
     </row>
     <row r="26" spans="13:27" x14ac:dyDescent="0.2">
@@ -3422,19 +2536,19 @@
         <v>0.81346399999999996</v>
       </c>
       <c r="W26">
-        <v>0.77907400000000004</v>
+        <v>0.793516</v>
       </c>
       <c r="X26">
-        <v>0.779173</v>
+        <v>0.79415400000000003</v>
       </c>
       <c r="Y26">
-        <v>0.78085700000000002</v>
+        <v>0.79841899999999999</v>
       </c>
       <c r="Z26">
-        <v>0.77841800000000005</v>
+        <v>0.79147199999999995</v>
       </c>
       <c r="AA26">
-        <v>0.77973499999999996</v>
+        <v>0.79179900000000003</v>
       </c>
     </row>
     <row r="27" spans="13:27" x14ac:dyDescent="0.2">
@@ -3469,19 +2583,19 @@
         <v>0.81081300000000001</v>
       </c>
       <c r="W27">
-        <v>0.78082099999999999</v>
+        <v>0.79142400000000002</v>
       </c>
       <c r="X27">
-        <v>0.78090700000000002</v>
+        <v>0.792134</v>
       </c>
       <c r="Y27">
-        <v>0.78254500000000005</v>
+        <v>0.79637500000000006</v>
       </c>
       <c r="Z27">
-        <v>0.78018900000000002</v>
+        <v>0.78942699999999999</v>
       </c>
       <c r="AA27">
-        <v>0.78155699999999995</v>
+        <v>0.789744</v>
       </c>
     </row>
     <row r="28" spans="13:27" x14ac:dyDescent="0.2">
@@ -3516,19 +2630,19 @@
         <v>0.80834300000000003</v>
       </c>
       <c r="W28">
-        <v>0.78262399999999999</v>
+        <v>0.78948600000000002</v>
       </c>
       <c r="X28">
-        <v>0.78269100000000003</v>
+        <v>0.79025500000000004</v>
       </c>
       <c r="Y28">
-        <v>0.78430699999999998</v>
+        <v>0.79446799999999995</v>
       </c>
       <c r="Z28">
-        <v>0.781999</v>
+        <v>0.78753099999999998</v>
       </c>
       <c r="AA28">
-        <v>0.78341099999999997</v>
+        <v>0.78784399999999999</v>
       </c>
     </row>
     <row r="29" spans="13:27" x14ac:dyDescent="0.2">
@@ -3563,19 +2677,19 @@
         <v>0.80605800000000005</v>
       </c>
       <c r="W29">
-        <v>0.784439</v>
+        <v>0.78767600000000004</v>
       </c>
       <c r="X29">
-        <v>0.78448399999999996</v>
+        <v>0.78849400000000003</v>
       </c>
       <c r="Y29">
-        <v>0.78609200000000001</v>
+        <v>0.79267500000000002</v>
       </c>
       <c r="Z29">
-        <v>0.78381000000000001</v>
+        <v>0.78575799999999996</v>
       </c>
       <c r="AA29">
-        <v>0.78525900000000004</v>
+        <v>0.786076</v>
       </c>
     </row>
     <row r="30" spans="13:27" x14ac:dyDescent="0.2">
@@ -3610,19 +2724,19 @@
         <v>0.80395099999999997</v>
       </c>
       <c r="W30">
-        <v>0.786242</v>
+        <v>0.78597799999999995</v>
       </c>
       <c r="X30">
-        <v>0.78626300000000005</v>
+        <v>0.78683499999999995</v>
       </c>
       <c r="Y30">
-        <v>0.78787200000000002</v>
+        <v>0.79098100000000005</v>
       </c>
       <c r="Z30">
-        <v>0.78559900000000005</v>
+        <v>0.78408999999999995</v>
       </c>
       <c r="AA30">
-        <v>0.78708100000000003</v>
+        <v>0.78442000000000001</v>
       </c>
     </row>
     <row r="31" spans="13:27" x14ac:dyDescent="0.2">
@@ -3657,19 +2771,19 @@
         <v>0.80200499999999997</v>
       </c>
       <c r="W31">
-        <v>0.78801900000000002</v>
+        <v>0.78437900000000005</v>
       </c>
       <c r="X31">
-        <v>0.78801600000000005</v>
+        <v>0.78526700000000005</v>
       </c>
       <c r="Y31">
-        <v>0.78963099999999997</v>
+        <v>0.78937599999999997</v>
       </c>
       <c r="Z31">
-        <v>0.78735599999999994</v>
+        <v>0.78251499999999996</v>
       </c>
       <c r="AA31">
-        <v>0.78886699999999998</v>
+        <v>0.78286299999999998</v>
       </c>
     </row>
     <row r="32" spans="13:27" x14ac:dyDescent="0.2">
@@ -3704,19 +2818,19 @@
         <v>0.800203</v>
       </c>
       <c r="W32">
-        <v>0.78976100000000005</v>
+        <v>0.78286599999999995</v>
       </c>
       <c r="X32">
-        <v>0.78973300000000002</v>
+        <v>0.78378099999999995</v>
       </c>
       <c r="Y32">
-        <v>0.79135800000000001</v>
+        <v>0.78785000000000005</v>
       </c>
       <c r="Z32">
-        <v>0.78907499999999997</v>
+        <v>0.78102300000000002</v>
       </c>
       <c r="AA32">
-        <v>0.79061099999999995</v>
+        <v>0.78139499999999995</v>
       </c>
     </row>
     <row r="33" spans="13:27" x14ac:dyDescent="0.2">
@@ -3751,19 +2865,19 @@
         <v>0.79852500000000004</v>
       </c>
       <c r="W33">
-        <v>0.791462</v>
+        <v>0.78143399999999996</v>
       </c>
       <c r="X33">
-        <v>0.791412</v>
+        <v>0.78236899999999998</v>
       </c>
       <c r="Y33">
-        <v>0.79304699999999995</v>
+        <v>0.78639599999999998</v>
       </c>
       <c r="Z33">
-        <v>0.79075399999999996</v>
+        <v>0.77960600000000002</v>
       </c>
       <c r="AA33">
-        <v>0.79230999999999996</v>
+        <v>0.78000700000000001</v>
       </c>
     </row>
     <row r="34" spans="13:27" x14ac:dyDescent="0.2">
@@ -3798,19 +2912,19 @@
         <v>0.79695400000000005</v>
       </c>
       <c r="W34">
-        <v>0.79312199999999999</v>
+        <v>0.78007599999999999</v>
       </c>
       <c r="X34">
-        <v>0.793049</v>
+        <v>0.78102800000000006</v>
       </c>
       <c r="Y34">
-        <v>0.79469299999999998</v>
+        <v>0.78500999999999999</v>
       </c>
       <c r="Z34">
-        <v>0.79239000000000004</v>
+        <v>0.77826099999999998</v>
       </c>
       <c r="AA34">
-        <v>0.793964</v>
+        <v>0.77869500000000003</v>
       </c>
     </row>
     <row r="35" spans="13:27" x14ac:dyDescent="0.2">
@@ -3845,19 +2959,19 @@
         <v>0.79547599999999996</v>
       </c>
       <c r="W35">
-        <v>0.79473800000000006</v>
+        <v>0.77878899999999995</v>
       </c>
       <c r="X35">
-        <v>0.79464299999999999</v>
+        <v>0.77975300000000003</v>
       </c>
       <c r="Y35">
-        <v>0.796296</v>
+        <v>0.78369</v>
       </c>
       <c r="Z35">
-        <v>0.79398400000000002</v>
+        <v>0.77698599999999995</v>
       </c>
       <c r="AA35">
-        <v>0.79557299999999997</v>
+        <v>0.77745500000000001</v>
       </c>
     </row>
     <row r="36" spans="13:27" x14ac:dyDescent="0.2">
@@ -3892,19 +3006,19 @@
         <v>0.79408000000000001</v>
       </c>
       <c r="W36">
-        <v>0.79631099999999999</v>
+        <v>0.77757200000000004</v>
       </c>
       <c r="X36">
-        <v>0.79619399999999996</v>
+        <v>0.77854400000000001</v>
       </c>
       <c r="Y36">
-        <v>0.79785300000000003</v>
+        <v>0.78243200000000002</v>
       </c>
       <c r="Z36">
-        <v>0.79553499999999999</v>
+        <v>0.775779</v>
       </c>
       <c r="AA36">
-        <v>0.79713800000000001</v>
+        <v>0.77628299999999995</v>
       </c>
     </row>
     <row r="37" spans="13:27" x14ac:dyDescent="0.2">
@@ -3939,19 +3053,19 @@
         <v>0.79275600000000002</v>
       </c>
       <c r="W37">
-        <v>0.79784100000000002</v>
+        <v>0.77642199999999995</v>
       </c>
       <c r="X37">
-        <v>0.79770099999999999</v>
+        <v>0.77739800000000003</v>
       </c>
       <c r="Y37">
-        <v>0.79936600000000002</v>
+        <v>0.78123699999999996</v>
       </c>
       <c r="Z37">
-        <v>0.797045</v>
+        <v>0.77463899999999997</v>
       </c>
       <c r="AA37">
-        <v>0.79865900000000001</v>
+        <v>0.77517800000000003</v>
       </c>
     </row>
     <row r="38" spans="13:27" x14ac:dyDescent="0.2">
@@ -3986,19 +3100,19 @@
         <v>0.79149700000000001</v>
       </c>
       <c r="W38">
-        <v>0.79932999999999998</v>
+        <v>0.77533799999999997</v>
       </c>
       <c r="X38">
-        <v>0.79916600000000004</v>
+        <v>0.77631399999999995</v>
       </c>
       <c r="Y38">
-        <v>0.80083499999999996</v>
+        <v>0.78010500000000005</v>
       </c>
       <c r="Z38">
-        <v>0.79851399999999995</v>
+        <v>0.773567</v>
       </c>
       <c r="AA38">
-        <v>0.80013800000000002</v>
+        <v>0.77413799999999999</v>
       </c>
     </row>
     <row r="39" spans="13:27" x14ac:dyDescent="0.2">
@@ -4033,19 +3147,19 @@
         <v>0.79029700000000003</v>
       </c>
       <c r="W39">
-        <v>0.80077699999999996</v>
+        <v>0.77432000000000001</v>
       </c>
       <c r="X39">
-        <v>0.800589</v>
+        <v>0.77529000000000003</v>
       </c>
       <c r="Y39">
-        <v>0.802261</v>
+        <v>0.77903500000000003</v>
       </c>
       <c r="Z39">
-        <v>0.79994299999999996</v>
+        <v>0.77256000000000002</v>
       </c>
       <c r="AA39">
-        <v>0.80157599999999996</v>
+        <v>0.77316099999999999</v>
       </c>
     </row>
     <row r="40" spans="13:27" x14ac:dyDescent="0.2">
@@ -4080,19 +3194,19 @@
         <v>0.78915199999999996</v>
       </c>
       <c r="W40">
-        <v>0.80218599999999995</v>
+        <v>0.77336499999999997</v>
       </c>
       <c r="X40">
-        <v>0.80197099999999999</v>
+        <v>0.77432400000000001</v>
       </c>
       <c r="Y40">
-        <v>0.80364500000000005</v>
+        <v>0.778026</v>
       </c>
       <c r="Z40">
-        <v>0.80133399999999999</v>
+        <v>0.77161900000000005</v>
       </c>
       <c r="AA40">
-        <v>0.80297600000000002</v>
+        <v>0.77224599999999999</v>
       </c>
     </row>
     <row r="41" spans="13:27" x14ac:dyDescent="0.2">
@@ -4127,19 +3241,19 @@
         <v>0.78805800000000004</v>
       </c>
       <c r="W41">
-        <v>0.80355699999999997</v>
+        <v>0.77247200000000005</v>
       </c>
       <c r="X41">
-        <v>0.80331399999999997</v>
+        <v>0.77341599999999999</v>
       </c>
       <c r="Y41">
-        <v>0.80498899999999995</v>
+        <v>0.77707800000000005</v>
       </c>
       <c r="Z41">
-        <v>0.80268600000000001</v>
+        <v>0.77074200000000004</v>
       </c>
       <c r="AA41">
-        <v>0.80433699999999997</v>
+        <v>0.77139199999999997</v>
       </c>
     </row>
     <row r="42" spans="13:27" x14ac:dyDescent="0.2">
@@ -4174,19 +3288,19 @@
         <v>0.78701399999999999</v>
       </c>
       <c r="W42">
-        <v>0.80489100000000002</v>
+        <v>0.77164100000000002</v>
       </c>
       <c r="X42">
-        <v>0.80461899999999997</v>
+        <v>0.772563</v>
       </c>
       <c r="Y42">
-        <v>0.80629399999999996</v>
+        <v>0.77619099999999996</v>
       </c>
       <c r="Z42">
-        <v>0.80400199999999999</v>
+        <v>0.76992700000000003</v>
       </c>
       <c r="AA42">
-        <v>0.80566199999999999</v>
+        <v>0.77059699999999998</v>
       </c>
     </row>
     <row r="43" spans="13:27" x14ac:dyDescent="0.2">
@@ -4221,19 +3335,19 @@
         <v>0.78601699999999997</v>
       </c>
       <c r="W43">
-        <v>0.80618900000000004</v>
+        <v>0.770868</v>
       </c>
       <c r="X43">
-        <v>0.80588700000000002</v>
+        <v>0.77176400000000001</v>
       </c>
       <c r="Y43">
-        <v>0.80756099999999997</v>
+        <v>0.775362</v>
       </c>
       <c r="Z43">
-        <v>0.805284</v>
+        <v>0.769173</v>
       </c>
       <c r="AA43">
-        <v>0.80695099999999997</v>
+        <v>0.76985899999999996</v>
       </c>
     </row>
     <row r="44" spans="13:27" x14ac:dyDescent="0.2">
@@ -4268,19 +3382,19 @@
         <v>0.78506600000000004</v>
       </c>
       <c r="W44">
-        <v>0.80745400000000001</v>
+        <v>0.77015400000000001</v>
       </c>
       <c r="X44">
-        <v>0.80711999999999995</v>
+        <v>0.77101799999999998</v>
       </c>
       <c r="Y44">
-        <v>0.80879299999999998</v>
+        <v>0.77459100000000003</v>
       </c>
       <c r="Z44">
-        <v>0.806531</v>
+        <v>0.76847900000000002</v>
       </c>
       <c r="AA44">
-        <v>0.80820700000000001</v>
+        <v>0.76917800000000003</v>
       </c>
     </row>
     <row r="45" spans="13:27" x14ac:dyDescent="0.2">
@@ -4315,19 +3429,19 @@
         <v>0.784161</v>
       </c>
       <c r="W45">
-        <v>0.80868600000000002</v>
+        <v>0.76949599999999996</v>
       </c>
       <c r="X45">
-        <v>0.80832000000000004</v>
+        <v>0.77032500000000004</v>
       </c>
       <c r="Y45">
-        <v>0.80999100000000002</v>
+        <v>0.77387700000000004</v>
       </c>
       <c r="Z45">
-        <v>0.80774500000000005</v>
+        <v>0.76784300000000005</v>
       </c>
       <c r="AA45">
-        <v>0.80942999999999998</v>
+        <v>0.76855099999999998</v>
       </c>
     </row>
     <row r="46" spans="13:27" x14ac:dyDescent="0.2">
@@ -4362,19 +3476,19 @@
         <v>0.78330100000000003</v>
       </c>
       <c r="W46">
-        <v>0.80988700000000002</v>
+        <v>0.76889300000000005</v>
       </c>
       <c r="X46">
-        <v>0.80948600000000004</v>
+        <v>0.76968300000000001</v>
       </c>
       <c r="Y46">
-        <v>0.81115599999999999</v>
+        <v>0.77321799999999996</v>
       </c>
       <c r="Z46">
-        <v>0.80892799999999998</v>
+        <v>0.76726300000000003</v>
       </c>
       <c r="AA46">
-        <v>0.81062199999999995</v>
+        <v>0.76797700000000002</v>
       </c>
     </row>
     <row r="47" spans="13:27" x14ac:dyDescent="0.2">
@@ -4409,19 +3523,19 @@
         <v>0.78248600000000001</v>
       </c>
       <c r="W47">
-        <v>0.81105799999999995</v>
+        <v>0.768343</v>
       </c>
       <c r="X47">
-        <v>0.81062199999999995</v>
+        <v>0.76909099999999997</v>
       </c>
       <c r="Y47">
-        <v>0.81228999999999996</v>
+        <v>0.77261299999999999</v>
       </c>
       <c r="Z47">
-        <v>0.81008000000000002</v>
+        <v>0.76673599999999997</v>
       </c>
       <c r="AA47">
-        <v>0.81178300000000003</v>
+        <v>0.76745600000000003</v>
       </c>
     </row>
     <row r="48" spans="13:27" x14ac:dyDescent="0.2">
@@ -4456,19 +3570,19 @@
         <v>0.78171599999999997</v>
       </c>
       <c r="W48">
-        <v>0.812199</v>
+        <v>0.76784399999999997</v>
       </c>
       <c r="X48">
-        <v>0.81172699999999998</v>
+        <v>0.76854800000000001</v>
       </c>
       <c r="Y48">
-        <v>0.81339300000000003</v>
+        <v>0.77205900000000005</v>
       </c>
       <c r="Z48">
-        <v>0.81120300000000001</v>
+        <v>0.76626300000000003</v>
       </c>
       <c r="AA48">
-        <v>0.81291599999999997</v>
+        <v>0.766984</v>
       </c>
     </row>
     <row r="49" spans="13:27" x14ac:dyDescent="0.2">
@@ -4503,19 +3617,19 @@
         <v>0.78098999999999996</v>
       </c>
       <c r="W49">
-        <v>0.81331299999999995</v>
+        <v>0.76739500000000005</v>
       </c>
       <c r="X49">
-        <v>0.81280399999999997</v>
+        <v>0.76805400000000001</v>
       </c>
       <c r="Y49">
-        <v>0.81446799999999997</v>
+        <v>0.77155600000000002</v>
       </c>
       <c r="Z49">
-        <v>0.81229899999999999</v>
+        <v>0.76583999999999997</v>
       </c>
       <c r="AA49">
-        <v>0.81401999999999997</v>
+        <v>0.76656000000000002</v>
       </c>
     </row>
     <row r="50" spans="13:27" x14ac:dyDescent="0.2">
@@ -4550,19 +3664,19 @@
         <v>0.78030999999999995</v>
       </c>
       <c r="W50">
-        <v>0.81440000000000001</v>
+        <v>0.76699399999999995</v>
       </c>
       <c r="X50">
-        <v>0.81385399999999997</v>
+        <v>0.76760700000000004</v>
       </c>
       <c r="Y50">
-        <v>0.81551600000000002</v>
+        <v>0.77110000000000001</v>
       </c>
       <c r="Z50">
-        <v>0.81336699999999995</v>
+        <v>0.76546499999999995</v>
       </c>
       <c r="AA50">
-        <v>0.81509699999999996</v>
+        <v>0.76618299999999995</v>
       </c>
     </row>
     <row r="51" spans="13:27" x14ac:dyDescent="0.2">
@@ -4597,19 +3711,19 @@
         <v>0.77967299999999995</v>
       </c>
       <c r="W51">
-        <v>0.81545999999999996</v>
+        <v>0.76663800000000004</v>
       </c>
       <c r="X51">
-        <v>0.81487699999999996</v>
+        <v>0.76720600000000005</v>
       </c>
       <c r="Y51">
-        <v>0.81653799999999999</v>
+        <v>0.77068999999999999</v>
       </c>
       <c r="Z51">
-        <v>0.81440900000000005</v>
+        <v>0.76513600000000004</v>
       </c>
       <c r="AA51">
-        <v>0.81614799999999998</v>
+        <v>0.76585099999999995</v>
       </c>
     </row>
     <row r="52" spans="13:27" x14ac:dyDescent="0.2">
@@ -4644,19 +3758,19 @@
         <v>0.77908100000000002</v>
       </c>
       <c r="W52">
-        <v>0.81649700000000003</v>
+        <v>0.76632500000000003</v>
       </c>
       <c r="X52">
-        <v>0.81587500000000002</v>
+        <v>0.766849</v>
       </c>
       <c r="Y52">
-        <v>0.81753399999999998</v>
+        <v>0.77032400000000001</v>
       </c>
       <c r="Z52">
-        <v>0.81542700000000001</v>
+        <v>0.76485099999999995</v>
       </c>
       <c r="AA52">
-        <v>0.81717300000000004</v>
+        <v>0.76556100000000005</v>
       </c>
     </row>
     <row r="53" spans="13:27" x14ac:dyDescent="0.2">
@@ -4691,19 +3805,19 @@
         <v>0.77853300000000003</v>
       </c>
       <c r="W53">
-        <v>0.81750900000000004</v>
+        <v>0.76605299999999998</v>
       </c>
       <c r="X53">
-        <v>0.81684900000000005</v>
+        <v>0.76653499999999997</v>
       </c>
       <c r="Y53">
-        <v>0.81850599999999996</v>
+        <v>0.77</v>
       </c>
       <c r="Z53">
-        <v>0.81642000000000003</v>
+        <v>0.76460799999999995</v>
       </c>
       <c r="AA53">
-        <v>0.81817499999999999</v>
+        <v>0.76531300000000002</v>
       </c>
     </row>
     <row r="54" spans="13:27" x14ac:dyDescent="0.2">
@@ -4738,19 +3852,19 @@
         <v>0.77802700000000002</v>
       </c>
       <c r="W54">
-        <v>0.81849799999999995</v>
+        <v>0.76581999999999995</v>
       </c>
       <c r="X54">
-        <v>0.81779999999999997</v>
+        <v>0.766262</v>
       </c>
       <c r="Y54">
-        <v>0.81945500000000004</v>
+        <v>0.76971500000000004</v>
       </c>
       <c r="Z54">
-        <v>0.81739099999999998</v>
+        <v>0.764405</v>
       </c>
       <c r="AA54">
-        <v>0.81915300000000002</v>
+        <v>0.76510299999999998</v>
       </c>
     </row>
     <row r="55" spans="13:27" x14ac:dyDescent="0.2">
@@ -4785,19 +3899,19 @@
         <v>0.77756499999999995</v>
       </c>
       <c r="W55">
-        <v>0.81946600000000003</v>
+        <v>0.76562300000000005</v>
       </c>
       <c r="X55">
-        <v>0.81872800000000001</v>
+        <v>0.76602800000000004</v>
       </c>
       <c r="Y55">
-        <v>0.82038199999999994</v>
+        <v>0.76946700000000001</v>
       </c>
       <c r="Z55">
-        <v>0.81833999999999996</v>
+        <v>0.76423799999999997</v>
       </c>
       <c r="AA55">
-        <v>0.82010799999999995</v>
+        <v>0.76492899999999997</v>
       </c>
     </row>
     <row r="56" spans="13:27" x14ac:dyDescent="0.2">
@@ -4832,19 +3946,19 @@
         <v>0.77714399999999995</v>
       </c>
       <c r="W56">
-        <v>0.82041200000000003</v>
+        <v>0.76546000000000003</v>
       </c>
       <c r="X56">
-        <v>0.819635</v>
+        <v>0.76583000000000001</v>
       </c>
       <c r="Y56">
-        <v>0.82128800000000002</v>
+        <v>0.76925299999999996</v>
       </c>
       <c r="Z56">
-        <v>0.81926699999999997</v>
+        <v>0.76410500000000003</v>
       </c>
       <c r="AA56">
-        <v>0.82104100000000002</v>
+        <v>0.764791</v>
       </c>
     </row>
     <row r="57" spans="13:27" x14ac:dyDescent="0.2">
@@ -4879,19 +3993,19 @@
         <v>0.77676400000000001</v>
       </c>
       <c r="W57">
-        <v>0.82133699999999998</v>
+        <v>0.76532900000000004</v>
       </c>
       <c r="X57">
-        <v>0.82052199999999997</v>
+        <v>0.76566699999999999</v>
       </c>
       <c r="Y57">
-        <v>0.82217300000000004</v>
+        <v>0.76907300000000001</v>
       </c>
       <c r="Z57">
-        <v>0.82017399999999996</v>
+        <v>0.76400500000000005</v>
       </c>
       <c r="AA57">
-        <v>0.82195300000000004</v>
+        <v>0.76468400000000003</v>
       </c>
     </row>
     <row r="58" spans="13:27" x14ac:dyDescent="0.2">
@@ -4926,19 +4040,19 @@
         <v>0.776424</v>
       </c>
       <c r="W58">
-        <v>0.82224299999999995</v>
+        <v>0.76522800000000002</v>
       </c>
       <c r="X58">
-        <v>0.82138900000000004</v>
+        <v>0.76553599999999999</v>
       </c>
       <c r="Y58">
-        <v>0.82303800000000005</v>
+        <v>0.76892199999999999</v>
       </c>
       <c r="Z58">
-        <v>0.82106100000000004</v>
+        <v>0.763934</v>
       </c>
       <c r="AA58">
-        <v>0.82284500000000005</v>
+        <v>0.76460700000000004</v>
       </c>
     </row>
     <row r="59" spans="13:27" x14ac:dyDescent="0.2">
@@ -4973,19 +4087,19 @@
         <v>0.77612199999999998</v>
       </c>
       <c r="W59">
-        <v>0.82313000000000003</v>
+        <v>0.76515299999999997</v>
       </c>
       <c r="X59">
-        <v>0.822237</v>
+        <v>0.76543399999999995</v>
       </c>
       <c r="Y59">
-        <v>0.82388499999999998</v>
+        <v>0.76879900000000001</v>
       </c>
       <c r="Z59">
-        <v>0.82192900000000002</v>
+        <v>0.76389099999999999</v>
       </c>
       <c r="AA59">
-        <v>0.82371700000000003</v>
+        <v>0.76455700000000004</v>
       </c>
     </row>
   </sheetData>
@@ -4994,49 +4108,49 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M9:M59">
-    <cfRule type="top10" dxfId="124" priority="45" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="85" priority="55" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N59">
-    <cfRule type="top10" dxfId="123" priority="44" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="84" priority="54" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:O59">
-    <cfRule type="top10" dxfId="122" priority="43" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="83" priority="53" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P59">
-    <cfRule type="top10" dxfId="121" priority="42" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="82" priority="52" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q59">
-    <cfRule type="top10" dxfId="120" priority="41" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="81" priority="51" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9:R49 R51:R59">
+    <cfRule type="top10" dxfId="75" priority="20" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9:S59">
+    <cfRule type="top10" dxfId="74" priority="19" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9:T59">
+    <cfRule type="top10" dxfId="73" priority="18" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:U59">
+    <cfRule type="top10" dxfId="72" priority="17" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V9:V59">
+    <cfRule type="top10" dxfId="71" priority="16" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:W59">
-    <cfRule type="top10" dxfId="119" priority="20" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="70" priority="10" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X9:X59">
-    <cfRule type="top10" dxfId="118" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="69" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:Y59">
-    <cfRule type="top10" dxfId="117" priority="18" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="68" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:Z59">
-    <cfRule type="top10" dxfId="116" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="67" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9:AA59">
-    <cfRule type="top10" dxfId="115" priority="16" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R9:R49 R51:R59">
-    <cfRule type="top10" dxfId="114" priority="10" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S9:S59">
-    <cfRule type="top10" dxfId="113" priority="9" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T9:T59">
-    <cfRule type="top10" dxfId="112" priority="8" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U9:U59">
-    <cfRule type="top10" dxfId="111" priority="7" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V9:V59">
-    <cfRule type="top10" dxfId="110" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="66" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5047,8 +4161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F8:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5090,6 +4204,21 @@
       <c r="V8" t="s">
         <v>16</v>
       </c>
+      <c r="W8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
@@ -5135,19 +4264,19 @@
         <v>0.85594700000000001</v>
       </c>
       <c r="W9">
-        <v>0.84135300000000002</v>
+        <v>0.84152499999999997</v>
       </c>
       <c r="X9">
-        <v>0.841167</v>
+        <v>0.84117299999999995</v>
       </c>
       <c r="Y9">
-        <v>0.84111999999999998</v>
+        <v>0.84112600000000004</v>
       </c>
       <c r="Z9">
-        <v>0.84017799999999998</v>
+        <v>0.84012900000000001</v>
       </c>
       <c r="AA9">
-        <v>0.84092699999999998</v>
+        <v>0.84097</v>
       </c>
     </row>
     <row r="10" spans="6:27" x14ac:dyDescent="0.2">
@@ -5161,7 +4290,7 @@
         <v>0.593055</v>
       </c>
       <c r="I10" s="2">
-        <v>0.59023300000000001</v>
+        <v>0.58326699999999998</v>
       </c>
       <c r="M10">
         <v>0.733846</v>
@@ -5194,19 +4323,19 @@
         <v>0.68660600000000005</v>
       </c>
       <c r="W10">
-        <v>0.6603</v>
+        <v>0.67838100000000001</v>
       </c>
       <c r="X10">
-        <v>0.66008</v>
+        <v>0.67723800000000001</v>
       </c>
       <c r="Y10">
-        <v>0.66535500000000003</v>
+        <v>0.68200400000000005</v>
       </c>
       <c r="Z10">
-        <v>0.65881500000000004</v>
+        <v>0.67706299999999997</v>
       </c>
       <c r="AA10">
-        <v>0.65904300000000005</v>
+        <v>0.67632000000000003</v>
       </c>
     </row>
     <row r="11" spans="6:27" x14ac:dyDescent="0.2">
@@ -5220,7 +4349,7 @@
         <v>0.59245000000000003</v>
       </c>
       <c r="I11" s="2">
-        <v>0.59089599999999998</v>
+        <v>0.58265100000000003</v>
       </c>
       <c r="M11">
         <v>0.72507500000000003</v>
@@ -5253,19 +4382,19 @@
         <v>0.67851099999999998</v>
       </c>
       <c r="W11">
-        <v>0.64141099999999995</v>
+        <v>0.67008999999999996</v>
       </c>
       <c r="X11">
-        <v>0.64095400000000002</v>
+        <v>0.66871999999999998</v>
       </c>
       <c r="Y11">
-        <v>0.646065</v>
+        <v>0.67339000000000004</v>
       </c>
       <c r="Z11">
-        <v>0.63974200000000003</v>
+        <v>0.66839000000000004</v>
       </c>
       <c r="AA11">
-        <v>0.64100100000000004</v>
+        <v>0.66756300000000002</v>
       </c>
     </row>
     <row r="12" spans="6:27" x14ac:dyDescent="0.2">
@@ -5279,7 +4408,7 @@
         <v>0.59240300000000001</v>
       </c>
       <c r="I12" s="2">
-        <v>0.59324100000000002</v>
+        <v>0.58675600000000006</v>
       </c>
       <c r="M12">
         <v>0.72187800000000002</v>
@@ -5312,19 +4441,19 @@
         <v>0.67437199999999997</v>
       </c>
       <c r="W12">
-        <v>0.63046599999999997</v>
+        <v>0.66059800000000002</v>
       </c>
       <c r="X12">
-        <v>0.63038099999999997</v>
+        <v>0.65893199999999996</v>
       </c>
       <c r="Y12">
-        <v>0.63440099999999999</v>
+        <v>0.66404600000000003</v>
       </c>
       <c r="Z12">
-        <v>0.62904300000000002</v>
+        <v>0.658111</v>
       </c>
       <c r="AA12">
-        <v>0.63005699999999998</v>
+        <v>0.65745799999999999</v>
       </c>
     </row>
     <row r="13" spans="6:27" x14ac:dyDescent="0.2">
@@ -5338,7 +4467,7 @@
         <v>0.59201700000000002</v>
       </c>
       <c r="I13" s="2">
-        <v>0.58969700000000003</v>
+        <v>0.58238500000000004</v>
       </c>
       <c r="M13">
         <v>0.72021900000000005</v>
@@ -5371,19 +4500,19 @@
         <v>0.66884699999999997</v>
       </c>
       <c r="W13">
-        <v>0.62314199999999997</v>
+        <v>0.65356099999999995</v>
       </c>
       <c r="X13">
-        <v>0.62340700000000004</v>
+        <v>0.65155799999999997</v>
       </c>
       <c r="Y13">
-        <v>0.62719100000000005</v>
+        <v>0.65698000000000001</v>
       </c>
       <c r="Z13">
-        <v>0.62204999999999999</v>
+        <v>0.65056999999999998</v>
       </c>
       <c r="AA13">
-        <v>0.62307800000000002</v>
+        <v>0.65013100000000001</v>
       </c>
     </row>
     <row r="14" spans="6:27" x14ac:dyDescent="0.2">
@@ -5397,7 +4526,7 @@
         <v>0.59413700000000003</v>
       </c>
       <c r="I14" s="2">
-        <v>0.59066799999999997</v>
+        <v>0.58368799999999998</v>
       </c>
       <c r="M14">
         <v>0.71903700000000004</v>
@@ -5430,19 +4559,19 @@
         <v>0.66240500000000002</v>
       </c>
       <c r="W14">
-        <v>0.61705500000000002</v>
+        <v>0.648227</v>
       </c>
       <c r="X14">
-        <v>0.61746199999999996</v>
+        <v>0.64596200000000004</v>
       </c>
       <c r="Y14">
-        <v>0.62147600000000003</v>
+        <v>0.65156599999999998</v>
       </c>
       <c r="Z14">
-        <v>0.61609899999999995</v>
+        <v>0.64499700000000004</v>
       </c>
       <c r="AA14">
-        <v>0.61723099999999997</v>
+        <v>0.64483900000000005</v>
       </c>
     </row>
     <row r="15" spans="6:27" x14ac:dyDescent="0.2">
@@ -5459,7 +4588,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>0.590947</v>
+        <v>0.58374940000000008</v>
       </c>
       <c r="M15">
         <v>0.71775</v>
@@ -5492,19 +4621,19 @@
         <v>0.657717</v>
       </c>
       <c r="W15">
-        <v>0.61136699999999999</v>
+        <v>0.64290999999999998</v>
       </c>
       <c r="X15">
-        <v>0.6119</v>
+        <v>0.64049500000000004</v>
       </c>
       <c r="Y15">
-        <v>0.61612999999999996</v>
+        <v>0.64618100000000001</v>
       </c>
       <c r="Z15">
-        <v>0.61045400000000005</v>
+        <v>0.63974299999999995</v>
       </c>
       <c r="AA15">
-        <v>0.61146699999999998</v>
+        <v>0.63969299999999996</v>
       </c>
     </row>
     <row r="16" spans="6:27" x14ac:dyDescent="0.2">
@@ -5521,7 +4650,7 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="1"/>
-        <v>1.3615408550609145E-3</v>
+        <v>1.756715201733065E-3</v>
       </c>
       <c r="M16">
         <v>0.71587999999999996</v>
@@ -5554,19 +4683,19 @@
         <v>0.65403100000000003</v>
       </c>
       <c r="W16">
-        <v>0.60648000000000002</v>
+        <v>0.63791900000000001</v>
       </c>
       <c r="X16">
-        <v>0.60722399999999999</v>
+        <v>0.63551500000000005</v>
       </c>
       <c r="Y16">
-        <v>0.61145300000000002</v>
+        <v>0.64121399999999995</v>
       </c>
       <c r="Z16">
-        <v>0.60579099999999997</v>
+        <v>0.63502800000000004</v>
       </c>
       <c r="AA16">
-        <v>0.60640400000000005</v>
+        <v>0.63500000000000001</v>
       </c>
     </row>
     <row r="17" spans="13:27" x14ac:dyDescent="0.2">
@@ -5601,19 +4730,19 @@
         <v>0.65042199999999994</v>
       </c>
       <c r="W17">
-        <v>0.60224699999999998</v>
+        <v>0.63346100000000005</v>
       </c>
       <c r="X17">
-        <v>0.60311099999999995</v>
+        <v>0.63122900000000004</v>
       </c>
       <c r="Y17">
-        <v>0.607178</v>
+        <v>0.63685400000000003</v>
       </c>
       <c r="Z17">
-        <v>0.60170100000000004</v>
+        <v>0.63083999999999996</v>
       </c>
       <c r="AA17">
-        <v>0.60208600000000001</v>
+        <v>0.63091699999999995</v>
       </c>
     </row>
     <row r="18" spans="13:27" x14ac:dyDescent="0.2">
@@ -5648,19 +4777,19 @@
         <v>0.64677700000000005</v>
       </c>
       <c r="W18">
-        <v>0.59848199999999996</v>
+        <v>0.62942100000000001</v>
       </c>
       <c r="X18">
-        <v>0.59932600000000003</v>
+        <v>0.62747200000000003</v>
       </c>
       <c r="Y18">
-        <v>0.60317600000000005</v>
+        <v>0.63297000000000003</v>
       </c>
       <c r="Z18">
-        <v>0.59792699999999999</v>
+        <v>0.62707900000000005</v>
       </c>
       <c r="AA18">
-        <v>0.598329</v>
+        <v>0.62727299999999997</v>
       </c>
     </row>
     <row r="19" spans="13:27" x14ac:dyDescent="0.2">
@@ -5695,19 +4824,19 @@
         <v>0.64336199999999999</v>
       </c>
       <c r="W19">
-        <v>0.59524900000000003</v>
+        <v>0.62567399999999995</v>
       </c>
       <c r="X19">
-        <v>0.59598799999999996</v>
+        <v>0.62403699999999995</v>
       </c>
       <c r="Y19">
-        <v>0.59960000000000002</v>
+        <v>0.62943000000000005</v>
       </c>
       <c r="Z19">
-        <v>0.59462899999999996</v>
+        <v>0.62362700000000004</v>
       </c>
       <c r="AA19">
-        <v>0.59516800000000003</v>
+        <v>0.62386900000000001</v>
       </c>
     </row>
     <row r="20" spans="13:27" x14ac:dyDescent="0.2">
@@ -5742,19 +4871,19 @@
         <v>0.64032500000000003</v>
       </c>
       <c r="W20">
-        <v>0.59274700000000002</v>
+        <v>0.622174</v>
       </c>
       <c r="X20">
-        <v>0.59338299999999999</v>
+        <v>0.62080500000000005</v>
       </c>
       <c r="Y20">
-        <v>0.596715</v>
+        <v>0.62614599999999998</v>
       </c>
       <c r="Z20">
-        <v>0.59208899999999998</v>
+        <v>0.62041100000000005</v>
       </c>
       <c r="AA20">
-        <v>0.59278900000000001</v>
+        <v>0.62060099999999996</v>
       </c>
     </row>
     <row r="21" spans="13:27" x14ac:dyDescent="0.2">
@@ -5789,19 +4918,19 @@
         <v>0.63757900000000001</v>
       </c>
       <c r="W21">
-        <v>0.59108400000000005</v>
+        <v>0.61897599999999997</v>
       </c>
       <c r="X21">
-        <v>0.59169400000000005</v>
+        <v>0.61779499999999998</v>
       </c>
       <c r="Y21">
-        <v>0.59469300000000003</v>
+        <v>0.62314099999999994</v>
       </c>
       <c r="Z21">
-        <v>0.59044799999999997</v>
+        <v>0.61744200000000005</v>
       </c>
       <c r="AA21">
-        <v>0.59129299999999996</v>
+        <v>0.61752499999999999</v>
       </c>
     </row>
     <row r="22" spans="13:27" x14ac:dyDescent="0.2">
@@ -5836,19 +4965,19 @@
         <v>0.63500800000000002</v>
       </c>
       <c r="W22">
-        <v>0.59028499999999995</v>
+        <v>0.61613399999999996</v>
       </c>
       <c r="X22">
-        <v>0.59090900000000002</v>
+        <v>0.61507800000000001</v>
       </c>
       <c r="Y22">
-        <v>0.59357199999999999</v>
+        <v>0.620444</v>
       </c>
       <c r="Z22">
-        <v>0.58969700000000003</v>
+        <v>0.614757</v>
       </c>
       <c r="AA22">
-        <v>0.59066799999999997</v>
+        <v>0.61472099999999996</v>
       </c>
     </row>
     <row r="23" spans="13:27" x14ac:dyDescent="0.2">
@@ -5883,19 +5012,19 @@
         <v>0.63253800000000004</v>
       </c>
       <c r="W23">
-        <v>0.59023300000000001</v>
+        <v>0.61362499999999998</v>
       </c>
       <c r="X23">
-        <v>0.59089599999999998</v>
+        <v>0.61265999999999998</v>
       </c>
       <c r="Y23">
-        <v>0.59324100000000002</v>
+        <v>0.618035</v>
       </c>
       <c r="Z23">
-        <v>0.58972500000000005</v>
+        <v>0.61234500000000003</v>
       </c>
       <c r="AA23">
-        <v>0.59077999999999997</v>
+        <v>0.61220799999999997</v>
       </c>
     </row>
     <row r="24" spans="13:27" x14ac:dyDescent="0.2">
@@ -5930,19 +5059,19 @@
         <v>0.63012599999999996</v>
       </c>
       <c r="W24">
-        <v>0.59073799999999999</v>
+        <v>0.61139100000000002</v>
       </c>
       <c r="X24">
-        <v>0.59143800000000002</v>
+        <v>0.61050300000000002</v>
       </c>
       <c r="Y24">
-        <v>0.59353100000000003</v>
+        <v>0.615869</v>
       </c>
       <c r="Z24">
-        <v>0.59031999999999996</v>
+        <v>0.61016999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.59143199999999996</v>
+        <v>0.60995900000000003</v>
       </c>
     </row>
     <row r="25" spans="13:27" x14ac:dyDescent="0.2">
@@ -5977,19 +5106,19 @@
         <v>0.627772</v>
       </c>
       <c r="W25">
-        <v>0.59160999999999997</v>
+        <v>0.60937200000000002</v>
       </c>
       <c r="X25">
-        <v>0.59233400000000003</v>
+        <v>0.60855899999999996</v>
       </c>
       <c r="Y25">
-        <v>0.59425600000000001</v>
+        <v>0.61390400000000001</v>
       </c>
       <c r="Z25">
-        <v>0.59126699999999999</v>
+        <v>0.60818899999999998</v>
       </c>
       <c r="AA25">
-        <v>0.592445</v>
+        <v>0.60793399999999997</v>
       </c>
     </row>
     <row r="26" spans="13:27" x14ac:dyDescent="0.2">
@@ -6024,19 +5153,19 @@
         <v>0.62550300000000003</v>
       </c>
       <c r="W26">
-        <v>0.59270999999999996</v>
+        <v>0.60753100000000004</v>
       </c>
       <c r="X26">
-        <v>0.59343299999999999</v>
+        <v>0.60678500000000002</v>
       </c>
       <c r="Y26">
-        <v>0.595248</v>
+        <v>0.61210200000000003</v>
       </c>
       <c r="Z26">
-        <v>0.59241500000000002</v>
+        <v>0.60637300000000005</v>
       </c>
       <c r="AA26">
-        <v>0.59366099999999999</v>
+        <v>0.60609599999999997</v>
       </c>
     </row>
     <row r="27" spans="13:27" x14ac:dyDescent="0.2">
@@ -6071,19 +5200,19 @@
         <v>0.62336000000000003</v>
       </c>
       <c r="W27">
-        <v>0.59393399999999996</v>
+        <v>0.60583399999999998</v>
       </c>
       <c r="X27">
-        <v>0.59463200000000005</v>
+        <v>0.60514800000000002</v>
       </c>
       <c r="Y27">
-        <v>0.59638500000000005</v>
+        <v>0.61043199999999997</v>
       </c>
       <c r="Z27">
-        <v>0.59366399999999997</v>
+        <v>0.60469399999999995</v>
       </c>
       <c r="AA27">
-        <v>0.59497500000000003</v>
+        <v>0.60441599999999995</v>
       </c>
     </row>
     <row r="28" spans="13:27" x14ac:dyDescent="0.2">
@@ -6118,19 +5247,19 @@
         <v>0.62135700000000005</v>
       </c>
       <c r="W28">
-        <v>0.59521900000000005</v>
+        <v>0.60425499999999999</v>
       </c>
       <c r="X28">
-        <v>0.59587199999999996</v>
+        <v>0.60362499999999997</v>
       </c>
       <c r="Y28">
-        <v>0.59758800000000001</v>
+        <v>0.60886600000000002</v>
       </c>
       <c r="Z28">
-        <v>0.59494599999999997</v>
+        <v>0.60312500000000002</v>
       </c>
       <c r="AA28">
-        <v>0.59632700000000005</v>
+        <v>0.60286499999999998</v>
       </c>
     </row>
     <row r="29" spans="13:27" x14ac:dyDescent="0.2">
@@ -6165,19 +5294,19 @@
         <v>0.619502</v>
       </c>
       <c r="W29">
-        <v>0.59652400000000005</v>
+        <v>0.60277599999999998</v>
       </c>
       <c r="X29">
-        <v>0.59712399999999999</v>
+        <v>0.60219699999999998</v>
       </c>
       <c r="Y29">
-        <v>0.59882299999999999</v>
+        <v>0.60738800000000004</v>
       </c>
       <c r="Z29">
-        <v>0.59623899999999996</v>
+        <v>0.60165000000000002</v>
       </c>
       <c r="AA29">
-        <v>0.59767999999999999</v>
+        <v>0.60142200000000001</v>
       </c>
     </row>
     <row r="30" spans="13:27" x14ac:dyDescent="0.2">
@@ -6212,19 +5341,19 @@
         <v>0.61778900000000003</v>
       </c>
       <c r="W30">
-        <v>0.597827</v>
+        <v>0.60138400000000003</v>
       </c>
       <c r="X30">
-        <v>0.59836800000000001</v>
+        <v>0.60085200000000005</v>
       </c>
       <c r="Y30">
-        <v>0.60006300000000001</v>
+        <v>0.605985</v>
       </c>
       <c r="Z30">
-        <v>0.597522</v>
+        <v>0.60025499999999998</v>
       </c>
       <c r="AA30">
-        <v>0.59902</v>
+        <v>0.600074</v>
       </c>
     </row>
     <row r="31" spans="13:27" x14ac:dyDescent="0.2">
@@ -6259,19 +5388,19 @@
         <v>0.616205</v>
       </c>
       <c r="W31">
-        <v>0.59911700000000001</v>
+        <v>0.60006499999999996</v>
       </c>
       <c r="X31">
-        <v>0.59959899999999999</v>
+        <v>0.59957899999999997</v>
       </c>
       <c r="Y31">
-        <v>0.60129299999999997</v>
+        <v>0.60465000000000002</v>
       </c>
       <c r="Z31">
-        <v>0.59878299999999995</v>
+        <v>0.59892800000000002</v>
       </c>
       <c r="AA31">
-        <v>0.60033499999999995</v>
+        <v>0.59880900000000004</v>
       </c>
     </row>
     <row r="32" spans="13:27" x14ac:dyDescent="0.2">
@@ -6306,19 +5435,19 @@
         <v>0.61473500000000003</v>
       </c>
       <c r="W32">
-        <v>0.60038499999999995</v>
+        <v>0.59881499999999999</v>
       </c>
       <c r="X32">
-        <v>0.60081300000000004</v>
+        <v>0.59837099999999999</v>
       </c>
       <c r="Y32">
-        <v>0.60250400000000004</v>
+        <v>0.603379</v>
       </c>
       <c r="Z32">
-        <v>0.60002100000000003</v>
+        <v>0.59766200000000003</v>
       </c>
       <c r="AA32">
-        <v>0.60161900000000001</v>
+        <v>0.59762000000000004</v>
       </c>
     </row>
     <row r="33" spans="13:27" x14ac:dyDescent="0.2">
@@ -6353,19 +5482,19 @@
         <v>0.61336599999999997</v>
       </c>
       <c r="W33">
-        <v>0.60162800000000005</v>
+        <v>0.59762800000000005</v>
       </c>
       <c r="X33">
-        <v>0.60199999999999998</v>
+        <v>0.59722299999999995</v>
       </c>
       <c r="Y33">
-        <v>0.60369399999999995</v>
+        <v>0.60216199999999998</v>
       </c>
       <c r="Z33">
-        <v>0.60123199999999999</v>
+        <v>0.59645599999999999</v>
       </c>
       <c r="AA33">
-        <v>0.60286799999999996</v>
+        <v>0.596499</v>
       </c>
     </row>
     <row r="34" spans="13:27" x14ac:dyDescent="0.2">
@@ -6400,19 +5529,19 @@
         <v>0.61207999999999996</v>
       </c>
       <c r="W34">
-        <v>0.60284000000000004</v>
+        <v>0.596499</v>
       </c>
       <c r="X34">
-        <v>0.603159</v>
+        <v>0.59613000000000005</v>
       </c>
       <c r="Y34">
-        <v>0.60485800000000001</v>
+        <v>0.60099899999999995</v>
       </c>
       <c r="Z34">
-        <v>0.60241400000000001</v>
+        <v>0.59530799999999995</v>
       </c>
       <c r="AA34">
-        <v>0.60408200000000001</v>
+        <v>0.595441</v>
       </c>
     </row>
     <row r="35" spans="13:27" x14ac:dyDescent="0.2">
@@ -6447,19 +5576,19 @@
         <v>0.61086600000000002</v>
       </c>
       <c r="W35">
-        <v>0.60402199999999995</v>
+        <v>0.59542600000000001</v>
       </c>
       <c r="X35">
-        <v>0.60429100000000002</v>
+        <v>0.59508899999999998</v>
       </c>
       <c r="Y35">
-        <v>0.60599400000000003</v>
+        <v>0.59988699999999995</v>
       </c>
       <c r="Z35">
-        <v>0.60356600000000005</v>
+        <v>0.59421800000000002</v>
       </c>
       <c r="AA35">
-        <v>0.60526100000000005</v>
+        <v>0.59444300000000005</v>
       </c>
     </row>
     <row r="36" spans="13:27" x14ac:dyDescent="0.2">
@@ -6494,19 +5623,19 @@
         <v>0.60971600000000004</v>
       </c>
       <c r="W36">
-        <v>0.60517200000000004</v>
+        <v>0.59440700000000002</v>
       </c>
       <c r="X36">
-        <v>0.60539299999999996</v>
+        <v>0.59409699999999999</v>
       </c>
       <c r="Y36">
-        <v>0.60709900000000006</v>
+        <v>0.598827</v>
       </c>
       <c r="Z36">
-        <v>0.60468699999999997</v>
+        <v>0.59318400000000004</v>
       </c>
       <c r="AA36">
-        <v>0.60640499999999997</v>
+        <v>0.59350199999999997</v>
       </c>
     </row>
     <row r="37" spans="13:27" x14ac:dyDescent="0.2">
@@ -6541,19 +5670,19 @@
         <v>0.60862099999999997</v>
       </c>
       <c r="W37">
-        <v>0.60629100000000002</v>
+        <v>0.59343999999999997</v>
       </c>
       <c r="X37">
-        <v>0.60646500000000003</v>
+        <v>0.59315499999999999</v>
       </c>
       <c r="Y37">
-        <v>0.60817500000000002</v>
+        <v>0.59781600000000001</v>
       </c>
       <c r="Z37">
-        <v>0.60577700000000001</v>
+        <v>0.59220600000000001</v>
       </c>
       <c r="AA37">
-        <v>0.607518</v>
+        <v>0.59261299999999995</v>
       </c>
     </row>
     <row r="38" spans="13:27" x14ac:dyDescent="0.2">
@@ -6588,19 +5717,19 @@
         <v>0.60757499999999998</v>
       </c>
       <c r="W38">
-        <v>0.60738000000000003</v>
+        <v>0.592526</v>
       </c>
       <c r="X38">
-        <v>0.60750800000000005</v>
+        <v>0.59226000000000001</v>
       </c>
       <c r="Y38">
-        <v>0.60921700000000001</v>
+        <v>0.59685600000000005</v>
       </c>
       <c r="Z38">
-        <v>0.60683799999999999</v>
+        <v>0.59128400000000003</v>
       </c>
       <c r="AA38">
-        <v>0.60860000000000003</v>
+        <v>0.59177500000000005</v>
       </c>
     </row>
     <row r="39" spans="13:27" x14ac:dyDescent="0.2">
@@ -6635,19 +5764,19 @@
         <v>0.60657300000000003</v>
       </c>
       <c r="W39">
-        <v>0.60843999999999998</v>
+        <v>0.59166300000000005</v>
       </c>
       <c r="X39">
-        <v>0.60851999999999995</v>
+        <v>0.59140899999999996</v>
       </c>
       <c r="Y39">
-        <v>0.61022799999999999</v>
+        <v>0.59594800000000003</v>
       </c>
       <c r="Z39">
-        <v>0.60787000000000002</v>
+        <v>0.590418</v>
       </c>
       <c r="AA39">
-        <v>0.60965100000000005</v>
+        <v>0.59098700000000004</v>
       </c>
     </row>
     <row r="40" spans="13:27" x14ac:dyDescent="0.2">
@@ -6682,19 +5811,19 @@
         <v>0.60561299999999996</v>
       </c>
       <c r="W40">
-        <v>0.60947099999999998</v>
+        <v>0.59085100000000002</v>
       </c>
       <c r="X40">
-        <v>0.60950099999999996</v>
+        <v>0.59060400000000002</v>
       </c>
       <c r="Y40">
-        <v>0.61120799999999997</v>
+        <v>0.59509100000000004</v>
       </c>
       <c r="Z40">
-        <v>0.608873</v>
+        <v>0.58960500000000005</v>
       </c>
       <c r="AA40">
-        <v>0.61067300000000002</v>
+        <v>0.59024600000000005</v>
       </c>
     </row>
     <row r="41" spans="13:27" x14ac:dyDescent="0.2">
@@ -6729,19 +5858,19 @@
         <v>0.60469300000000004</v>
       </c>
       <c r="W41">
-        <v>0.61047399999999996</v>
+        <v>0.59008799999999995</v>
       </c>
       <c r="X41">
-        <v>0.61045400000000005</v>
+        <v>0.58984199999999998</v>
       </c>
       <c r="Y41">
-        <v>0.61215900000000001</v>
+        <v>0.59428499999999995</v>
       </c>
       <c r="Z41">
-        <v>0.60984799999999995</v>
+        <v>0.58884400000000003</v>
       </c>
       <c r="AA41">
-        <v>0.61166799999999999</v>
+        <v>0.58955199999999996</v>
       </c>
     </row>
     <row r="42" spans="13:27" x14ac:dyDescent="0.2">
@@ -6776,19 +5905,19 @@
         <v>0.60380999999999996</v>
       </c>
       <c r="W42">
-        <v>0.61144900000000002</v>
+        <v>0.58937300000000004</v>
       </c>
       <c r="X42">
-        <v>0.61137799999999998</v>
+        <v>0.58912399999999998</v>
       </c>
       <c r="Y42">
-        <v>0.61308200000000002</v>
+        <v>0.593526</v>
       </c>
       <c r="Z42">
-        <v>0.61079600000000001</v>
+        <v>0.58813400000000005</v>
       </c>
       <c r="AA42">
-        <v>0.61263500000000004</v>
+        <v>0.58890399999999998</v>
       </c>
     </row>
     <row r="43" spans="13:27" x14ac:dyDescent="0.2">
@@ -6823,19 +5952,19 @@
         <v>0.602962</v>
       </c>
       <c r="W43">
-        <v>0.61239900000000003</v>
+        <v>0.58870400000000001</v>
       </c>
       <c r="X43">
-        <v>0.61227600000000004</v>
+        <v>0.58844799999999997</v>
       </c>
       <c r="Y43">
-        <v>0.61397900000000005</v>
+        <v>0.59281499999999998</v>
       </c>
       <c r="Z43">
-        <v>0.61171799999999998</v>
+        <v>0.58747099999999997</v>
       </c>
       <c r="AA43">
-        <v>0.61357499999999998</v>
+        <v>0.58830000000000005</v>
       </c>
     </row>
     <row r="44" spans="13:27" x14ac:dyDescent="0.2">
@@ -6870,19 +5999,19 @@
         <v>0.60214800000000002</v>
       </c>
       <c r="W44">
-        <v>0.61332200000000003</v>
+        <v>0.58808099999999996</v>
       </c>
       <c r="X44">
-        <v>0.613147</v>
+        <v>0.587812</v>
       </c>
       <c r="Y44">
-        <v>0.61485000000000001</v>
+        <v>0.59214999999999995</v>
       </c>
       <c r="Z44">
-        <v>0.61261500000000002</v>
+        <v>0.58685600000000004</v>
       </c>
       <c r="AA44">
-        <v>0.61448999999999998</v>
+        <v>0.58774000000000004</v>
       </c>
     </row>
     <row r="45" spans="13:27" x14ac:dyDescent="0.2">
@@ -6917,19 +6046,19 @@
         <v>0.60136800000000001</v>
       </c>
       <c r="W45">
-        <v>0.61422100000000002</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="X45">
-        <v>0.61399300000000001</v>
+        <v>0.58721699999999999</v>
       </c>
       <c r="Y45">
-        <v>0.61569600000000002</v>
+        <v>0.59153</v>
       </c>
       <c r="Z45">
-        <v>0.61348899999999995</v>
+        <v>0.58628800000000003</v>
       </c>
       <c r="AA45">
-        <v>0.61537900000000001</v>
+        <v>0.58722300000000005</v>
       </c>
     </row>
     <row r="46" spans="13:27" x14ac:dyDescent="0.2">
@@ -6964,19 +6093,19 @@
         <v>0.60062300000000002</v>
       </c>
       <c r="W46">
-        <v>0.61509599999999998</v>
+        <v>0.58696400000000004</v>
       </c>
       <c r="X46">
-        <v>0.61481399999999997</v>
+        <v>0.58666200000000002</v>
       </c>
       <c r="Y46">
-        <v>0.61651900000000004</v>
+        <v>0.59095399999999998</v>
       </c>
       <c r="Z46">
-        <v>0.61433800000000005</v>
+        <v>0.58576399999999995</v>
       </c>
       <c r="AA46">
-        <v>0.61624500000000004</v>
+        <v>0.58674700000000002</v>
       </c>
     </row>
     <row r="47" spans="13:27" x14ac:dyDescent="0.2">
@@ -7011,19 +6140,19 @@
         <v>0.59991300000000003</v>
       </c>
       <c r="W47">
-        <v>0.61595</v>
+        <v>0.58647000000000005</v>
       </c>
       <c r="X47">
-        <v>0.61561399999999999</v>
+        <v>0.58614599999999994</v>
       </c>
       <c r="Y47">
-        <v>0.61732100000000001</v>
+        <v>0.59042099999999997</v>
       </c>
       <c r="Z47">
-        <v>0.61516400000000004</v>
+        <v>0.58528400000000003</v>
       </c>
       <c r="AA47">
-        <v>0.61708799999999997</v>
+        <v>0.58631</v>
       </c>
     </row>
     <row r="48" spans="13:27" x14ac:dyDescent="0.2">
@@ -7058,19 +6187,19 @@
         <v>0.59923700000000002</v>
       </c>
       <c r="W48">
-        <v>0.61678100000000002</v>
+        <v>0.58601599999999998</v>
       </c>
       <c r="X48">
-        <v>0.61639299999999997</v>
+        <v>0.58566799999999997</v>
       </c>
       <c r="Y48">
-        <v>0.61810200000000004</v>
+        <v>0.58992800000000001</v>
       </c>
       <c r="Z48">
-        <v>0.61596899999999999</v>
+        <v>0.58484599999999998</v>
       </c>
       <c r="AA48">
-        <v>0.61790900000000004</v>
+        <v>0.58591199999999999</v>
       </c>
     </row>
     <row r="49" spans="13:27" x14ac:dyDescent="0.2">
@@ -7105,19 +6234,19 @@
         <v>0.59859799999999996</v>
       </c>
       <c r="W49">
-        <v>0.61759200000000003</v>
+        <v>0.58560199999999996</v>
       </c>
       <c r="X49">
-        <v>0.61715100000000001</v>
+        <v>0.58522799999999997</v>
       </c>
       <c r="Y49">
-        <v>0.61886200000000002</v>
+        <v>0.58947499999999997</v>
       </c>
       <c r="Z49">
-        <v>0.61675100000000005</v>
+        <v>0.58445000000000003</v>
       </c>
       <c r="AA49">
-        <v>0.61870999999999998</v>
+        <v>0.58555100000000004</v>
       </c>
     </row>
     <row r="50" spans="13:27" x14ac:dyDescent="0.2">
@@ -7152,19 +6281,19 @@
         <v>0.59799500000000005</v>
       </c>
       <c r="W50">
-        <v>0.61838199999999999</v>
+        <v>0.585225</v>
       </c>
       <c r="X50">
-        <v>0.61788900000000002</v>
+        <v>0.58482400000000001</v>
       </c>
       <c r="Y50">
-        <v>0.61960199999999999</v>
+        <v>0.589059</v>
       </c>
       <c r="Z50">
-        <v>0.61751400000000001</v>
+        <v>0.584094</v>
       </c>
       <c r="AA50">
-        <v>0.61949100000000001</v>
+        <v>0.585225</v>
       </c>
     </row>
     <row r="51" spans="13:27" x14ac:dyDescent="0.2">
@@ -7199,19 +6328,19 @@
         <v>0.59742899999999999</v>
       </c>
       <c r="W51">
-        <v>0.61915399999999998</v>
+        <v>0.58488399999999996</v>
       </c>
       <c r="X51">
-        <v>0.61860700000000002</v>
+        <v>0.584457</v>
       </c>
       <c r="Y51">
-        <v>0.62032200000000004</v>
+        <v>0.58867999999999998</v>
       </c>
       <c r="Z51">
-        <v>0.61825600000000003</v>
+        <v>0.58377599999999996</v>
       </c>
       <c r="AA51">
-        <v>0.62025200000000003</v>
+        <v>0.58493499999999998</v>
       </c>
     </row>
     <row r="52" spans="13:27" x14ac:dyDescent="0.2">
@@ -7246,19 +6375,19 @@
         <v>0.59689800000000004</v>
       </c>
       <c r="W52">
-        <v>0.61990599999999996</v>
+        <v>0.58457899999999996</v>
       </c>
       <c r="X52">
-        <v>0.61930799999999997</v>
+        <v>0.58412399999999998</v>
       </c>
       <c r="Y52">
-        <v>0.62102400000000002</v>
+        <v>0.58833500000000005</v>
       </c>
       <c r="Z52">
-        <v>0.618981</v>
+        <v>0.58349499999999999</v>
       </c>
       <c r="AA52">
-        <v>0.62099400000000005</v>
+        <v>0.58467800000000003</v>
       </c>
     </row>
     <row r="53" spans="13:27" x14ac:dyDescent="0.2">
@@ -7293,19 +6422,19 @@
         <v>0.59640199999999999</v>
       </c>
       <c r="W53">
-        <v>0.62063999999999997</v>
+        <v>0.58430499999999996</v>
       </c>
       <c r="X53">
-        <v>0.61999199999999999</v>
+        <v>0.58382500000000004</v>
       </c>
       <c r="Y53">
-        <v>0.62170899999999996</v>
+        <v>0.58802299999999996</v>
       </c>
       <c r="Z53">
-        <v>0.61968800000000002</v>
+        <v>0.58324900000000002</v>
       </c>
       <c r="AA53">
-        <v>0.62171799999999999</v>
+        <v>0.58445199999999997</v>
       </c>
     </row>
     <row r="54" spans="13:27" x14ac:dyDescent="0.2">
@@ -7340,19 +6469,19 @@
         <v>0.59594100000000005</v>
       </c>
       <c r="W54">
-        <v>0.62135700000000005</v>
+        <v>0.584063</v>
       </c>
       <c r="X54">
-        <v>0.62065800000000004</v>
+        <v>0.58355900000000005</v>
       </c>
       <c r="Y54">
-        <v>0.62237799999999999</v>
+        <v>0.58774199999999999</v>
       </c>
       <c r="Z54">
-        <v>0.62037600000000004</v>
+        <v>0.58303499999999997</v>
       </c>
       <c r="AA54">
-        <v>0.62242399999999998</v>
+        <v>0.58425800000000006</v>
       </c>
     </row>
     <row r="55" spans="13:27" x14ac:dyDescent="0.2">
@@ -7387,19 +6516,19 @@
         <v>0.59551299999999996</v>
       </c>
       <c r="W55">
-        <v>0.62205699999999997</v>
+        <v>0.58385100000000001</v>
       </c>
       <c r="X55">
-        <v>0.621309</v>
+        <v>0.58332200000000001</v>
       </c>
       <c r="Y55">
-        <v>0.62302999999999997</v>
+        <v>0.58749200000000001</v>
       </c>
       <c r="Z55">
-        <v>0.62104700000000002</v>
+        <v>0.58285100000000001</v>
       </c>
       <c r="AA55">
-        <v>0.623112</v>
+        <v>0.58409299999999997</v>
       </c>
     </row>
     <row r="56" spans="13:27" x14ac:dyDescent="0.2">
@@ -7434,19 +6563,19 @@
         <v>0.59511899999999995</v>
       </c>
       <c r="W56">
-        <v>0.62274200000000002</v>
+        <v>0.58366700000000005</v>
       </c>
       <c r="X56">
-        <v>0.62194499999999997</v>
+        <v>0.58311400000000002</v>
       </c>
       <c r="Y56">
-        <v>0.623668</v>
+        <v>0.58726999999999996</v>
       </c>
       <c r="Z56">
-        <v>0.62170300000000001</v>
+        <v>0.58269700000000002</v>
       </c>
       <c r="AA56">
-        <v>0.62378299999999998</v>
+        <v>0.58395399999999997</v>
       </c>
     </row>
     <row r="57" spans="13:27" x14ac:dyDescent="0.2">
@@ -7481,19 +6610,19 @@
         <v>0.59475999999999996</v>
       </c>
       <c r="W57">
-        <v>0.62341100000000005</v>
+        <v>0.58350999999999997</v>
       </c>
       <c r="X57">
-        <v>0.62256599999999995</v>
+        <v>0.58293399999999995</v>
       </c>
       <c r="Y57">
-        <v>0.62429100000000004</v>
+        <v>0.58707500000000001</v>
       </c>
       <c r="Z57">
-        <v>0.62234400000000001</v>
+        <v>0.58256799999999997</v>
       </c>
       <c r="AA57">
-        <v>0.62443899999999997</v>
+        <v>0.58384199999999997</v>
       </c>
     </row>
     <row r="58" spans="13:27" x14ac:dyDescent="0.2">
@@ -7528,19 +6657,19 @@
         <v>0.59443199999999996</v>
       </c>
       <c r="W58">
-        <v>0.62406499999999998</v>
+        <v>0.58337700000000003</v>
       </c>
       <c r="X58">
-        <v>0.62317299999999998</v>
+        <v>0.58277999999999996</v>
       </c>
       <c r="Y58">
-        <v>0.62489899999999998</v>
+        <v>0.58690399999999998</v>
       </c>
       <c r="Z58">
-        <v>0.62297000000000002</v>
+        <v>0.58246500000000001</v>
       </c>
       <c r="AA58">
-        <v>0.62507999999999997</v>
+        <v>0.583754</v>
       </c>
     </row>
     <row r="59" spans="13:27" x14ac:dyDescent="0.2">
@@ -7575,19 +6704,19 @@
         <v>0.59413700000000003</v>
       </c>
       <c r="W59">
-        <v>0.62470499999999995</v>
+        <v>0.58326699999999998</v>
       </c>
       <c r="X59">
-        <v>0.62376699999999996</v>
+        <v>0.58265100000000003</v>
       </c>
       <c r="Y59">
-        <v>0.62549299999999997</v>
+        <v>0.58675600000000006</v>
       </c>
       <c r="Z59">
-        <v>0.62358199999999997</v>
+        <v>0.58238500000000004</v>
       </c>
       <c r="AA59">
-        <v>0.62570599999999998</v>
+        <v>0.58368799999999998</v>
       </c>
     </row>
   </sheetData>
@@ -7596,51 +6725,52 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M9:M59">
-    <cfRule type="top10" dxfId="33" priority="30" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="46" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N59">
-    <cfRule type="top10" dxfId="32" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="45" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:O59">
-    <cfRule type="top10" dxfId="31" priority="28" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="33" priority="44" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P59">
-    <cfRule type="top10" dxfId="30" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="43" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q59">
-    <cfRule type="top10" dxfId="29" priority="26" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="42" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9:R59">
+    <cfRule type="top10" dxfId="30" priority="26" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9:S59">
+    <cfRule type="top10" dxfId="29" priority="25" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9:T59">
+    <cfRule type="top10" dxfId="28" priority="24" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:U59">
+    <cfRule type="top10" dxfId="27" priority="23" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V9:V59">
+    <cfRule type="top10" dxfId="26" priority="22" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:W59">
-    <cfRule type="top10" dxfId="28" priority="20" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X9:X59">
-    <cfRule type="top10" dxfId="27" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:Y59">
-    <cfRule type="top10" dxfId="26" priority="18" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:Z59">
-    <cfRule type="top10" dxfId="25" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9:AA59">
-    <cfRule type="top10" dxfId="24" priority="16" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R9:R59">
-    <cfRule type="top10" dxfId="23" priority="10" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S9:S59">
-    <cfRule type="top10" dxfId="22" priority="9" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T9:T59">
-    <cfRule type="top10" dxfId="21" priority="8" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U9:U59">
-    <cfRule type="top10" dxfId="20" priority="7" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V9:V59">
-    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11831,79 +10961,79 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:B53">
-    <cfRule type="top10" dxfId="104" priority="50" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="60" priority="50" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C53">
-    <cfRule type="top10" dxfId="103" priority="49" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="59" priority="49" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D53">
-    <cfRule type="top10" dxfId="102" priority="48" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="58" priority="48" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E53">
-    <cfRule type="top10" dxfId="101" priority="47" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="57" priority="47" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F53">
-    <cfRule type="top10" dxfId="100" priority="46" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="46" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G53">
-    <cfRule type="top10" dxfId="99" priority="45" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="55" priority="45" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H53">
-    <cfRule type="top10" dxfId="98" priority="44" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="44" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I53">
-    <cfRule type="top10" dxfId="97" priority="43" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="53" priority="43" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J53">
-    <cfRule type="top10" dxfId="96" priority="42" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="42" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K53">
-    <cfRule type="top10" dxfId="95" priority="41" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="51" priority="41" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L53">
-    <cfRule type="top10" dxfId="94" priority="40" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="40" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M53">
-    <cfRule type="top10" dxfId="93" priority="39" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="39" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N53">
-    <cfRule type="top10" dxfId="92" priority="38" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="38" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O53">
-    <cfRule type="top10" dxfId="91" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="47" priority="37" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P53">
-    <cfRule type="top10" dxfId="90" priority="36" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="36" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q53">
-    <cfRule type="top10" dxfId="89" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="45" priority="35" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R53">
-    <cfRule type="top10" dxfId="88" priority="34" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="34" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S53">
-    <cfRule type="top10" dxfId="87" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="43" priority="33" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T53">
-    <cfRule type="top10" dxfId="86" priority="32" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="42" priority="32" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U53">
-    <cfRule type="top10" dxfId="85" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="41" priority="31" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V53">
-    <cfRule type="top10" dxfId="84" priority="30" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="30" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W53">
-    <cfRule type="top10" dxfId="83" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="39" priority="29" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X53">
-    <cfRule type="top10" dxfId="82" priority="28" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="28" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y53">
-    <cfRule type="top10" dxfId="81" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="27" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z53">
-    <cfRule type="top10" dxfId="80" priority="26" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="26" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
